--- a/feature_importance.xlsx
+++ b/feature_importance.xlsx
@@ -487,10 +487,10 @@
         <v>0.4633343310386112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01290474086999893</v>
+        <v>0.01290474273264408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2381195359543051</v>
+        <v>0.2381195368856276</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>0.3840167614486681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005780972074717283</v>
+        <v>0.005780972540378571</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1948988667616927</v>
+        <v>0.1948988669945233</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,10 @@
         <v>0.2843460041903622</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001698309904895723</v>
+        <v>0.001698310021311045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1430221570476289</v>
+        <v>0.1430221571058366</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +544,10 @@
         <v>0.2574079616881173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004404810722917318</v>
+        <v>0.004404811188578606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1309063862055173</v>
+        <v>0.130906386438348</v>
       </c>
     </row>
     <row r="7">
@@ -563,10 +563,10 @@
         <v>0.2484286141873691</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001559781725518405</v>
+        <v>0.001559781958349049</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1249941979564437</v>
+        <v>0.1249941980728591</v>
       </c>
     </row>
     <row r="8">
@@ -582,10 +582,10 @@
         <v>0.2343609697695301</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006738155148923397</v>
+        <v>0.006738155614584684</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1205495624592267</v>
+        <v>0.1205495626920574</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         <v>0.2193953906016163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003128730459138751</v>
+        <v>0.003128730691969395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1112620605303775</v>
+        <v>0.1112620606467928</v>
       </c>
     </row>
     <row r="12">
@@ -658,10 +658,10 @@
         <v>0.2077222388506435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000481645722175017</v>
+        <v>0.0004816457803826779</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1041019422864093</v>
+        <v>0.1041019423155131</v>
       </c>
     </row>
     <row r="13">
@@ -677,10 +677,10 @@
         <v>0.1987428913498952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002810021687764674</v>
+        <v>0.0002810021978802979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09951194675933585</v>
+        <v>0.09951194677388776</v>
       </c>
     </row>
     <row r="14">
@@ -696,10 +696,10 @@
         <v>0.1978449565998204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0006358401151373982</v>
+        <v>0.0006358401733450592</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0992403983574789</v>
+        <v>0.09924039838658273</v>
       </c>
     </row>
     <row r="15">
@@ -715,10 +715,10 @@
         <v>0.1954504639329542</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002323280787095428</v>
+        <v>0.002323281019926071</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09888687236002482</v>
+        <v>0.09888687247644014</v>
       </c>
     </row>
     <row r="16">
@@ -734,10 +734,10 @@
         <v>0.1915594133492966</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001507622189819813</v>
+        <v>0.001507622306235135</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09653351776955822</v>
+        <v>0.09653351782776588</v>
       </c>
     </row>
     <row r="17">
@@ -753,10 +753,10 @@
         <v>0.1903621670158635</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0006706134881824255</v>
+        <v>0.0006706135463900864</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09551639025202296</v>
+        <v>0.0955163902811268</v>
       </c>
     </row>
     <row r="18">
@@ -772,10 +772,10 @@
         <v>0.1768931457647411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001048937207087874</v>
+        <v>0.001048937323503196</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08897104148591449</v>
+        <v>0.08897104154412215</v>
       </c>
     </row>
     <row r="19">
@@ -791,10 +791,10 @@
         <v>0.1753965878479497</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003098300890997052</v>
+        <v>0.003098301123827696</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08924744436947338</v>
+        <v>0.0892474444858887</v>
       </c>
     </row>
     <row r="20">
@@ -810,10 +810,10 @@
         <v>0.1747979646812332</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002601925516501069</v>
+        <v>0.002601925749331713</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08869994509886711</v>
+        <v>0.08869994521528243</v>
       </c>
     </row>
     <row r="21">
@@ -848,10 +848,10 @@
         <v>0.1691110445974259</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003396015148609877</v>
+        <v>0.00339601538144052</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0862535298730179</v>
+        <v>0.08625352998943323</v>
       </c>
     </row>
     <row r="23">
@@ -867,10 +867,10 @@
         <v>0.1658186171804849</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002991699846461415</v>
+        <v>0.002991700079292059</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08440515851347315</v>
+        <v>0.08440515862988847</v>
       </c>
     </row>
     <row r="24">
@@ -886,10 +886,10 @@
         <v>0.1640227476803352</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0002394277107669041</v>
+        <v>0.0002394277253188193</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08213108769555107</v>
+        <v>0.08213108770282702</v>
       </c>
     </row>
     <row r="25">
@@ -905,10 +905,10 @@
         <v>0.1640227476803352</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001374234445393085</v>
+        <v>0.001374234561808407</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08269849106286416</v>
+        <v>0.08269849112107182</v>
       </c>
     </row>
     <row r="26">
@@ -924,10 +924,10 @@
         <v>0.163723436096977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0004069063579663634</v>
+        <v>0.0004069063870701939</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08206517122747166</v>
+        <v>0.08206517124202357</v>
       </c>
     </row>
     <row r="27">
@@ -943,10 +943,10 @@
         <v>0.161628255013469</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0006382741848938167</v>
+        <v>0.0006382742431014776</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08113326459918142</v>
+        <v>0.08113326462828525</v>
       </c>
     </row>
     <row r="28">
@@ -962,10 +962,10 @@
         <v>0.1613289434301108</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004111872694920748</v>
+        <v>0.0004111872985959053</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08087006534980141</v>
+        <v>0.08087006536435333</v>
       </c>
     </row>
     <row r="29">
@@ -981,10 +981,10 @@
         <v>0.1598323855133194</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003176713362336159</v>
+        <v>0.003176713595166802</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08150454943782776</v>
+        <v>0.08150454955424308</v>
       </c>
     </row>
     <row r="30">
@@ -1000,10 +1000,10 @@
         <v>0.1589344507632445</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0005328888655640185</v>
+        <v>0.0005328889237716794</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07973366981440427</v>
+        <v>0.0797336698435081</v>
       </c>
     </row>
     <row r="31">
@@ -1019,10 +1019,10 @@
         <v>0.1586351391798863</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000239097949815914</v>
+        <v>0.0002390979643678293</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07943711856485108</v>
+        <v>0.07943711857212704</v>
       </c>
     </row>
     <row r="32">
@@ -1038,10 +1038,10 @@
         <v>0.1580365160131697</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0004131747700739652</v>
+        <v>0.0004131747991777956</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07922484539162183</v>
+        <v>0.07922484540617375</v>
       </c>
     </row>
     <row r="33">
@@ -1057,10 +1057,10 @@
         <v>0.1580365160131697</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001556591829285026</v>
+        <v>0.001556591945700347</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07979655392122736</v>
+        <v>0.07979655397943503</v>
       </c>
     </row>
     <row r="34">
@@ -1076,10 +1076,10 @@
         <v>0.1562406465130201</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001170157687738538</v>
+        <v>0.00117015780415386</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0787054021003793</v>
+        <v>0.07870540215858696</v>
       </c>
     </row>
     <row r="35">
@@ -1095,10 +1095,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001934454659931362</v>
+        <v>0.001934454776346684</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07789030425304261</v>
+        <v>0.07789030431125027</v>
       </c>
     </row>
     <row r="36">
@@ -1114,10 +1114,10 @@
         <v>0.1508530380125711</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001478226506151259</v>
+        <v>0.001478226622566581</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07616563225936117</v>
+        <v>0.07616563231756883</v>
       </c>
     </row>
     <row r="37">
@@ -1133,10 +1133,10 @@
         <v>0.1502544148458545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0004015015438199043</v>
+        <v>0.0004015015729237348</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07532795819483722</v>
+        <v>0.07532795820938913</v>
       </c>
     </row>
     <row r="38">
@@ -1152,10 +1152,10 @@
         <v>0.149655791679138</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0005867918953299522</v>
+        <v>0.0005867919535376132</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07512129178723397</v>
+        <v>0.0751212918163378</v>
       </c>
     </row>
     <row r="39">
@@ -1171,10 +1171,10 @@
         <v>0.1490571685124214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0003615095629356802</v>
+        <v>0.0003615095920395106</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07470933903767855</v>
+        <v>0.07470933905223047</v>
       </c>
     </row>
     <row r="40">
@@ -1190,10 +1190,10 @@
         <v>0.1484585453457049</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001173660508356988</v>
+        <v>0.00117366062477231</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07481610292703093</v>
+        <v>0.07481610298523859</v>
       </c>
     </row>
     <row r="41">
@@ -1209,10 +1209,10 @@
         <v>0.146363364262197</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0001631698833080009</v>
+        <v>0.0001631698978599161</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07326326707275248</v>
+        <v>0.07326326708002844</v>
       </c>
     </row>
     <row r="42">
@@ -1228,10 +1228,10 @@
         <v>0.1460640526788387</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000249294243985787</v>
+        <v>0.0002492942730896175</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07315667346141223</v>
+        <v>0.07315667347596415</v>
       </c>
     </row>
     <row r="43">
@@ -1266,10 +1266,10 @@
         <v>0.1451661179287639</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0008872573962435126</v>
+        <v>0.0008872574544511735</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07302668766250368</v>
+        <v>0.07302668769160751</v>
       </c>
     </row>
     <row r="45">
@@ -1285,10 +1285,10 @@
         <v>0.144268183178689</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0006579734035767615</v>
+        <v>0.0006579734617844224</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07246307829113288</v>
+        <v>0.07246307832023671</v>
       </c>
     </row>
     <row r="46">
@@ -1304,10 +1304,10 @@
         <v>0.1424723136785394</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0002601211017463356</v>
+        <v>0.0002601211308501661</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07136621739014284</v>
+        <v>0.07136621740469476</v>
       </c>
     </row>
     <row r="47">
@@ -1323,10 +1323,10 @@
         <v>0.1415743789284645</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001712296361802146</v>
+        <v>0.0001712296507321298</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07087280428232237</v>
+        <v>0.07087280428959833</v>
       </c>
     </row>
     <row r="48">
@@ -1342,10 +1342,10 @@
         <v>0.1391798862615983</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0007491419091820717</v>
+        <v>0.0007491419673897326</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0699645140853902</v>
+        <v>0.06996451411449403</v>
       </c>
     </row>
     <row r="49">
@@ -1361,10 +1361,10 @@
         <v>0.1373840167614487</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0002557532279752195</v>
+        <v>0.0002557532570790499</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06881988499471195</v>
+        <v>0.06881988500926386</v>
       </c>
     </row>
     <row r="50">
@@ -1380,10 +1380,10 @@
         <v>0.1358874588446573</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001098429900594056</v>
+        <v>0.001098430017009377</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06849294437262567</v>
+        <v>0.06849294443083333</v>
       </c>
     </row>
     <row r="51">
@@ -1399,10 +1399,10 @@
         <v>0.1349895240945825</v>
       </c>
       <c r="D51" t="n">
-        <v>0.000599294900894165</v>
+        <v>0.000599294959101826</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06779440949773831</v>
+        <v>0.06779440952684214</v>
       </c>
     </row>
     <row r="52">
@@ -1418,10 +1418,10 @@
         <v>0.1349895240945825</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0004587552684824914</v>
+        <v>0.0004587552975863218</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06772413968153247</v>
+        <v>0.06772413969608439</v>
       </c>
     </row>
     <row r="53">
@@ -1437,10 +1437,10 @@
         <v>0.1340915893445076</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0008385057444684207</v>
+        <v>0.0008385058026760817</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06746504754448802</v>
+        <v>0.06746504757359185</v>
       </c>
     </row>
     <row r="54">
@@ -1456,10 +1456,10 @@
         <v>0.1337922777611494</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0003407192707527429</v>
+        <v>0.0003407192998565733</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06706649851595105</v>
+        <v>0.06706649853050296</v>
       </c>
     </row>
     <row r="55">
@@ -1475,10 +1475,10 @@
         <v>0.1331936545944328</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0004756443959195167</v>
+        <v>0.0004756444250233471</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06683464949517616</v>
+        <v>0.06683464950972808</v>
       </c>
     </row>
     <row r="56">
@@ -1494,10 +1494,10 @@
         <v>0.132295719844358</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0002224087511422113</v>
+        <v>0.0002224087656941265</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06625906429775009</v>
+        <v>0.06625906430502605</v>
       </c>
     </row>
     <row r="57">
@@ -1513,10 +1513,10 @@
         <v>0.1310984735109249</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0004092120216228068</v>
+        <v>0.0004092120507266372</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06575384276627384</v>
+        <v>0.06575384278082576</v>
       </c>
     </row>
     <row r="58">
@@ -1532,10 +1532,10 @@
         <v>0.1307991619275666</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0001947492273757234</v>
+        <v>0.0001947492419276386</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06549695557747116</v>
+        <v>0.06549695558474712</v>
       </c>
     </row>
     <row r="59">
@@ -1551,10 +1551,10 @@
         <v>0.1304998503442083</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0007405213546007872</v>
+        <v>0.0007405214128084481</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06562018584940456</v>
+        <v>0.06562018587850839</v>
       </c>
     </row>
     <row r="60">
@@ -1570,10 +1570,10 @@
         <v>0.1302005387608501</v>
       </c>
       <c r="D60" t="n">
-        <v>0.000568379822652787</v>
+        <v>0.0005683798808604479</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06538445929175142</v>
+        <v>0.06538445932085525</v>
       </c>
     </row>
     <row r="61">
@@ -1589,10 +1589,10 @@
         <v>0.1299012271774918</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001091384561732411</v>
+        <v>0.001091384678147733</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0654963058696121</v>
+        <v>0.06549630592781976</v>
       </c>
     </row>
     <row r="62">
@@ -1608,10 +1608,10 @@
         <v>0.1299012271774918</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00150118104647845</v>
+        <v>0.001501181162893772</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06570120411198511</v>
+        <v>0.06570120417019278</v>
       </c>
     </row>
     <row r="63">
@@ -1627,10 +1627,10 @@
         <v>0.1299012271774918</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00051478500245139</v>
+        <v>0.0005147850606590509</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06520800608997158</v>
+        <v>0.06520800611907542</v>
       </c>
     </row>
     <row r="64">
@@ -1646,10 +1646,10 @@
         <v>0.1296019155941335</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0003842955338768661</v>
+        <v>0.0003842955629806966</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06499310556400519</v>
+        <v>0.0649931055785571</v>
       </c>
     </row>
     <row r="65">
@@ -1665,10 +1665,10 @@
         <v>0.1296019155941335</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0005044219433329999</v>
+        <v>0.0005044220015406609</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06505316876873325</v>
+        <v>0.06505316879783708</v>
       </c>
     </row>
     <row r="66">
@@ -1703,10 +1703,10 @@
         <v>0.1284046692607004</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002388692460954189</v>
+        <v>0.002388692693784833</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06539668086082728</v>
+        <v>0.0653966809772426</v>
       </c>
     </row>
     <row r="68">
@@ -1722,10 +1722,10 @@
         <v>0.1281053576773421</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0004553320177365094</v>
+        <v>0.0004553320468403399</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06428034484753931</v>
+        <v>0.06428034486209122</v>
       </c>
     </row>
     <row r="69">
@@ -1741,10 +1741,10 @@
         <v>0.1278060460939838</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002187776379287243</v>
+        <v>0.002187776612117887</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06499691123663554</v>
+        <v>0.06499691135305086</v>
       </c>
     </row>
     <row r="70">
@@ -1760,10 +1760,10 @@
         <v>0.1263094881771925</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0005904324934817851</v>
+        <v>0.000590432551689446</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06344996033533712</v>
+        <v>0.06344996036444095</v>
       </c>
     </row>
     <row r="71">
@@ -1779,10 +1779,10 @@
         <v>0.1260101765938342</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0009177812025882304</v>
+        <v>0.0009177812607958913</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0634639788982112</v>
+        <v>0.06346397892731503</v>
       </c>
     </row>
     <row r="72">
@@ -1798,10 +1798,10 @@
         <v>0.1251122418437594</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0003694674524012953</v>
+        <v>0.0003694674815051258</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06274085464808032</v>
+        <v>0.06274085466263224</v>
       </c>
     </row>
     <row r="73">
@@ -1817,10 +1817,10 @@
         <v>0.1251122418437594</v>
       </c>
       <c r="D73" t="n">
-        <v>0.000809473276603967</v>
+        <v>0.0008094733348116279</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06296085756018166</v>
+        <v>0.06296085758928549</v>
       </c>
     </row>
     <row r="74">
@@ -1836,10 +1836,10 @@
         <v>0.1245136186770428</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0003238347417209297</v>
+        <v>0.0003238347708247602</v>
       </c>
       <c r="E74" t="n">
-        <v>0.06241872670938187</v>
+        <v>0.06241872672393378</v>
       </c>
     </row>
     <row r="75">
@@ -1855,10 +1855,10 @@
         <v>0.1242143070936845</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0003446478222031146</v>
+        <v>0.0003446478513069451</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06227947745794382</v>
+        <v>0.06227947747249574</v>
       </c>
     </row>
     <row r="76">
@@ -1893,10 +1893,10 @@
         <v>0.1212211912601018</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0003416573163121939</v>
+        <v>0.0003416573454160243</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06078142428820698</v>
+        <v>0.06078142430275889</v>
       </c>
     </row>
     <row r="78">
@@ -1912,10 +1912,10 @@
         <v>0.1209218796767435</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0009579912293702364</v>
+        <v>0.0009579912875778973</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06093993545305686</v>
+        <v>0.06093993548216069</v>
       </c>
     </row>
     <row r="79">
@@ -1931,10 +1931,10 @@
         <v>0.1206225680933852</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0003374391526449472</v>
+        <v>0.0003374391817487776</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06048000362301508</v>
+        <v>0.060480003637567</v>
       </c>
     </row>
     <row r="80">
@@ -1950,10 +1950,10 @@
         <v>0.1206225680933852</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00298157730139792</v>
+        <v>0.002981577534228563</v>
       </c>
       <c r="E80" t="n">
-        <v>0.06180207269739157</v>
+        <v>0.06180207281380689</v>
       </c>
     </row>
     <row r="81">
@@ -1988,10 +1988,10 @@
         <v>0.1203232565100269</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0003018503193743527</v>
+        <v>0.0003018503484781832</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06031255341470065</v>
+        <v>0.06031255342925256</v>
       </c>
     </row>
     <row r="83">
@@ -2007,10 +2007,10 @@
         <v>0.1203232565100269</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00112145917955786</v>
+        <v>0.001121459295973182</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0607223578447924</v>
+        <v>0.06072235790300006</v>
       </c>
     </row>
     <row r="84">
@@ -2026,10 +2026,10 @@
         <v>0.1203232565100269</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0004807849763892591</v>
+        <v>0.0004807850054930896</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0604020207432081</v>
+        <v>0.06040202075776002</v>
       </c>
     </row>
     <row r="85">
@@ -2045,10 +2045,10 @@
         <v>0.1200239449266687</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0002773987653199583</v>
+        <v>0.0002773987944237888</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06015067184599431</v>
+        <v>0.06015067186054623</v>
       </c>
     </row>
     <row r="86">
@@ -2064,10 +2064,10 @@
         <v>0.1197246333433104</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0001570922904647887</v>
+        <v>0.0001570923050167039</v>
       </c>
       <c r="E86" t="n">
-        <v>0.05994086281688759</v>
+        <v>0.05994086282416355</v>
       </c>
     </row>
     <row r="87">
@@ -2083,10 +2083,10 @@
         <v>0.1188266985932356</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0003738678642548621</v>
+        <v>0.0003738678933586925</v>
       </c>
       <c r="E87" t="n">
-        <v>0.05960028322874521</v>
+        <v>0.05960028324329712</v>
       </c>
     </row>
     <row r="88">
@@ -2102,10 +2102,10 @@
         <v>0.118228075426519</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0006645493558607996</v>
+        <v>0.0006645494140684605</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0594463123911899</v>
+        <v>0.05944631242029373</v>
       </c>
     </row>
     <row r="89">
@@ -2121,10 +2121,10 @@
         <v>0.1176294522598025</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0003989002725575119</v>
+        <v>0.0003989003016613424</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05901417626617998</v>
+        <v>0.0590141762807319</v>
       </c>
     </row>
     <row r="90">
@@ -2140,10 +2140,10 @@
         <v>0.1173301406764442</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0003877710551023483</v>
+        <v>0.0003877710842061788</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05885895586577326</v>
+        <v>0.05885895588032518</v>
       </c>
     </row>
     <row r="91">
@@ -2159,10 +2159,10 @@
         <v>0.1164322059263694</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0003307923907414079</v>
+        <v>0.0003307924198452383</v>
       </c>
       <c r="E91" t="n">
-        <v>0.05838149915855538</v>
+        <v>0.0583814991731073</v>
       </c>
     </row>
     <row r="92">
@@ -2178,10 +2178,10 @@
         <v>0.1164322059263694</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0001814856514101848</v>
+        <v>0.0001814856659621</v>
       </c>
       <c r="E92" t="n">
-        <v>0.05830684578888977</v>
+        <v>0.05830684579616573</v>
       </c>
     </row>
     <row r="93">
@@ -2197,10 +2197,10 @@
         <v>0.1161328943430111</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0006950990064069629</v>
+        <v>0.0006950990646146238</v>
       </c>
       <c r="E93" t="n">
-        <v>0.05841399667470902</v>
+        <v>0.05841399670381285</v>
       </c>
     </row>
     <row r="94">
@@ -2235,10 +2235,10 @@
         <v>0.1158335827596528</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0008047784212976694</v>
+        <v>0.0008047784795053303</v>
       </c>
       <c r="E95" t="n">
-        <v>0.05831918059047524</v>
+        <v>0.05831918061957907</v>
       </c>
     </row>
     <row r="96">
@@ -2273,10 +2273,10 @@
         <v>0.1155342711762945</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001429170835763216</v>
+        <v>0.001429170952178538</v>
       </c>
       <c r="E97" t="n">
-        <v>0.05848172100602887</v>
+        <v>0.05848172106423653</v>
       </c>
     </row>
     <row r="98">
@@ -2311,10 +2311,10 @@
         <v>0.1146363364262197</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0004525928816292435</v>
+        <v>0.0004525929107330739</v>
       </c>
       <c r="E99" t="n">
-        <v>0.05754446465392447</v>
+        <v>0.05754446466847638</v>
       </c>
     </row>
     <row r="100">
@@ -2330,10 +2330,10 @@
         <v>0.1146363364262197</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0001838380412664264</v>
+        <v>0.0001838380558183417</v>
       </c>
       <c r="E100" t="n">
-        <v>0.05741008723374306</v>
+        <v>0.05741008724101902</v>
       </c>
     </row>
     <row r="101">
@@ -2368,10 +2368,10 @@
         <v>0.1137384016761449</v>
       </c>
       <c r="D102" t="n">
-        <v>0.001000792719423771</v>
+        <v>0.001000792835839093</v>
       </c>
       <c r="E102" t="n">
-        <v>0.05736959719778432</v>
+        <v>0.05736959725599198</v>
       </c>
     </row>
     <row r="103">
@@ -2406,10 +2406,10 @@
         <v>0.1131397785094283</v>
       </c>
       <c r="D104" t="n">
-        <v>0.001315688132308424</v>
+        <v>0.001315688248723745</v>
       </c>
       <c r="E104" t="n">
-        <v>0.05722773332086837</v>
+        <v>0.05722773337907603</v>
       </c>
     </row>
     <row r="105">
@@ -2425,10 +2425,10 @@
         <v>0.1131397785094283</v>
       </c>
       <c r="D105" t="n">
-        <v>0.008511194959282875</v>
+        <v>0.00851119589060545</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0608254867343556</v>
+        <v>0.06082548720001688</v>
       </c>
     </row>
     <row r="106">
@@ -2444,10 +2444,10 @@
         <v>0.1131397785094283</v>
       </c>
       <c r="D106" t="n">
-        <v>0.000150791514897719</v>
+        <v>0.0001507915294496343</v>
       </c>
       <c r="E106" t="n">
-        <v>0.05664528501216302</v>
+        <v>0.05664528501943897</v>
       </c>
     </row>
     <row r="107">
@@ -2463,10 +2463,10 @@
         <v>0.11284046692607</v>
       </c>
       <c r="D107" t="n">
-        <v>0.002401115605607629</v>
+        <v>0.002401115838438272</v>
       </c>
       <c r="E107" t="n">
-        <v>0.05762079126583883</v>
+        <v>0.05762079138225416</v>
       </c>
     </row>
     <row r="108">
@@ -2482,10 +2482,10 @@
         <v>0.1122418437593535</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0003192813019268215</v>
+        <v>0.0003192813310306519</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05628056253064016</v>
+        <v>0.05628056254519207</v>
       </c>
     </row>
     <row r="109">
@@ -2501,10 +2501,10 @@
         <v>0.1119425321759952</v>
       </c>
       <c r="D109" t="n">
-        <v>0.003807103261351585</v>
+        <v>0.003807103494182229</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0578748177186734</v>
+        <v>0.05787481783508872</v>
       </c>
     </row>
     <row r="110">
@@ -2520,10 +2520,10 @@
         <v>0.1119425321759952</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0009265618282370269</v>
+        <v>0.0009265619446523488</v>
       </c>
       <c r="E110" t="n">
-        <v>0.05643454700211612</v>
+        <v>0.05643454706032378</v>
       </c>
     </row>
     <row r="111">
@@ -2539,10 +2539,10 @@
         <v>0.1116432205926369</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0003628320118878037</v>
+        <v>0.0003628320409916341</v>
       </c>
       <c r="E111" t="n">
-        <v>0.05600302630226237</v>
+        <v>0.05600302631681429</v>
       </c>
     </row>
     <row r="112">
@@ -2558,10 +2558,10 @@
         <v>0.1113439090092787</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0007145088165998459</v>
+        <v>0.0007145088748075068</v>
       </c>
       <c r="E112" t="n">
-        <v>0.05602920891293926</v>
+        <v>0.05602920894204309</v>
       </c>
     </row>
     <row r="113">
@@ -2577,10 +2577,10 @@
         <v>0.1110445974259204</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0005226890789344907</v>
+        <v>0.0005226891371421516</v>
       </c>
       <c r="E113" t="n">
-        <v>0.05578364325242743</v>
+        <v>0.05578364328153126</v>
       </c>
     </row>
     <row r="114">
@@ -2596,10 +2596,10 @@
         <v>0.1107452858425621</v>
       </c>
       <c r="D114" t="n">
-        <v>0.000785824959166348</v>
+        <v>0.0007858250173740089</v>
       </c>
       <c r="E114" t="n">
-        <v>0.05576555540086423</v>
+        <v>0.05576555542996806</v>
       </c>
     </row>
     <row r="115">
@@ -2615,10 +2615,10 @@
         <v>0.1104459742592038</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0001867646933533251</v>
+        <v>0.0001867647079052404</v>
       </c>
       <c r="E115" t="n">
-        <v>0.05531636947627858</v>
+        <v>0.05531636948355453</v>
       </c>
     </row>
     <row r="116">
@@ -2634,10 +2634,10 @@
         <v>0.1098473510924873</v>
       </c>
       <c r="D116" t="n">
-        <v>0.002267081988975406</v>
+        <v>0.002267082221806049</v>
       </c>
       <c r="E116" t="n">
-        <v>0.05605721654073134</v>
+        <v>0.05605721665714666</v>
       </c>
     </row>
     <row r="117">
@@ -2653,10 +2653,10 @@
         <v>0.1098473510924873</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0003593454312067479</v>
+        <v>0.0003593454603105783</v>
       </c>
       <c r="E117" t="n">
-        <v>0.05510334826184701</v>
+        <v>0.05510334827639893</v>
       </c>
     </row>
     <row r="118">
@@ -2672,10 +2672,10 @@
         <v>0.1083507931756959</v>
       </c>
       <c r="D118" t="n">
-        <v>0.004132566973567009</v>
+        <v>0.004132567439228296</v>
       </c>
       <c r="E118" t="n">
-        <v>0.05624168007463146</v>
+        <v>0.0562416803074621</v>
       </c>
     </row>
     <row r="119">
@@ -2710,10 +2710,10 @@
         <v>0.1077521700089794</v>
       </c>
       <c r="D120" t="n">
-        <v>0.001534332637675107</v>
+        <v>0.001534332754090428</v>
       </c>
       <c r="E120" t="n">
-        <v>0.05464325132332723</v>
+        <v>0.05464325138153489</v>
       </c>
     </row>
     <row r="121">
@@ -2729,10 +2729,10 @@
         <v>0.1077521700089794</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0007719107088632882</v>
+        <v>0.0007719107670709491</v>
       </c>
       <c r="E121" t="n">
-        <v>0.05426204035892132</v>
+        <v>0.05426204038802515</v>
       </c>
     </row>
     <row r="122">
@@ -2748,10 +2748,10 @@
         <v>0.1074528584256211</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0003474755794741213</v>
+        <v>0.0003474756085779518</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0539001670025476</v>
+        <v>0.05390016701709952</v>
       </c>
     </row>
     <row r="123">
@@ -2767,10 +2767,10 @@
         <v>0.1071535468422628</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0008056601509451866</v>
+        <v>0.0008056602091528475</v>
       </c>
       <c r="E123" t="n">
-        <v>0.05397960349660399</v>
+        <v>0.05397960352570782</v>
       </c>
     </row>
     <row r="124">
@@ -2786,10 +2786,10 @@
         <v>0.1071535468422628</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0005590127548202872</v>
+        <v>0.0005590128130279481</v>
       </c>
       <c r="E124" t="n">
-        <v>0.05385627979854154</v>
+        <v>0.05385627982764537</v>
       </c>
     </row>
     <row r="125">
@@ -2805,10 +2805,10 @@
         <v>0.1065549236755462</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0003616472822614014</v>
+        <v>0.0003616473113652319</v>
       </c>
       <c r="E125" t="n">
-        <v>0.05345828547890382</v>
+        <v>0.05345828549345574</v>
       </c>
     </row>
     <row r="126">
@@ -2824,10 +2824,10 @@
         <v>0.1065549236755462</v>
       </c>
       <c r="D126" t="n">
-        <v>0.004153543151915073</v>
+        <v>0.004153543617576361</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05535423341373066</v>
+        <v>0.0553542336465613</v>
       </c>
     </row>
     <row r="127">
@@ -2843,10 +2843,10 @@
         <v>0.1059563005088297</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0003298800729680806</v>
+        <v>0.0003298801020719111</v>
       </c>
       <c r="E127" t="n">
-        <v>0.05314309029089889</v>
+        <v>0.0531430903054508</v>
       </c>
     </row>
     <row r="128">
@@ -2862,10 +2862,10 @@
         <v>0.1056569889254714</v>
       </c>
       <c r="D128" t="n">
-        <v>0.000539055559784174</v>
+        <v>0.0005390556179918349</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05309802224262779</v>
+        <v>0.05309802227173162</v>
       </c>
     </row>
     <row r="129">
@@ -2881,10 +2881,10 @@
         <v>0.1056569889254714</v>
       </c>
       <c r="D129" t="n">
-        <v>0.001305195735767484</v>
+        <v>0.001305195852182806</v>
       </c>
       <c r="E129" t="n">
-        <v>0.05348109233061945</v>
+        <v>0.05348109238882711</v>
       </c>
     </row>
     <row r="130">
@@ -2900,10 +2900,10 @@
         <v>0.1053576773421131</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0001586020371178165</v>
+        <v>0.0001586020516697317</v>
       </c>
       <c r="E130" t="n">
-        <v>0.05275813968961548</v>
+        <v>0.05275813969689144</v>
       </c>
     </row>
     <row r="131">
@@ -2919,10 +2919,10 @@
         <v>0.1047590541753966</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0004822715709451586</v>
+        <v>0.0004822716000489891</v>
       </c>
       <c r="E131" t="n">
-        <v>0.05262066287317087</v>
+        <v>0.05262066288772279</v>
       </c>
     </row>
     <row r="132">
@@ -2938,10 +2938,10 @@
         <v>0.10416043100868</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001414972124621272</v>
+        <v>0.001414972241036594</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05278770156665066</v>
+        <v>0.05278770162485832</v>
       </c>
     </row>
     <row r="133">
@@ -2957,10 +2957,10 @@
         <v>0.10416043100868</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0001491243310738355</v>
+        <v>0.0001491243456257507</v>
       </c>
       <c r="E133" t="n">
-        <v>0.05215477766987694</v>
+        <v>0.0521547776771529</v>
       </c>
     </row>
     <row r="134">
@@ -2976,10 +2976,10 @@
         <v>0.1035618078419635</v>
       </c>
       <c r="D134" t="n">
-        <v>0.000602501502726227</v>
+        <v>0.000602501560933888</v>
       </c>
       <c r="E134" t="n">
-        <v>0.05208215467234486</v>
+        <v>0.05208215470144869</v>
       </c>
     </row>
     <row r="135">
@@ -2995,10 +2995,10 @@
         <v>0.1032624962586052</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0005451428587548435</v>
+        <v>0.0005451429169625044</v>
       </c>
       <c r="E135" t="n">
-        <v>0.05190381955868002</v>
+        <v>0.05190381958778385</v>
       </c>
     </row>
     <row r="136">
@@ -3014,10 +3014,10 @@
         <v>0.1029631846752469</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0004375847929622978</v>
+        <v>0.0004375848220661283</v>
       </c>
       <c r="E136" t="n">
-        <v>0.05170038473410461</v>
+        <v>0.05170038474865653</v>
       </c>
     </row>
     <row r="137">
@@ -3033,10 +3033,10 @@
         <v>0.1023645615085304</v>
       </c>
       <c r="D137" t="n">
-        <v>0.006004755385220051</v>
+        <v>0.006004755850881338</v>
       </c>
       <c r="E137" t="n">
-        <v>0.05418465844687521</v>
+        <v>0.05418465867970586</v>
       </c>
     </row>
     <row r="138">
@@ -3052,10 +3052,10 @@
         <v>0.1020652499251721</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0005079274997115135</v>
+        <v>0.0005079275579191744</v>
       </c>
       <c r="E138" t="n">
-        <v>0.05128658871244181</v>
+        <v>0.05128658874154564</v>
       </c>
     </row>
     <row r="139">
@@ -3071,10 +3071,10 @@
         <v>0.1014666267584556</v>
       </c>
       <c r="D139" t="n">
-        <v>0.001236184616573155</v>
+        <v>0.001236184732988477</v>
       </c>
       <c r="E139" t="n">
-        <v>0.05135140568751435</v>
+        <v>0.05135140574572201</v>
       </c>
     </row>
     <row r="140">
@@ -3090,10 +3090,10 @@
         <v>0.100868003591739</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0001681528519839048</v>
+        <v>0.0001681528665358201</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05051807822186145</v>
+        <v>0.05051807822913741</v>
       </c>
     </row>
     <row r="141">
@@ -3109,10 +3109,10 @@
         <v>0.1005686920083807</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0004340629675425589</v>
+        <v>0.0004340629966463894</v>
       </c>
       <c r="E141" t="n">
-        <v>0.05050137748796164</v>
+        <v>0.05050137750251356</v>
       </c>
     </row>
     <row r="142">
@@ -3128,10 +3128,10 @@
         <v>0.1002693804250225</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0004477598995435983</v>
+        <v>0.0004477599577512592</v>
       </c>
       <c r="E142" t="n">
-        <v>0.05035857016228303</v>
+        <v>0.05035857019138686</v>
       </c>
     </row>
     <row r="143">
@@ -3166,10 +3166,10 @@
         <v>0.09937144567494761</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0007974269683472812</v>
+        <v>0.0007974270265549421</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05008443632164745</v>
+        <v>0.05008443635075128</v>
       </c>
     </row>
     <row r="145">
@@ -3185,10 +3185,10 @@
         <v>0.09877282250823106</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0004522886883933097</v>
+        <v>0.0004522887466009706</v>
       </c>
       <c r="E145" t="n">
-        <v>0.04961255559831219</v>
+        <v>0.04961255562741602</v>
       </c>
     </row>
     <row r="146">
@@ -3204,10 +3204,10 @@
         <v>0.09817419934151451</v>
       </c>
       <c r="D146" t="n">
-        <v>0.002803776646032929</v>
+        <v>0.002803776878863573</v>
       </c>
       <c r="E146" t="n">
-        <v>0.05048898799377372</v>
+        <v>0.05048898811018904</v>
       </c>
     </row>
     <row r="147">
@@ -3242,10 +3242,10 @@
         <v>0.09697695300808142</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008003874681890011</v>
+        <v>0.008003875613212585</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05249041384498571</v>
+        <v>0.052490414310647</v>
       </c>
     </row>
     <row r="149">
@@ -3261,10 +3261,10 @@
         <v>0.09667764142472314</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0006818005349487066</v>
+        <v>0.0006818005931563675</v>
       </c>
       <c r="E149" t="n">
-        <v>0.04867972097983592</v>
+        <v>0.04867972100893975</v>
       </c>
     </row>
     <row r="150">
@@ -3280,10 +3280,10 @@
         <v>0.09637832984136487</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0004015943268314004</v>
+        <v>0.0004015943559352309</v>
       </c>
       <c r="E150" t="n">
-        <v>0.04838996208409813</v>
+        <v>0.04838996209865005</v>
       </c>
     </row>
     <row r="151">
@@ -3299,10 +3299,10 @@
         <v>0.09637832984136487</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0001655028900131583</v>
+        <v>0.0001655029045650735</v>
       </c>
       <c r="E151" t="n">
-        <v>0.04827191636568901</v>
+        <v>0.04827191637296497</v>
       </c>
     </row>
     <row r="152">
@@ -3337,10 +3337,10 @@
         <v>0.09548039509129003</v>
       </c>
       <c r="D153" t="n">
-        <v>0.002499862108379602</v>
+        <v>0.002499862341210246</v>
       </c>
       <c r="E153" t="n">
-        <v>0.04899012859983481</v>
+        <v>0.04899012871625014</v>
       </c>
     </row>
     <row r="154">
@@ -3356,10 +3356,10 @@
         <v>0.09428314875785693</v>
       </c>
       <c r="D154" t="n">
-        <v>0.001117140287533402</v>
+        <v>0.001117140403948724</v>
       </c>
       <c r="E154" t="n">
-        <v>0.04770014452269516</v>
+        <v>0.04770014458090283</v>
       </c>
     </row>
     <row r="155">
@@ -3375,10 +3375,10 @@
         <v>0.09398383717449865</v>
       </c>
       <c r="D155" t="n">
-        <v>0.000802519207354635</v>
+        <v>0.0008025192655622959</v>
       </c>
       <c r="E155" t="n">
-        <v>0.04739317819092664</v>
+        <v>0.04739317822003047</v>
       </c>
     </row>
     <row r="156">
@@ -3394,10 +3394,10 @@
         <v>0.09398383717449865</v>
       </c>
       <c r="D156" t="n">
-        <v>0.001368213910609484</v>
+        <v>0.001368214027024806</v>
       </c>
       <c r="E156" t="n">
-        <v>0.04767602554255407</v>
+        <v>0.04767602560076173</v>
       </c>
     </row>
     <row r="157">
@@ -3432,10 +3432,10 @@
         <v>0.0933852140077821</v>
       </c>
       <c r="D158" t="n">
-        <v>0.001372250961139798</v>
+        <v>0.00137225107755512</v>
       </c>
       <c r="E158" t="n">
-        <v>0.04737873248446095</v>
+        <v>0.04737873254266861</v>
       </c>
     </row>
     <row r="159">
@@ -3451,10 +3451,10 @@
         <v>0.09278659084106555</v>
       </c>
       <c r="D159" t="n">
-        <v>0.00185358664020896</v>
+        <v>0.001853586756624281</v>
       </c>
       <c r="E159" t="n">
-        <v>0.04732008874063726</v>
+        <v>0.04732008879884492</v>
       </c>
     </row>
     <row r="160">
@@ -3470,10 +3470,10 @@
         <v>0.09188865609099073</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0009088800870813429</v>
+        <v>0.0009088801452890038</v>
       </c>
       <c r="E160" t="n">
-        <v>0.04639876808903604</v>
+        <v>0.04639876811813987</v>
       </c>
     </row>
     <row r="161">
@@ -3489,10 +3489,10 @@
         <v>0.09158934450763244</v>
       </c>
       <c r="D161" t="n">
-        <v>0.001073191990144551</v>
+        <v>0.001073192106559873</v>
       </c>
       <c r="E161" t="n">
-        <v>0.04633126824888849</v>
+        <v>0.04633126830709616</v>
       </c>
     </row>
     <row r="162">
@@ -3508,10 +3508,10 @@
         <v>0.09129003292427416</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0002351760194869712</v>
+        <v>0.0002351760485908017</v>
       </c>
       <c r="E162" t="n">
-        <v>0.04576260447188057</v>
+        <v>0.04576260448643248</v>
       </c>
     </row>
     <row r="163">
@@ -3527,10 +3527,10 @@
         <v>0.09099072134091589</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0007934466120786965</v>
+        <v>0.0007934466702863574</v>
       </c>
       <c r="E163" t="n">
-        <v>0.04589208397649729</v>
+        <v>0.04589208400560112</v>
       </c>
     </row>
     <row r="164">
@@ -3546,10 +3546,10 @@
         <v>0.09069140975755761</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0002403371327091008</v>
+        <v>0.0002403371472610161</v>
       </c>
       <c r="E164" t="n">
-        <v>0.04546587344513336</v>
+        <v>0.04546587345240932</v>
       </c>
     </row>
     <row r="165">
@@ -3565,10 +3565,10 @@
         <v>0.09039209817419934</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0007109545404091477</v>
+        <v>0.0007109545986168087</v>
       </c>
       <c r="E165" t="n">
-        <v>0.04555152635730424</v>
+        <v>0.04555152638640807</v>
       </c>
     </row>
     <row r="166">
@@ -3584,10 +3584,10 @@
         <v>0.08979347500748279</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0003781384148169309</v>
+        <v>0.0003781384439207613</v>
       </c>
       <c r="E166" t="n">
-        <v>0.04508580671114986</v>
+        <v>0.04508580672570178</v>
       </c>
     </row>
     <row r="167">
@@ -3603,10 +3603,10 @@
         <v>0.08979347500748279</v>
       </c>
       <c r="D167" t="n">
-        <v>0.003202918916940689</v>
+        <v>0.003202919149771333</v>
       </c>
       <c r="E167" t="n">
-        <v>0.04649819696221174</v>
+        <v>0.04649819707862706</v>
       </c>
     </row>
     <row r="168">
@@ -3622,10 +3622,10 @@
         <v>0.08919485184076624</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0004749482613988221</v>
+        <v>0.0004749482905026525</v>
       </c>
       <c r="E168" t="n">
-        <v>0.04483490005108253</v>
+        <v>0.04483490006563445</v>
       </c>
     </row>
     <row r="169">
@@ -3641,10 +3641,10 @@
         <v>0.08889554025740797</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0004178778908681124</v>
+        <v>0.0004178779199719429</v>
       </c>
       <c r="E169" t="n">
-        <v>0.04465670907413804</v>
+        <v>0.04465670908868995</v>
       </c>
     </row>
     <row r="170">
@@ -3679,10 +3679,10 @@
         <v>0.08859622867404969</v>
       </c>
       <c r="D171" t="n">
-        <v>0.002170004416257143</v>
+        <v>0.002170004649087787</v>
       </c>
       <c r="E171" t="n">
-        <v>0.04538311654515342</v>
+        <v>0.04538311666156874</v>
       </c>
     </row>
     <row r="172">
@@ -3698,10 +3698,10 @@
         <v>0.08829691709069142</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0003110060933977365</v>
+        <v>0.000311006122501567</v>
       </c>
       <c r="E172" t="n">
-        <v>0.04430396159204458</v>
+        <v>0.04430396160659649</v>
       </c>
     </row>
     <row r="173">
@@ -3736,10 +3736,10 @@
         <v>0.08739898234061658</v>
       </c>
       <c r="D174" t="n">
-        <v>0.001245199935510755</v>
+        <v>0.001245200051926076</v>
       </c>
       <c r="E174" t="n">
-        <v>0.04432209113806367</v>
+        <v>0.04432209119627133</v>
       </c>
     </row>
     <row r="175">
@@ -3755,10 +3755,10 @@
         <v>0.0870996707572583</v>
       </c>
       <c r="D175" t="n">
-        <v>0.003652815474197268</v>
+        <v>0.003652815939858556</v>
       </c>
       <c r="E175" t="n">
-        <v>0.04537624311572779</v>
+        <v>0.04537624334855843</v>
       </c>
     </row>
     <row r="176">
@@ -3774,10 +3774,10 @@
         <v>0.08650104759054175</v>
       </c>
       <c r="D176" t="n">
-        <v>0.001165937399491668</v>
+        <v>0.00116593751590699</v>
       </c>
       <c r="E176" t="n">
-        <v>0.04383349249501671</v>
+        <v>0.04383349255322437</v>
       </c>
     </row>
     <row r="177">
@@ -3793,10 +3793,10 @@
         <v>0.08500448967375038</v>
       </c>
       <c r="D177" t="n">
-        <v>0.006424935068935156</v>
+        <v>0.006424935534596443</v>
       </c>
       <c r="E177" t="n">
-        <v>0.04571471237134277</v>
+        <v>0.04571471260417341</v>
       </c>
     </row>
     <row r="178">
@@ -3812,10 +3812,10 @@
         <v>0.0847051780903921</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0003398415574338287</v>
+        <v>0.0003398415865376592</v>
       </c>
       <c r="E178" t="n">
-        <v>0.04252250982391297</v>
+        <v>0.04252250983846488</v>
       </c>
     </row>
     <row r="179">
@@ -3831,10 +3831,10 @@
         <v>0.08380724334031726</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0004880348860751837</v>
+        <v>0.0004880349442828447</v>
       </c>
       <c r="E179" t="n">
-        <v>0.04214763911319622</v>
+        <v>0.04214763914230005</v>
       </c>
     </row>
     <row r="180">
@@ -3850,10 +3850,10 @@
         <v>0.08380724334031726</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0003923167241737247</v>
+        <v>0.0003923167532775551</v>
       </c>
       <c r="E180" t="n">
-        <v>0.04209978003224549</v>
+        <v>0.04209978004679741</v>
       </c>
     </row>
     <row r="181">
@@ -3869,10 +3869,10 @@
         <v>0.08350793175695899</v>
       </c>
       <c r="D181" t="n">
-        <v>0.002156431088224053</v>
+        <v>0.002156431321054697</v>
       </c>
       <c r="E181" t="n">
-        <v>0.04283218142259152</v>
+        <v>0.04283218153900684</v>
       </c>
     </row>
     <row r="182">
@@ -3888,10 +3888,10 @@
         <v>0.08320862017360071</v>
       </c>
       <c r="D182" t="n">
-        <v>0.000892225478310138</v>
+        <v>0.0008922255365177989</v>
       </c>
       <c r="E182" t="n">
-        <v>0.04205042282595543</v>
+        <v>0.04205042285505926</v>
       </c>
     </row>
     <row r="183">
@@ -3907,10 +3907,10 @@
         <v>0.08320862017360071</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0006449235952459276</v>
+        <v>0.0006449236534535885</v>
       </c>
       <c r="E183" t="n">
-        <v>0.04192677188442332</v>
+        <v>0.04192677191352715</v>
       </c>
     </row>
     <row r="184">
@@ -3926,10 +3926,10 @@
         <v>0.08320862017360071</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0004836348234675825</v>
+        <v>0.0004836348525714129</v>
       </c>
       <c r="E184" t="n">
-        <v>0.04184612749853415</v>
+        <v>0.04184612751308606</v>
       </c>
     </row>
     <row r="185">
@@ -3964,10 +3964,10 @@
         <v>0.08260999700688416</v>
       </c>
       <c r="D186" t="n">
-        <v>0.001455290010198951</v>
+        <v>0.001455290126614273</v>
       </c>
       <c r="E186" t="n">
-        <v>0.04203264350854156</v>
+        <v>0.04203264356674922</v>
       </c>
     </row>
     <row r="187">
@@ -3983,10 +3983,10 @@
         <v>0.08231068542352589</v>
       </c>
       <c r="D187" t="n">
-        <v>0.001646146993152797</v>
+        <v>0.001646147109568119</v>
       </c>
       <c r="E187" t="n">
-        <v>0.04197841620833934</v>
+        <v>0.041978416266547</v>
       </c>
     </row>
     <row r="188">
@@ -4002,10 +4002,10 @@
         <v>0.08201137384016761</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0003494607226457447</v>
+        <v>0.0003494607517495751</v>
       </c>
       <c r="E188" t="n">
-        <v>0.04118041728140668</v>
+        <v>0.04118041729595859</v>
       </c>
     </row>
     <row r="189">
@@ -4021,10 +4021,10 @@
         <v>0.08201137384016761</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0003227489360142499</v>
+        <v>0.0003227489651180804</v>
       </c>
       <c r="E189" t="n">
-        <v>0.04116706138809093</v>
+        <v>0.04116706140264285</v>
       </c>
     </row>
     <row r="190">
@@ -4040,10 +4040,10 @@
         <v>0.08171206225680934</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0007163325208239257</v>
+        <v>0.0007163325790315866</v>
       </c>
       <c r="E190" t="n">
-        <v>0.04121419738881663</v>
+        <v>0.04121419741792046</v>
       </c>
     </row>
     <row r="191">
@@ -4059,10 +4059,10 @@
         <v>0.08141275067345106</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0003961302572861314</v>
+        <v>0.0003961302863899618</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0409044404653686</v>
+        <v>0.04090444047992051</v>
       </c>
     </row>
     <row r="192">
@@ -4078,10 +4078,10 @@
         <v>0.08111343909009279</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0009603459038771689</v>
+        <v>0.0009603460202924907</v>
       </c>
       <c r="E192" t="n">
-        <v>0.04103689249698498</v>
+        <v>0.04103689255519264</v>
       </c>
     </row>
     <row r="193">
@@ -4097,10 +4097,10 @@
         <v>0.08081412750673451</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0003922369505744427</v>
+        <v>0.0003922369796782732</v>
       </c>
       <c r="E193" t="n">
-        <v>0.04060318222865448</v>
+        <v>0.04060318224320639</v>
       </c>
     </row>
     <row r="194">
@@ -4116,10 +4116,10 @@
         <v>0.08021550434001797</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0003142654604744166</v>
+        <v>0.0003142654895782471</v>
       </c>
       <c r="E194" t="n">
-        <v>0.04026488490024619</v>
+        <v>0.04026488491479811</v>
       </c>
     </row>
     <row r="195">
@@ -4135,10 +4135,10 @@
         <v>0.07871894642322658</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0003346777812112123</v>
+        <v>0.0003346778103150427</v>
       </c>
       <c r="E195" t="n">
-        <v>0.03952681210221889</v>
+        <v>0.03952681211677081</v>
       </c>
     </row>
     <row r="196">
@@ -4154,10 +4154,10 @@
         <v>0.07871894642322658</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0004500722861848772</v>
+        <v>0.0004500723152887076</v>
       </c>
       <c r="E196" t="n">
-        <v>0.03958450935470573</v>
+        <v>0.03958450936925764</v>
       </c>
     </row>
     <row r="197">
@@ -4173,10 +4173,10 @@
         <v>0.07812032325651003</v>
       </c>
       <c r="D197" t="n">
-        <v>0.000421200500568375</v>
+        <v>0.0004212005296722054</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0392707618785392</v>
+        <v>0.03927076189309112</v>
       </c>
     </row>
     <row r="198">
@@ -4192,10 +4192,10 @@
         <v>0.07752170008979348</v>
       </c>
       <c r="D198" t="n">
-        <v>0.001344906981103122</v>
+        <v>0.001344907097518444</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0394333035354483</v>
+        <v>0.03943330359365596</v>
       </c>
     </row>
     <row r="199">
@@ -4249,10 +4249,10 @@
         <v>0.0772223885064352</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0002418030489934608</v>
+        <v>0.0002418030635453761</v>
       </c>
       <c r="E201" t="n">
-        <v>0.03873209577771433</v>
+        <v>0.03873209578499029</v>
       </c>
     </row>
     <row r="202">
@@ -4268,10 +4268,10 @@
         <v>0.0772223885064352</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0009573595598340034</v>
+        <v>0.0009573596180416644</v>
       </c>
       <c r="E202" t="n">
-        <v>0.0390898740331346</v>
+        <v>0.03908987406223843</v>
       </c>
     </row>
     <row r="203">
@@ -4306,10 +4306,10 @@
         <v>0.07572583058964381</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0004618745006155223</v>
+        <v>0.0004618745297193527</v>
       </c>
       <c r="E204" t="n">
-        <v>0.03809385254512967</v>
+        <v>0.03809385255968158</v>
       </c>
     </row>
     <row r="205">
@@ -4363,10 +4363,10 @@
         <v>0.07482789583956899</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0006395366508513689</v>
+        <v>0.0006395367090590298</v>
       </c>
       <c r="E207" t="n">
-        <v>0.03773371624521018</v>
+        <v>0.03773371627431401</v>
       </c>
     </row>
     <row r="208">
@@ -4382,10 +4382,10 @@
         <v>0.07392996108949416</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0003794262302108109</v>
+        <v>0.0003794262593146414</v>
       </c>
       <c r="E208" t="n">
-        <v>0.03715469365985249</v>
+        <v>0.0371546936744044</v>
       </c>
     </row>
     <row r="209">
@@ -4401,10 +4401,10 @@
         <v>0.07363064950613589</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0006760973483324051</v>
+        <v>0.000676097406540066</v>
       </c>
       <c r="E209" t="n">
-        <v>0.03715337342723415</v>
+        <v>0.03715337345633798</v>
       </c>
     </row>
     <row r="210">
@@ -4420,10 +4420,10 @@
         <v>0.07363064950613589</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0005767569527961314</v>
+        <v>0.0005767570110037923</v>
       </c>
       <c r="E210" t="n">
-        <v>0.03710370322946601</v>
+        <v>0.03710370325856984</v>
       </c>
     </row>
     <row r="211">
@@ -4439,10 +4439,10 @@
         <v>0.07333133792277761</v>
       </c>
       <c r="D211" t="n">
-        <v>0.001503143459558487</v>
+        <v>0.001503143575973809</v>
       </c>
       <c r="E211" t="n">
-        <v>0.03741724069116805</v>
+        <v>0.03741724074937571</v>
       </c>
     </row>
     <row r="212">
@@ -4458,10 +4458,10 @@
         <v>0.07333133792277761</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0008035842911340296</v>
+        <v>0.0008035843493416905</v>
       </c>
       <c r="E212" t="n">
-        <v>0.03706746110695582</v>
+        <v>0.03706746113605965</v>
       </c>
     </row>
     <row r="213">
@@ -4477,10 +4477,10 @@
         <v>0.07303202633941934</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0004005107330158353</v>
+        <v>0.0004005107912234962</v>
       </c>
       <c r="E213" t="n">
-        <v>0.03671626853621759</v>
+        <v>0.03671626856532142</v>
       </c>
     </row>
     <row r="214">
@@ -4496,10 +4496,10 @@
         <v>0.07243340317270279</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0002745010424405336</v>
+        <v>0.0002745010715443641</v>
       </c>
       <c r="E214" t="n">
-        <v>0.03635395210757166</v>
+        <v>0.03635395212212358</v>
       </c>
     </row>
     <row r="215">
@@ -4515,10 +4515,10 @@
         <v>0.07123615683926968</v>
       </c>
       <c r="D215" t="n">
-        <v>0.000386185449315235</v>
+        <v>0.0003861854784190655</v>
       </c>
       <c r="E215" t="n">
-        <v>0.03581117114429246</v>
+        <v>0.03581117115884437</v>
       </c>
     </row>
     <row r="216">
@@ -4534,10 +4534,10 @@
         <v>0.0709368452559114</v>
       </c>
       <c r="D216" t="n">
-        <v>0.001214957097545266</v>
+        <v>0.001214957213960588</v>
       </c>
       <c r="E216" t="n">
-        <v>0.03607590117672833</v>
+        <v>0.03607590123493599</v>
       </c>
     </row>
     <row r="217">
@@ -4553,10 +4553,10 @@
         <v>0.06914097575576175</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0004061454383190721</v>
+        <v>0.0004061454674229026</v>
       </c>
       <c r="E217" t="n">
-        <v>0.03477356059704041</v>
+        <v>0.03477356061159233</v>
       </c>
     </row>
     <row r="218">
@@ -4572,10 +4572,10 @@
         <v>0.0685423525890452</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0002894721692427993</v>
+        <v>0.0002894721983466297</v>
       </c>
       <c r="E218" t="n">
-        <v>0.034415912379144</v>
+        <v>0.03441591239369592</v>
       </c>
     </row>
     <row r="219">
@@ -4610,10 +4610,10 @@
         <v>0.06794372942232864</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0004639927356038243</v>
+        <v>0.0004639927647076547</v>
       </c>
       <c r="E220" t="n">
-        <v>0.03420386107896623</v>
+        <v>0.03420386109351815</v>
       </c>
     </row>
     <row r="221">
@@ -4629,10 +4629,10 @@
         <v>0.06704579467225381</v>
       </c>
       <c r="D221" t="n">
-        <v>0.000637112942058593</v>
+        <v>0.0006371130002662539</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0338414538071562</v>
+        <v>0.03384145383626003</v>
       </c>
     </row>
     <row r="222">
@@ -4648,10 +4648,10 @@
         <v>0.06674648308889554</v>
       </c>
       <c r="D222" t="n">
-        <v>0.01999727450311184</v>
+        <v>0.01999727636575699</v>
       </c>
       <c r="E222" t="n">
-        <v>0.04337187879600369</v>
+        <v>0.04337187972732626</v>
       </c>
     </row>
     <row r="223">
@@ -4686,10 +4686,10 @@
         <v>0.06644717150553726</v>
       </c>
       <c r="D224" t="n">
-        <v>0.002840798115357757</v>
+        <v>0.0028407983481884</v>
       </c>
       <c r="E224" t="n">
-        <v>0.03464398481044751</v>
+        <v>0.03464398492686283</v>
       </c>
     </row>
     <row r="225">
@@ -4705,10 +4705,10 @@
         <v>0.06554923675546244</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0003564658400136977</v>
+        <v>0.0003564658691175282</v>
       </c>
       <c r="E225" t="n">
-        <v>0.03295285129773807</v>
+        <v>0.03295285131228998</v>
       </c>
     </row>
     <row r="226">
@@ -4724,10 +4724,10 @@
         <v>0.06524992517210416</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0003400292480364442</v>
+        <v>0.0003400292771402746</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0327949772100703</v>
+        <v>0.03279497722462222</v>
       </c>
     </row>
     <row r="227">
@@ -4743,10 +4743,10 @@
         <v>0.06524992517210416</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0007213661447167397</v>
+        <v>0.0007213662029244006</v>
       </c>
       <c r="E227" t="n">
-        <v>0.03298564565841045</v>
+        <v>0.03298564568751428</v>
       </c>
     </row>
     <row r="228">
@@ -4762,10 +4762,10 @@
         <v>0.06495061358874589</v>
       </c>
       <c r="D228" t="n">
-        <v>0.001512293936684728</v>
+        <v>0.001512294053100049</v>
       </c>
       <c r="E228" t="n">
-        <v>0.03323145376271531</v>
+        <v>0.03323145382092297</v>
       </c>
     </row>
     <row r="229">
@@ -4781,10 +4781,10 @@
         <v>0.06465130200538761</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0006346871377900243</v>
+        <v>0.0006346871959976852</v>
       </c>
       <c r="E229" t="n">
-        <v>0.03264299457158882</v>
+        <v>0.03264299460069265</v>
       </c>
     </row>
     <row r="230">
@@ -4800,10 +4800,10 @@
         <v>0.0634540556719545</v>
       </c>
       <c r="D230" t="n">
-        <v>0.001027545658871531</v>
+        <v>0.001027545775286853</v>
       </c>
       <c r="E230" t="n">
-        <v>0.03224080066541302</v>
+        <v>0.03224080072362068</v>
       </c>
     </row>
     <row r="231">
@@ -4819,10 +4819,10 @@
         <v>0.0634540556719545</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0004622903070412576</v>
+        <v>0.0004622903361450881</v>
       </c>
       <c r="E231" t="n">
-        <v>0.03195817298949788</v>
+        <v>0.03195817300404979</v>
       </c>
     </row>
     <row r="232">
@@ -4838,10 +4838,10 @@
         <v>0.06315474408859623</v>
       </c>
       <c r="D232" t="n">
-        <v>0.006243731360882521</v>
+        <v>0.006243731826543808</v>
       </c>
       <c r="E232" t="n">
-        <v>0.03469923772473937</v>
+        <v>0.03469923795757002</v>
       </c>
     </row>
     <row r="233">
@@ -4857,10 +4857,10 @@
         <v>0.06255612092187968</v>
       </c>
       <c r="D233" t="n">
-        <v>0.003571485169231892</v>
+        <v>0.003571485402062535</v>
       </c>
       <c r="E233" t="n">
-        <v>0.03306380304555578</v>
+        <v>0.03306380316197111</v>
       </c>
     </row>
     <row r="234">
@@ -4876,10 +4876,10 @@
         <v>0.0622568093385214</v>
       </c>
       <c r="D234" t="n">
-        <v>0.001665983465500176</v>
+        <v>0.001665983581915498</v>
       </c>
       <c r="E234" t="n">
-        <v>0.03196139640201079</v>
+        <v>0.03196139646021845</v>
       </c>
     </row>
     <row r="235">
@@ -4895,10 +4895,10 @@
         <v>0.0622568093385214</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0004488643608056009</v>
+        <v>0.0004488644190132618</v>
       </c>
       <c r="E235" t="n">
-        <v>0.0313528368496635</v>
+        <v>0.03135283687876733</v>
       </c>
     </row>
     <row r="236">
@@ -4914,10 +4914,10 @@
         <v>0.0610595630050883</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0003892982203979045</v>
+        <v>0.000389298249501735</v>
       </c>
       <c r="E236" t="n">
-        <v>0.0307244306127431</v>
+        <v>0.03072443062729502</v>
       </c>
     </row>
     <row r="237">
@@ -4952,10 +4952,10 @@
         <v>0.0610595630050883</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0002963200968224555</v>
+        <v>0.000296320125926286</v>
       </c>
       <c r="E238" t="n">
-        <v>0.03067794155095538</v>
+        <v>0.03067794156550729</v>
       </c>
     </row>
     <row r="239">
@@ -4971,10 +4971,10 @@
         <v>0.06076025142173002</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0005485817673616111</v>
+        <v>0.000548581825569272</v>
       </c>
       <c r="E239" t="n">
-        <v>0.03065441659454582</v>
+        <v>0.03065441662364965</v>
       </c>
     </row>
     <row r="240">
@@ -4990,10 +4990,10 @@
         <v>0.06076025142173002</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0007769963121972978</v>
+        <v>0.0007769963704049587</v>
       </c>
       <c r="E240" t="n">
-        <v>0.03076862386696366</v>
+        <v>0.03076862389606749</v>
       </c>
     </row>
     <row r="241">
@@ -5028,10 +5028,10 @@
         <v>0.06016162825501347</v>
       </c>
       <c r="D242" t="n">
-        <v>0.000225107665755786</v>
+        <v>0.0002251076948596165</v>
       </c>
       <c r="E242" t="n">
-        <v>0.03019336796038463</v>
+        <v>0.03019336797493654</v>
       </c>
     </row>
     <row r="243">
@@ -5066,10 +5066,10 @@
         <v>0.05836575875486381</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0004216929373797029</v>
+        <v>0.0004216929664835334</v>
       </c>
       <c r="E244" t="n">
-        <v>0.02939372584612176</v>
+        <v>0.02939372586067367</v>
       </c>
     </row>
     <row r="245">
@@ -5085,10 +5085,10 @@
         <v>0.05836575875486381</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0005943999858573079</v>
+        <v>0.0005944000440649688</v>
       </c>
       <c r="E245" t="n">
-        <v>0.02948007937036056</v>
+        <v>0.02948007939946439</v>
       </c>
     </row>
     <row r="246">
@@ -5104,10 +5104,10 @@
         <v>0.05806644717150554</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0004092154267709702</v>
+        <v>0.0004092154558748007</v>
       </c>
       <c r="E246" t="n">
-        <v>0.02923783129913825</v>
+        <v>0.02923783131369017</v>
       </c>
     </row>
     <row r="247">
@@ -5123,10 +5123,10 @@
         <v>0.05806644717150554</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0003050320374313742</v>
+        <v>0.0003050320665352046</v>
       </c>
       <c r="E247" t="n">
-        <v>0.02918573960446846</v>
+        <v>0.02918573961902037</v>
       </c>
     </row>
     <row r="248">
@@ -5142,10 +5142,10 @@
         <v>0.05686920083807243</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0007415427244268358</v>
+        <v>0.0007415427826344967</v>
       </c>
       <c r="E248" t="n">
-        <v>0.02880537178124963</v>
+        <v>0.02880537181035346</v>
       </c>
     </row>
     <row r="249">
@@ -5161,10 +5161,10 @@
         <v>0.05656988925471416</v>
       </c>
       <c r="D249" t="n">
-        <v>0.000484471267554909</v>
+        <v>0.0004844712966587394</v>
       </c>
       <c r="E249" t="n">
-        <v>0.02852718026113453</v>
+        <v>0.02852718027568645</v>
       </c>
     </row>
     <row r="250">
@@ -5180,10 +5180,10 @@
         <v>0.05597126608799761</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0004203923745080829</v>
+        <v>0.0004203924327157438</v>
       </c>
       <c r="E250" t="n">
-        <v>0.02819582923125285</v>
+        <v>0.02819582926035668</v>
       </c>
     </row>
     <row r="251">
@@ -5199,10 +5199,10 @@
         <v>0.05597126608799761</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0003745853900909424</v>
+        <v>0.0003745854191947728</v>
       </c>
       <c r="E251" t="n">
-        <v>0.02817292573904428</v>
+        <v>0.02817292575359619</v>
       </c>
     </row>
     <row r="252">
@@ -5218,10 +5218,10 @@
         <v>0.05507333133792278</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0002954484371002764</v>
+        <v>0.0002954484662041068</v>
       </c>
       <c r="E252" t="n">
-        <v>0.02768438988751153</v>
+        <v>0.02768438990206344</v>
       </c>
     </row>
     <row r="253">
@@ -5237,10 +5237,10 @@
         <v>0.0547740197545645</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0009130283142440021</v>
+        <v>0.000913028372451663</v>
       </c>
       <c r="E253" t="n">
-        <v>0.02784352403440425</v>
+        <v>0.02784352406350808</v>
       </c>
     </row>
     <row r="254">
@@ -5256,10 +5256,10 @@
         <v>0.0547740197545645</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0103778513148427</v>
+        <v>0.01037785224616528</v>
       </c>
       <c r="E254" t="n">
-        <v>0.0325759355347036</v>
+        <v>0.03257593600036489</v>
       </c>
     </row>
     <row r="255">
@@ -5275,10 +5275,10 @@
         <v>0.05447470817120623</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0008897283696569502</v>
+        <v>0.0008897284278646111</v>
       </c>
       <c r="E255" t="n">
-        <v>0.02768221827043159</v>
+        <v>0.02768221829953542</v>
       </c>
     </row>
     <row r="256">
@@ -5294,10 +5294,10 @@
         <v>0.05417539658784795</v>
       </c>
       <c r="D256" t="n">
-        <v>0.002670839196071029</v>
+        <v>0.002670839428901672</v>
       </c>
       <c r="E256" t="n">
-        <v>0.02842311789195949</v>
+        <v>0.02842311800837481</v>
       </c>
     </row>
     <row r="257">
@@ -5313,10 +5313,10 @@
         <v>0.05417539658784795</v>
       </c>
       <c r="D257" t="n">
-        <v>0.002139202784746885</v>
+        <v>0.002139203017577529</v>
       </c>
       <c r="E257" t="n">
-        <v>0.02815729968629742</v>
+        <v>0.02815729980271274</v>
       </c>
     </row>
     <row r="258">
@@ -5332,10 +5332,10 @@
         <v>0.05387608500448968</v>
       </c>
       <c r="D258" t="n">
-        <v>0.001028866274282336</v>
+        <v>0.001028866390697658</v>
       </c>
       <c r="E258" t="n">
-        <v>0.02745247563938601</v>
+        <v>0.02745247569759367</v>
       </c>
     </row>
     <row r="259">
@@ -5351,10 +5351,10 @@
         <v>0.05357677342113139</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0007288746419362724</v>
+        <v>0.0007288747001439333</v>
       </c>
       <c r="E259" t="n">
-        <v>0.02715282403153383</v>
+        <v>0.02715282406063766</v>
       </c>
     </row>
     <row r="260">
@@ -5370,10 +5370,10 @@
         <v>0.05357677342113139</v>
       </c>
       <c r="D260" t="n">
-        <v>0.01013127621263266</v>
+        <v>0.01013127714395523</v>
       </c>
       <c r="E260" t="n">
-        <v>0.03185402481688203</v>
+        <v>0.03185402528254332</v>
       </c>
     </row>
     <row r="261">
@@ -5389,10 +5389,10 @@
         <v>0.05327746183777312</v>
       </c>
       <c r="D261" t="n">
-        <v>0.00702145928516984</v>
+        <v>0.007021459750831127</v>
       </c>
       <c r="E261" t="n">
-        <v>0.03014946056147148</v>
+        <v>0.03014946079430212</v>
       </c>
     </row>
     <row r="262">
@@ -5408,10 +5408,10 @@
         <v>0.05327746183777312</v>
       </c>
       <c r="D262" t="n">
-        <v>0.0004656891396734864</v>
+        <v>0.0004656891687773168</v>
       </c>
       <c r="E262" t="n">
-        <v>0.0268715754887233</v>
+        <v>0.02687157550327522</v>
       </c>
     </row>
     <row r="263">
@@ -5446,10 +5446,10 @@
         <v>0.05297815025441484</v>
       </c>
       <c r="D264" t="n">
-        <v>0.0004928431008011103</v>
+        <v>0.0004928431590087712</v>
       </c>
       <c r="E264" t="n">
-        <v>0.02673549667760798</v>
+        <v>0.02673549670671181</v>
       </c>
     </row>
     <row r="265">
@@ -5465,10 +5465,10 @@
         <v>0.05297815025441484</v>
       </c>
       <c r="D265" t="n">
-        <v>0.00253235874697566</v>
+        <v>0.002532358979806304</v>
       </c>
       <c r="E265" t="n">
-        <v>0.02775525450069525</v>
+        <v>0.02775525461711057</v>
       </c>
     </row>
     <row r="266">
@@ -5484,10 +5484,10 @@
         <v>0.05297815025441484</v>
       </c>
       <c r="D266" t="n">
-        <v>0.000766170269344002</v>
+        <v>0.0007661703275516629</v>
       </c>
       <c r="E266" t="n">
-        <v>0.02687216026187942</v>
+        <v>0.02687216029098325</v>
       </c>
     </row>
     <row r="267">
@@ -5503,10 +5503,10 @@
         <v>0.05267883867105657</v>
       </c>
       <c r="D267" t="n">
-        <v>0.0009696235647425056</v>
+        <v>0.0009696236811578274</v>
       </c>
       <c r="E267" t="n">
-        <v>0.02682423111789954</v>
+        <v>0.0268242311761072</v>
       </c>
     </row>
     <row r="268">
@@ -5541,10 +5541,10 @@
         <v>0.0523795270876983</v>
       </c>
       <c r="D269" t="n">
-        <v>0.001555708469823003</v>
+        <v>0.001555708586238325</v>
       </c>
       <c r="E269" t="n">
-        <v>0.02696761777876065</v>
+        <v>0.02696761783696831</v>
       </c>
     </row>
     <row r="270">
@@ -5560,10 +5560,10 @@
         <v>0.05178090392098175</v>
       </c>
       <c r="D270" t="n">
-        <v>0.001315877074375749</v>
+        <v>0.00131587719079107</v>
       </c>
       <c r="E270" t="n">
-        <v>0.02654839049767875</v>
+        <v>0.02654839055588641</v>
       </c>
     </row>
     <row r="271">
@@ -5579,10 +5579,10 @@
         <v>0.05148159233762346</v>
       </c>
       <c r="D271" t="n">
-        <v>0.0007656756788492203</v>
+        <v>0.0007656757370568812</v>
       </c>
       <c r="E271" t="n">
-        <v>0.02612363400823634</v>
+        <v>0.02612363403734017</v>
       </c>
     </row>
     <row r="272">
@@ -5598,10 +5598,10 @@
         <v>0.05148159233762346</v>
       </c>
       <c r="D272" t="n">
-        <v>0.006207540165632963</v>
+        <v>0.00620754063129425</v>
       </c>
       <c r="E272" t="n">
-        <v>0.02884456625162821</v>
+        <v>0.02884456648445886</v>
       </c>
     </row>
     <row r="273">
@@ -5617,10 +5617,10 @@
         <v>0.05118228075426519</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0004632218042388558</v>
+        <v>0.0004632218333426863</v>
       </c>
       <c r="E273" t="n">
-        <v>0.02582275127925202</v>
+        <v>0.02582275129380394</v>
       </c>
     </row>
     <row r="274">
@@ -5636,10 +5636,10 @@
         <v>0.05088296917090691</v>
       </c>
       <c r="D274" t="n">
-        <v>0.000840208085719496</v>
+        <v>0.0008402081439271569</v>
       </c>
       <c r="E274" t="n">
-        <v>0.0258615886283132</v>
+        <v>0.02586158865741704</v>
       </c>
     </row>
     <row r="275">
@@ -5655,10 +5655,10 @@
         <v>0.05088296917090691</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0006161634810268879</v>
+        <v>0.0006161635392345488</v>
       </c>
       <c r="E275" t="n">
-        <v>0.0257495663259669</v>
+        <v>0.02574956635507073</v>
       </c>
     </row>
     <row r="276">
@@ -5674,10 +5674,10 @@
         <v>0.05028434600419036</v>
       </c>
       <c r="D276" t="n">
-        <v>0.0008281475165858865</v>
+        <v>0.0008281475747935474</v>
       </c>
       <c r="E276" t="n">
-        <v>0.02555624676038813</v>
+        <v>0.02555624678949196</v>
       </c>
     </row>
     <row r="277">
@@ -5693,10 +5693,10 @@
         <v>0.04998503442083209</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0008283157949335873</v>
+        <v>0.0008283158531412482</v>
       </c>
       <c r="E277" t="n">
-        <v>0.02540667510788284</v>
+        <v>0.02540667513698667</v>
       </c>
     </row>
     <row r="278">
@@ -5712,10 +5712,10 @@
         <v>0.04968572283747381</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0003576472226995975</v>
+        <v>0.0003576472518034279</v>
       </c>
       <c r="E278" t="n">
-        <v>0.0250216850300867</v>
+        <v>0.02502168504463862</v>
       </c>
     </row>
     <row r="279">
@@ -5731,10 +5731,10 @@
         <v>0.04938641125411553</v>
       </c>
       <c r="D279" t="n">
-        <v>0.0175149217247963</v>
+        <v>0.01751492358744144</v>
       </c>
       <c r="E279" t="n">
-        <v>0.03345066648945591</v>
+        <v>0.03345066742077848</v>
       </c>
     </row>
     <row r="280">
@@ -5750,10 +5750,10 @@
         <v>0.04938641125411553</v>
       </c>
       <c r="D280" t="n">
-        <v>0.0006451430963352323</v>
+        <v>0.0006451431545428932</v>
       </c>
       <c r="E280" t="n">
-        <v>0.02501577717522538</v>
+        <v>0.02501577720432921</v>
       </c>
     </row>
     <row r="281">
@@ -5769,10 +5769,10 @@
         <v>0.04908709967075726</v>
       </c>
       <c r="D281" t="n">
-        <v>0.0008794654277153313</v>
+        <v>0.0008794654859229922</v>
       </c>
       <c r="E281" t="n">
-        <v>0.02498328254923629</v>
+        <v>0.02498328257834012</v>
       </c>
     </row>
     <row r="282">
@@ -5788,10 +5788,10 @@
         <v>0.04908709967075726</v>
       </c>
       <c r="D282" t="n">
-        <v>0.0006308952579274774</v>
+        <v>0.0006308953161351383</v>
       </c>
       <c r="E282" t="n">
-        <v>0.02485899746434237</v>
+        <v>0.0248589974934462</v>
       </c>
     </row>
     <row r="283">
@@ -5826,10 +5826,10 @@
         <v>0.04878778808739898</v>
       </c>
       <c r="D284" t="n">
-        <v>0.0007382062030956149</v>
+        <v>0.0007382062613032758</v>
       </c>
       <c r="E284" t="n">
-        <v>0.0247629971452473</v>
+        <v>0.02476299717435113</v>
       </c>
     </row>
     <row r="285">
@@ -5845,10 +5845,10 @@
         <v>0.04878778808739898</v>
       </c>
       <c r="D285" t="n">
-        <v>0.01040842942893505</v>
+        <v>0.01040843036025763</v>
       </c>
       <c r="E285" t="n">
-        <v>0.02959810875816702</v>
+        <v>0.0295981092238283</v>
       </c>
     </row>
     <row r="286">
@@ -5864,10 +5864,10 @@
         <v>0.04818916492068243</v>
       </c>
       <c r="D286" t="n">
-        <v>0.001500175218097866</v>
+        <v>0.001500175334513187</v>
       </c>
       <c r="E286" t="n">
-        <v>0.02484467006939015</v>
+        <v>0.02484467012759781</v>
       </c>
     </row>
     <row r="287">
@@ -5883,10 +5883,10 @@
         <v>0.04818916492068243</v>
       </c>
       <c r="D287" t="n">
-        <v>0.0006232414743863046</v>
+        <v>0.0006232415325939655</v>
       </c>
       <c r="E287" t="n">
-        <v>0.02440620319753437</v>
+        <v>0.0244062032266382</v>
       </c>
     </row>
     <row r="288">
@@ -5902,10 +5902,10 @@
         <v>0.04818916492068243</v>
       </c>
       <c r="D288" t="n">
-        <v>0.0008387711714021862</v>
+        <v>0.0008387712296098471</v>
       </c>
       <c r="E288" t="n">
-        <v>0.02451396804604231</v>
+        <v>0.02451396807514614</v>
       </c>
     </row>
     <row r="289">
@@ -5921,10 +5921,10 @@
         <v>0.04788985333732416</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0008498384850099683</v>
+        <v>0.0008498385432176292</v>
       </c>
       <c r="E289" t="n">
-        <v>0.02436984591116706</v>
+        <v>0.02436984594027089</v>
       </c>
     </row>
     <row r="290">
@@ -5940,10 +5940,10 @@
         <v>0.04759054175396588</v>
       </c>
       <c r="D290" t="n">
-        <v>0.02273831143975258</v>
+        <v>0.02273831330239773</v>
       </c>
       <c r="E290" t="n">
-        <v>0.03516442659685923</v>
+        <v>0.0351644275281818</v>
       </c>
     </row>
     <row r="291">
@@ -5959,10 +5959,10 @@
         <v>0.04759054175396588</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0004272022342775017</v>
+        <v>0.0004272022633813322</v>
       </c>
       <c r="E291" t="n">
-        <v>0.02400887199412169</v>
+        <v>0.0240088720086736</v>
       </c>
     </row>
     <row r="292">
@@ -5978,10 +5978,10 @@
         <v>0.04759054175396588</v>
       </c>
       <c r="D292" t="n">
-        <v>0.0006997699965722859</v>
+        <v>0.0006997700547799468</v>
       </c>
       <c r="E292" t="n">
-        <v>0.02414515587526908</v>
+        <v>0.02414515590437291</v>
       </c>
     </row>
     <row r="293">
@@ -5997,10 +5997,10 @@
         <v>0.04759054175396588</v>
       </c>
       <c r="D293" t="n">
-        <v>0.0002158422867069021</v>
+        <v>0.0002158423012588173</v>
       </c>
       <c r="E293" t="n">
-        <v>0.02390319202033639</v>
+        <v>0.02390319202761235</v>
       </c>
     </row>
     <row r="294">
@@ -6016,10 +6016,10 @@
         <v>0.0472912301706076</v>
       </c>
       <c r="D294" t="n">
-        <v>0.0009677493362687528</v>
+        <v>0.0009677494526840746</v>
       </c>
       <c r="E294" t="n">
-        <v>0.02412948975343818</v>
+        <v>0.02412948981164584</v>
       </c>
     </row>
     <row r="295">
@@ -6035,10 +6035,10 @@
         <v>0.0472912301706076</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0003608579572755843</v>
+        <v>0.0003608579863794148</v>
       </c>
       <c r="E295" t="n">
-        <v>0.02382604406394159</v>
+        <v>0.02382604407849351</v>
       </c>
     </row>
     <row r="296">
@@ -6054,10 +6054,10 @@
         <v>0.0472912301706076</v>
       </c>
       <c r="D296" t="n">
-        <v>0.0008413607720285654</v>
+        <v>0.0008413608302362263</v>
       </c>
       <c r="E296" t="n">
-        <v>0.02406629547131808</v>
+        <v>0.02406629550042191</v>
       </c>
     </row>
     <row r="297">
@@ -6073,10 +6073,10 @@
         <v>0.04699191858724933</v>
       </c>
       <c r="D297" t="n">
-        <v>0.0004053146985825151</v>
+        <v>0.0004053147276863456</v>
       </c>
       <c r="E297" t="n">
-        <v>0.02369861664291592</v>
+        <v>0.02369861665746784</v>
       </c>
     </row>
     <row r="298">
@@ -6092,10 +6092,10 @@
         <v>0.04699191858724933</v>
       </c>
       <c r="D298" t="n">
-        <v>0.02183297090232372</v>
+        <v>0.02183297276496887</v>
       </c>
       <c r="E298" t="n">
-        <v>0.03441244474478652</v>
+        <v>0.0344124456761091</v>
       </c>
     </row>
     <row r="299">
@@ -6111,10 +6111,10 @@
         <v>0.04669260700389105</v>
       </c>
       <c r="D299" t="n">
-        <v>0.0003503305779304355</v>
+        <v>0.000350330607034266</v>
       </c>
       <c r="E299" t="n">
-        <v>0.02352146879091074</v>
+        <v>0.02352146880546266</v>
       </c>
     </row>
     <row r="300">
@@ -6130,10 +6130,10 @@
         <v>0.04639329542053278</v>
       </c>
       <c r="D300" t="n">
-        <v>0.001329091377556324</v>
+        <v>0.001329091493971646</v>
       </c>
       <c r="E300" t="n">
-        <v>0.02386119339904455</v>
+        <v>0.02386119345725221</v>
       </c>
     </row>
     <row r="301">
@@ -6149,10 +6149,10 @@
         <v>0.04639329542053278</v>
       </c>
       <c r="D301" t="n">
-        <v>0.0002319889172213152</v>
+        <v>0.0002319889317732304</v>
       </c>
       <c r="E301" t="n">
-        <v>0.02331264216887705</v>
+        <v>0.023312642176153</v>
       </c>
     </row>
     <row r="302">
@@ -6168,10 +6168,10 @@
         <v>0.0460939838371745</v>
       </c>
       <c r="D302" t="n">
-        <v>0.001793006784282625</v>
+        <v>0.001793006900697947</v>
       </c>
       <c r="E302" t="n">
-        <v>0.02394349531072856</v>
+        <v>0.02394349536893622</v>
       </c>
     </row>
     <row r="303">
@@ -6187,10 +6187,10 @@
         <v>0.0460939838371745</v>
       </c>
       <c r="D303" t="n">
-        <v>0.002328599337488413</v>
+        <v>0.002328599570319057</v>
       </c>
       <c r="E303" t="n">
-        <v>0.02421129158733146</v>
+        <v>0.02421129170374678</v>
       </c>
     </row>
     <row r="304">
@@ -6206,10 +6206,10 @@
         <v>0.04579467225381622</v>
       </c>
       <c r="D304" t="n">
-        <v>0.0008094874210655689</v>
+        <v>0.0008094874792732298</v>
       </c>
       <c r="E304" t="n">
-        <v>0.02330207983744089</v>
+        <v>0.02330207986654472</v>
       </c>
     </row>
     <row r="305">
@@ -6225,10 +6225,10 @@
         <v>0.04549536067045794</v>
       </c>
       <c r="D305" t="n">
-        <v>0.0006833436782471836</v>
+        <v>0.0006833437364548445</v>
       </c>
       <c r="E305" t="n">
-        <v>0.02308935217435256</v>
+        <v>0.02308935220345639</v>
       </c>
     </row>
     <row r="306">
@@ -6263,10 +6263,10 @@
         <v>0.04549536067045794</v>
       </c>
       <c r="D307" t="n">
-        <v>0.01164692174643278</v>
+        <v>0.01164692267775536</v>
       </c>
       <c r="E307" t="n">
-        <v>0.02857114120844536</v>
+        <v>0.02857114167410665</v>
       </c>
     </row>
     <row r="308">
@@ -6282,10 +6282,10 @@
         <v>0.04489673750374139</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0002370124711887911</v>
+        <v>0.0002370125002926216</v>
       </c>
       <c r="E308" t="n">
-        <v>0.02256687498746509</v>
+        <v>0.02256687500201701</v>
       </c>
     </row>
     <row r="309">
@@ -6301,10 +6301,10 @@
         <v>0.04459742592038312</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0001412816200172529</v>
+        <v>0.0001412816345691681</v>
       </c>
       <c r="E309" t="n">
-        <v>0.02236935377020019</v>
+        <v>0.02236935377747614</v>
       </c>
     </row>
     <row r="310">
@@ -6320,10 +6320,10 @@
         <v>0.04459742592038312</v>
       </c>
       <c r="D310" t="n">
-        <v>0.0004475722089409828</v>
+        <v>0.0004475722671486437</v>
       </c>
       <c r="E310" t="n">
-        <v>0.02252249906466205</v>
+        <v>0.02252249909376588</v>
       </c>
     </row>
     <row r="311">
@@ -6339,10 +6339,10 @@
         <v>0.04429811433702485</v>
       </c>
       <c r="D311" t="n">
-        <v>0.0004553057078737766</v>
+        <v>0.000455305736977607</v>
       </c>
       <c r="E311" t="n">
-        <v>0.02237671002244931</v>
+        <v>0.02237671003700123</v>
       </c>
     </row>
     <row r="312">
@@ -6377,10 +6377,10 @@
         <v>0.04340017958695001</v>
       </c>
       <c r="D313" t="n">
-        <v>0.0007102628005668521</v>
+        <v>0.000710262858774513</v>
       </c>
       <c r="E313" t="n">
-        <v>0.02205522119375843</v>
+        <v>0.02205522122286226</v>
       </c>
     </row>
     <row r="314">
@@ -6396,10 +6396,10 @@
         <v>0.04340017958695001</v>
       </c>
       <c r="D314" t="n">
-        <v>0.001499032019637525</v>
+        <v>0.001499032136052847</v>
       </c>
       <c r="E314" t="n">
-        <v>0.02244960580329377</v>
+        <v>0.02244960586150143</v>
       </c>
     </row>
     <row r="315">
@@ -6415,10 +6415,10 @@
         <v>0.04340017958695001</v>
       </c>
       <c r="D315" t="n">
-        <v>0.0005922961281612515</v>
+        <v>0.0005922961863689125</v>
       </c>
       <c r="E315" t="n">
-        <v>0.02199623785755563</v>
+        <v>0.02199623788665946</v>
       </c>
     </row>
     <row r="316">
@@ -6434,10 +6434,10 @@
         <v>0.04310086800359174</v>
       </c>
       <c r="D316" t="n">
-        <v>0.0007846940425224602</v>
+        <v>0.0007846941007301211</v>
       </c>
       <c r="E316" t="n">
-        <v>0.0219427810230571</v>
+        <v>0.02194278105216093</v>
       </c>
     </row>
     <row r="317">
@@ -6453,10 +6453,10 @@
         <v>0.04280155642023346</v>
       </c>
       <c r="D317" t="n">
-        <v>0.0008956694509834051</v>
+        <v>0.0008956695673987269</v>
       </c>
       <c r="E317" t="n">
-        <v>0.02184861293560843</v>
+        <v>0.0218486129938161</v>
       </c>
     </row>
     <row r="318">
@@ -6472,10 +6472,10 @@
         <v>0.04250224483687519</v>
       </c>
       <c r="D318" t="n">
-        <v>0.0007259846315719187</v>
+        <v>0.0007259846897795796</v>
       </c>
       <c r="E318" t="n">
-        <v>0.02161411473422355</v>
+        <v>0.02161411476332738</v>
       </c>
     </row>
     <row r="319">
@@ -6510,10 +6510,10 @@
         <v>0.04220293325351691</v>
       </c>
       <c r="D320" t="n">
-        <v>0.005957599263638258</v>
+        <v>0.005957599729299545</v>
       </c>
       <c r="E320" t="n">
-        <v>0.02408026625857759</v>
+        <v>0.02408026649140823</v>
       </c>
     </row>
     <row r="321">
@@ -6548,10 +6548,10 @@
         <v>0.04220293325351691</v>
       </c>
       <c r="D322" t="n">
-        <v>0.001346359727904201</v>
+        <v>0.001346359844319522</v>
       </c>
       <c r="E322" t="n">
-        <v>0.02177464649071056</v>
+        <v>0.02177464654891822</v>
       </c>
     </row>
     <row r="323">
@@ -6567,10 +6567,10 @@
         <v>0.04190362167015863</v>
       </c>
       <c r="D323" t="n">
-        <v>0.001126210670918226</v>
+        <v>0.001126210787333548</v>
       </c>
       <c r="E323" t="n">
-        <v>0.02151491617053843</v>
+        <v>0.02151491622874609</v>
       </c>
     </row>
     <row r="324">
@@ -6586,10 +6586,10 @@
         <v>0.04190362167015863</v>
       </c>
       <c r="D324" t="n">
-        <v>0.000571194221265614</v>
+        <v>0.0005711942794732749</v>
       </c>
       <c r="E324" t="n">
-        <v>0.02123740794571212</v>
+        <v>0.02123740797481595</v>
       </c>
     </row>
     <row r="325">
@@ -6605,10 +6605,10 @@
         <v>0.04190362167015863</v>
       </c>
       <c r="D325" t="n">
-        <v>0.0001429384428774938</v>
+        <v>0.000142938457429409</v>
       </c>
       <c r="E325" t="n">
-        <v>0.02102328005651806</v>
+        <v>0.02102328006379402</v>
       </c>
     </row>
     <row r="326">
@@ -6624,10 +6624,10 @@
         <v>0.04190362167015863</v>
       </c>
       <c r="D326" t="n">
-        <v>0.002032707678154111</v>
+        <v>0.002032707910984755</v>
       </c>
       <c r="E326" t="n">
-        <v>0.02196816467415637</v>
+        <v>0.02196816479057169</v>
       </c>
     </row>
     <row r="327">
@@ -6643,10 +6643,10 @@
         <v>0.04160431008680036</v>
       </c>
       <c r="D327" t="n">
-        <v>0.004245681688189507</v>
+        <v>0.004245682153850794</v>
       </c>
       <c r="E327" t="n">
-        <v>0.02292499588749493</v>
+        <v>0.02292499612032558</v>
       </c>
     </row>
     <row r="328">
@@ -6662,10 +6662,10 @@
         <v>0.04160431008680036</v>
       </c>
       <c r="D328" t="n">
-        <v>0.0007433833088725805</v>
+        <v>0.0007433833670802414</v>
       </c>
       <c r="E328" t="n">
-        <v>0.02117384669783647</v>
+        <v>0.0211738467269403</v>
       </c>
     </row>
     <row r="329">
@@ -6681,10 +6681,10 @@
         <v>0.04130499850344208</v>
       </c>
       <c r="D329" t="n">
-        <v>0.0006655023898929358</v>
+        <v>0.0006655024481005967</v>
       </c>
       <c r="E329" t="n">
-        <v>0.02098525044666751</v>
+        <v>0.02098525047577134</v>
       </c>
     </row>
     <row r="330">
@@ -6700,10 +6700,10 @@
         <v>0.04100568692008381</v>
       </c>
       <c r="D330" t="n">
-        <v>0.000614370743278414</v>
+        <v>0.0006143708014860749</v>
       </c>
       <c r="E330" t="n">
-        <v>0.02081002883168111</v>
+        <v>0.02081002886078494</v>
       </c>
     </row>
     <row r="331">
@@ -6719,10 +6719,10 @@
         <v>0.04100568692008381</v>
       </c>
       <c r="D331" t="n">
-        <v>0.003399332519620657</v>
+        <v>0.003399332752451301</v>
       </c>
       <c r="E331" t="n">
-        <v>0.02220250971985223</v>
+        <v>0.02220250983626755</v>
       </c>
     </row>
     <row r="332">
@@ -6738,10 +6738,10 @@
         <v>0.04100568692008381</v>
       </c>
       <c r="D332" t="n">
-        <v>0.002822353038936853</v>
+        <v>0.002822353271767497</v>
       </c>
       <c r="E332" t="n">
-        <v>0.02191401997951033</v>
+        <v>0.02191402009592565</v>
       </c>
     </row>
     <row r="333">
@@ -6757,10 +6757,10 @@
         <v>0.04070637533672553</v>
       </c>
       <c r="D333" t="n">
-        <v>0.0005809053545817733</v>
+        <v>0.0005809054127894342</v>
       </c>
       <c r="E333" t="n">
-        <v>0.02064364034565365</v>
+        <v>0.02064364037475748</v>
       </c>
     </row>
     <row r="334">
@@ -6776,10 +6776,10 @@
         <v>0.04070637533672553</v>
       </c>
       <c r="D334" t="n">
-        <v>0.0004211675259284675</v>
+        <v>0.000421167555032298</v>
       </c>
       <c r="E334" t="n">
-        <v>0.020563771431327</v>
+        <v>0.02056377144587892</v>
       </c>
     </row>
     <row r="335">
@@ -6795,10 +6795,10 @@
         <v>0.04070637533672553</v>
       </c>
       <c r="D335" t="n">
-        <v>0.0006181058124639094</v>
+        <v>0.0006181058706715703</v>
       </c>
       <c r="E335" t="n">
-        <v>0.02066224057459472</v>
+        <v>0.02066224060369855</v>
       </c>
     </row>
     <row r="336">
@@ -6814,10 +6814,10 @@
         <v>0.04070637533672553</v>
       </c>
       <c r="D336" t="n">
-        <v>0.0004715268441941589</v>
+        <v>0.0004715268732979894</v>
       </c>
       <c r="E336" t="n">
-        <v>0.02058895109045985</v>
+        <v>0.02058895110501176</v>
       </c>
     </row>
     <row r="337">
@@ -6833,10 +6833,10 @@
         <v>0.04040706375336726</v>
       </c>
       <c r="D337" t="n">
-        <v>0.0001082713060895912</v>
+        <v>0.0001082713133655488</v>
       </c>
       <c r="E337" t="n">
-        <v>0.02025766752972842</v>
+        <v>0.0202576675333664</v>
       </c>
     </row>
     <row r="338">
@@ -6871,10 +6871,10 @@
         <v>0.04040706375336726</v>
       </c>
       <c r="D339" t="n">
-        <v>0.0008580462308600545</v>
+        <v>0.0008580462890677154</v>
       </c>
       <c r="E339" t="n">
-        <v>0.02063255499211366</v>
+        <v>0.02063255502121749</v>
       </c>
     </row>
     <row r="340">
@@ -6890,10 +6890,10 @@
         <v>0.04040706375336726</v>
       </c>
       <c r="D340" t="n">
-        <v>0.004502630792558193</v>
+        <v>0.004502631258219481</v>
       </c>
       <c r="E340" t="n">
-        <v>0.02245484727296273</v>
+        <v>0.02245484750579337</v>
       </c>
     </row>
     <row r="341">
@@ -6909,10 +6909,10 @@
         <v>0.04010775217000898</v>
       </c>
       <c r="D341" t="n">
-        <v>0.0005398184875957668</v>
+        <v>0.0005398185458034277</v>
       </c>
       <c r="E341" t="n">
-        <v>0.02032378532880237</v>
+        <v>0.02032378535790621</v>
       </c>
     </row>
     <row r="342">
@@ -6928,10 +6928,10 @@
         <v>0.04010775217000898</v>
       </c>
       <c r="D342" t="n">
-        <v>0.0008573451777920127</v>
+        <v>0.0008573452359996736</v>
       </c>
       <c r="E342" t="n">
-        <v>0.0204825486739005</v>
+        <v>0.02048254870300433</v>
       </c>
     </row>
     <row r="343">
@@ -6947,10 +6947,10 @@
         <v>0.0398084405866507</v>
       </c>
       <c r="D343" t="n">
-        <v>0.0008929482428357005</v>
+        <v>0.0008929483010433614</v>
       </c>
       <c r="E343" t="n">
-        <v>0.0203506944147432</v>
+        <v>0.02035069444384703</v>
       </c>
     </row>
     <row r="344">
@@ -6966,10 +6966,10 @@
         <v>0.0398084405866507</v>
       </c>
       <c r="D344" t="n">
-        <v>0.0002784999087452888</v>
+        <v>0.0002784999378491193</v>
       </c>
       <c r="E344" t="n">
-        <v>0.02004347024769799</v>
+        <v>0.02004347026224991</v>
       </c>
     </row>
     <row r="345">
@@ -6985,10 +6985,10 @@
         <v>0.03950912900329243</v>
       </c>
       <c r="D345" t="n">
-        <v>0.0001910889986902475</v>
+        <v>0.0001910890132421628</v>
       </c>
       <c r="E345" t="n">
-        <v>0.01985010900099134</v>
+        <v>0.01985010900826729</v>
       </c>
     </row>
     <row r="346">
@@ -7023,10 +7023,10 @@
         <v>0.03950912900329243</v>
       </c>
       <c r="D347" t="n">
-        <v>0.000719984935130924</v>
+        <v>0.0007199849933385849</v>
       </c>
       <c r="E347" t="n">
-        <v>0.02011455696921167</v>
+        <v>0.02011455699831551</v>
       </c>
     </row>
     <row r="348">
@@ -7042,10 +7042,10 @@
         <v>0.03950912900329243</v>
       </c>
       <c r="D348" t="n">
-        <v>0.0006361075793392956</v>
+        <v>0.0006361076375469565</v>
       </c>
       <c r="E348" t="n">
-        <v>0.02007261829131586</v>
+        <v>0.02007261832041969</v>
       </c>
     </row>
     <row r="349">
@@ -7061,10 +7061,10 @@
         <v>0.03950912900329243</v>
       </c>
       <c r="D349" t="n">
-        <v>0.001071405597031116</v>
+        <v>0.001071405713446438</v>
       </c>
       <c r="E349" t="n">
-        <v>0.02029026730016177</v>
+        <v>0.02029026735836943</v>
       </c>
     </row>
     <row r="350">
@@ -7099,10 +7099,10 @@
         <v>0.0386111942532176</v>
       </c>
       <c r="D351" t="n">
-        <v>0.0007828365778550506</v>
+        <v>0.0007828366360627115</v>
       </c>
       <c r="E351" t="n">
-        <v>0.01969701541553633</v>
+        <v>0.01969701544464016</v>
       </c>
     </row>
     <row r="352">
@@ -7118,10 +7118,10 @@
         <v>0.0386111942532176</v>
       </c>
       <c r="D352" t="n">
-        <v>0.0004397061420604587</v>
+        <v>0.0004397062002681196</v>
       </c>
       <c r="E352" t="n">
-        <v>0.01952545019763903</v>
+        <v>0.01952545022674286</v>
       </c>
     </row>
     <row r="353">
@@ -7156,10 +7156,10 @@
         <v>0.0386111942532176</v>
       </c>
       <c r="D354" t="n">
-        <v>0.0003993188147433102</v>
+        <v>0.0003993188438471407</v>
       </c>
       <c r="E354" t="n">
-        <v>0.01950525653398046</v>
+        <v>0.01950525654853237</v>
       </c>
     </row>
     <row r="355">
@@ -7175,10 +7175,10 @@
         <v>0.0386111942532176</v>
       </c>
       <c r="D355" t="n">
-        <v>0.0005622447934001684</v>
+        <v>0.0005622448516078293</v>
       </c>
       <c r="E355" t="n">
-        <v>0.01958671952330888</v>
+        <v>0.01958671955241272</v>
       </c>
     </row>
     <row r="356">
@@ -7194,10 +7194,10 @@
         <v>0.0386111942532176</v>
       </c>
       <c r="D356" t="n">
-        <v>0.0009882065933197737</v>
+        <v>0.0009882067097350955</v>
       </c>
       <c r="E356" t="n">
-        <v>0.01979970042326869</v>
+        <v>0.01979970048147635</v>
       </c>
     </row>
     <row r="357">
@@ -7213,10 +7213,10 @@
         <v>0.03801257108650104</v>
       </c>
       <c r="D357" t="n">
-        <v>0.0006829677149653435</v>
+        <v>0.0006829677731730044</v>
       </c>
       <c r="E357" t="n">
-        <v>0.01934776940073319</v>
+        <v>0.01934776942983702</v>
       </c>
     </row>
     <row r="358">
@@ -7270,10 +7270,10 @@
         <v>0.03771325950314277</v>
       </c>
       <c r="D360" t="n">
-        <v>0.0003668390563689172</v>
+        <v>0.0003668390854727477</v>
       </c>
       <c r="E360" t="n">
-        <v>0.01904004927975584</v>
+        <v>0.01904004929430776</v>
       </c>
     </row>
     <row r="361">
@@ -7289,10 +7289,10 @@
         <v>0.03771325950314277</v>
       </c>
       <c r="D361" t="n">
-        <v>0.000615570112131536</v>
+        <v>0.0006155701703391969</v>
       </c>
       <c r="E361" t="n">
-        <v>0.01916441480763715</v>
+        <v>0.01916441483674098</v>
       </c>
     </row>
     <row r="362">
@@ -7308,10 +7308,10 @@
         <v>0.03771325950314277</v>
       </c>
       <c r="D362" t="n">
-        <v>0.0005288013489916921</v>
+        <v>0.000528801407199353</v>
       </c>
       <c r="E362" t="n">
-        <v>0.01912103042606723</v>
+        <v>0.01912103045517106</v>
       </c>
     </row>
     <row r="363">
@@ -7365,10 +7365,10 @@
         <v>0.03741394791978449</v>
       </c>
       <c r="D365" t="n">
-        <v>0.0007908780826255679</v>
+        <v>0.0007908781408332288</v>
       </c>
       <c r="E365" t="n">
-        <v>0.01910241300120503</v>
+        <v>0.01910241303030886</v>
       </c>
     </row>
     <row r="366">
@@ -7384,10 +7384,10 @@
         <v>0.03741394791978449</v>
       </c>
       <c r="D366" t="n">
-        <v>0.001097681350074708</v>
+        <v>0.00109768146649003</v>
       </c>
       <c r="E366" t="n">
-        <v>0.0192558146349296</v>
+        <v>0.01925581469313726</v>
       </c>
     </row>
     <row r="367">
@@ -7403,10 +7403,10 @@
         <v>0.03741394791978449</v>
       </c>
       <c r="D367" t="n">
-        <v>0.02087412774562836</v>
+        <v>0.02087412960827351</v>
       </c>
       <c r="E367" t="n">
-        <v>0.02914403783270643</v>
+        <v>0.029144038764029</v>
       </c>
     </row>
     <row r="368">
@@ -7422,10 +7422,10 @@
         <v>0.03741394791978449</v>
       </c>
       <c r="D368" t="n">
-        <v>0.0009026920888572931</v>
+        <v>0.000902692147064954</v>
       </c>
       <c r="E368" t="n">
-        <v>0.01915832000432089</v>
+        <v>0.01915832003342472</v>
       </c>
     </row>
     <row r="369">
@@ -7441,10 +7441,10 @@
         <v>0.03681532475306794</v>
       </c>
       <c r="D369" t="n">
-        <v>0.0007680411217734218</v>
+        <v>0.0007680411799810827</v>
       </c>
       <c r="E369" t="n">
-        <v>0.01879168293742068</v>
+        <v>0.01879168296652451</v>
       </c>
     </row>
     <row r="370">
@@ -7460,10 +7460,10 @@
         <v>0.03681532475306794</v>
       </c>
       <c r="D370" t="n">
-        <v>0.0006837757537141442</v>
+        <v>0.0006837758119218051</v>
       </c>
       <c r="E370" t="n">
-        <v>0.01874955025339104</v>
+        <v>0.01874955028249487</v>
       </c>
     </row>
     <row r="371">
@@ -7479,10 +7479,10 @@
         <v>0.03681532475306794</v>
       </c>
       <c r="D371" t="n">
-        <v>0.006023991852998734</v>
+        <v>0.006023992318660021</v>
       </c>
       <c r="E371" t="n">
-        <v>0.02141965830303334</v>
+        <v>0.02141965853586398</v>
       </c>
     </row>
     <row r="372">
@@ -7498,10 +7498,10 @@
         <v>0.03681532475306794</v>
       </c>
       <c r="D372" t="n">
-        <v>9.538372978568077e-05</v>
+        <v>9.538373706163839e-05</v>
       </c>
       <c r="E372" t="n">
-        <v>0.01845535424142681</v>
+        <v>0.01845535424506479</v>
       </c>
     </row>
     <row r="373">
@@ -7517,10 +7517,10 @@
         <v>0.03681532475306794</v>
       </c>
       <c r="D373" t="n">
-        <v>0.0006190347485244274</v>
+        <v>0.0006190348067320883</v>
       </c>
       <c r="E373" t="n">
-        <v>0.01871717975079619</v>
+        <v>0.01871717977990002</v>
       </c>
     </row>
     <row r="374">
@@ -7536,10 +7536,10 @@
         <v>0.03651601316970967</v>
       </c>
       <c r="D374" t="n">
-        <v>0.002152463654056191</v>
+        <v>0.002152463886886835</v>
       </c>
       <c r="E374" t="n">
-        <v>0.01933423841188293</v>
+        <v>0.01933423852829825</v>
       </c>
     </row>
     <row r="375">
@@ -7574,10 +7574,10 @@
         <v>0.03621670158635139</v>
       </c>
       <c r="D376" t="n">
-        <v>0.001042290823534131</v>
+        <v>0.001042290939949453</v>
       </c>
       <c r="E376" t="n">
-        <v>0.01862949620494276</v>
+        <v>0.01862949626315042</v>
       </c>
     </row>
     <row r="377">
@@ -7612,10 +7612,10 @@
         <v>0.03591739000299311</v>
       </c>
       <c r="D378" t="n">
-        <v>0.0008524873992428184</v>
+        <v>0.0008524874574504793</v>
       </c>
       <c r="E378" t="n">
-        <v>0.01838493870111797</v>
+        <v>0.0183849387302218</v>
       </c>
     </row>
     <row r="379">
@@ -7631,10 +7631,10 @@
         <v>0.03591739000299311</v>
       </c>
       <c r="D379" t="n">
-        <v>0.005784621927887201</v>
+        <v>0.005784622393548489</v>
       </c>
       <c r="E379" t="n">
-        <v>0.02085100596544016</v>
+        <v>0.0208510061982708</v>
       </c>
     </row>
     <row r="380">
@@ -7650,10 +7650,10 @@
         <v>0.03561807841963484</v>
       </c>
       <c r="D380" t="n">
-        <v>9.747906005941331e-05</v>
+        <v>9.747906733537093e-05</v>
       </c>
       <c r="E380" t="n">
-        <v>0.01785777873984713</v>
+        <v>0.0178577787434851</v>
       </c>
     </row>
     <row r="381">
@@ -7669,10 +7669,10 @@
         <v>0.03561807841963484</v>
       </c>
       <c r="D381" t="n">
-        <v>0.000346701533999294</v>
+        <v>0.0003467015631031245</v>
       </c>
       <c r="E381" t="n">
-        <v>0.01798238997681707</v>
+        <v>0.01798238999136898</v>
       </c>
     </row>
     <row r="382">
@@ -7688,10 +7688,10 @@
         <v>0.03561807841963484</v>
       </c>
       <c r="D382" t="n">
-        <v>0.0004936392069794238</v>
+        <v>0.0004936392651870847</v>
       </c>
       <c r="E382" t="n">
-        <v>0.01805585881330713</v>
+        <v>0.01805585884241096</v>
       </c>
     </row>
     <row r="383">
@@ -7707,10 +7707,10 @@
         <v>0.03561807841963484</v>
       </c>
       <c r="D383" t="n">
-        <v>0.001384237315505743</v>
+        <v>0.001384237431921065</v>
       </c>
       <c r="E383" t="n">
-        <v>0.01850115786757029</v>
+        <v>0.01850115792577795</v>
       </c>
     </row>
     <row r="384">
@@ -7726,10 +7726,10 @@
         <v>0.03561807841963484</v>
       </c>
       <c r="D384" t="n">
-        <v>0.0005135521059855819</v>
+        <v>0.0005135521641932428</v>
       </c>
       <c r="E384" t="n">
-        <v>0.01806581526281021</v>
+        <v>0.01806581529191404</v>
       </c>
     </row>
     <row r="385">
@@ -7764,10 +7764,10 @@
         <v>0.03531876683627656</v>
       </c>
       <c r="D386" t="n">
-        <v>0.0008964243461377919</v>
+        <v>0.0008964244043454528</v>
       </c>
       <c r="E386" t="n">
-        <v>0.01810759559120718</v>
+        <v>0.01810759562031101</v>
       </c>
     </row>
     <row r="387">
@@ -7783,10 +7783,10 @@
         <v>0.03531876683627656</v>
       </c>
       <c r="D387" t="n">
-        <v>0.01122818607836962</v>
+        <v>0.01122818700969219</v>
       </c>
       <c r="E387" t="n">
-        <v>0.02327347645732309</v>
+        <v>0.02327347692298438</v>
       </c>
     </row>
     <row r="388">
@@ -7802,10 +7802,10 @@
         <v>0.03531876683627656</v>
       </c>
       <c r="D388" t="n">
-        <v>0.0004742282326333225</v>
+        <v>0.0004742282617371529</v>
       </c>
       <c r="E388" t="n">
-        <v>0.01789649753445494</v>
+        <v>0.01789649754900686</v>
       </c>
     </row>
     <row r="389">
@@ -7821,10 +7821,10 @@
         <v>0.03531876683627656</v>
       </c>
       <c r="D389" t="n">
-        <v>0.001704750349745154</v>
+        <v>0.001704750466160476</v>
       </c>
       <c r="E389" t="n">
-        <v>0.01851175859301086</v>
+        <v>0.01851175865121852</v>
       </c>
     </row>
     <row r="390">
@@ -7840,10 +7840,10 @@
         <v>0.03472014366956001</v>
       </c>
       <c r="D390" t="n">
-        <v>0.00915457122027874</v>
+        <v>0.009154572151601315</v>
       </c>
       <c r="E390" t="n">
-        <v>0.02193735744491938</v>
+        <v>0.02193735791058066</v>
       </c>
     </row>
     <row r="391">
@@ -7859,10 +7859,10 @@
         <v>0.03472014366956001</v>
       </c>
       <c r="D391" t="n">
-        <v>0.0007654355140402913</v>
+        <v>0.0007654355722479522</v>
       </c>
       <c r="E391" t="n">
-        <v>0.01774278959180015</v>
+        <v>0.01774278962090398</v>
       </c>
     </row>
     <row r="392">
@@ -7897,10 +7897,10 @@
         <v>0.03442083208620174</v>
       </c>
       <c r="D393" t="n">
-        <v>4.422619895194657e-05</v>
+        <v>4.422620258992538e-05</v>
       </c>
       <c r="E393" t="n">
-        <v>0.01723252914257684</v>
+        <v>0.01723252914439583</v>
       </c>
     </row>
     <row r="394">
@@ -7916,10 +7916,10 @@
         <v>0.03412152050284346</v>
       </c>
       <c r="D394" t="n">
-        <v>0.0003598176117520779</v>
+        <v>0.0003598176408559084</v>
       </c>
       <c r="E394" t="n">
-        <v>0.01724066905729777</v>
+        <v>0.01724066907184968</v>
       </c>
     </row>
     <row r="395">
@@ -7935,10 +7935,10 @@
         <v>0.03412152050284346</v>
       </c>
       <c r="D395" t="n">
-        <v>0.0003497611323837191</v>
+        <v>0.0003497611614875495</v>
       </c>
       <c r="E395" t="n">
-        <v>0.01723564081761359</v>
+        <v>0.0172356408321655</v>
       </c>
     </row>
     <row r="396">
@@ -7954,10 +7954,10 @@
         <v>0.03412152050284346</v>
       </c>
       <c r="D396" t="n">
-        <v>0.0005292434361763299</v>
+        <v>0.0005292434943839908</v>
       </c>
       <c r="E396" t="n">
-        <v>0.01732538196950989</v>
+        <v>0.01732538199861372</v>
       </c>
     </row>
     <row r="397">
@@ -7973,10 +7973,10 @@
         <v>0.03412152050284346</v>
       </c>
       <c r="D397" t="n">
-        <v>0.0008707131491973996</v>
+        <v>0.0008707132074050605</v>
       </c>
       <c r="E397" t="n">
-        <v>0.01749611682602043</v>
+        <v>0.01749611685512426</v>
       </c>
     </row>
     <row r="398">
@@ -7992,10 +7992,10 @@
         <v>0.03412152050284346</v>
       </c>
       <c r="D398" t="n">
-        <v>0.0001005837766570039</v>
+        <v>0.0001005837839329615</v>
       </c>
       <c r="E398" t="n">
-        <v>0.01711105213975023</v>
+        <v>0.01711105214338821</v>
       </c>
     </row>
     <row r="399">
@@ -8011,10 +8011,10 @@
         <v>0.03382220891948518</v>
       </c>
       <c r="D399" t="n">
-        <v>0.0008246294455602765</v>
+        <v>0.0008246295037679374</v>
       </c>
       <c r="E399" t="n">
-        <v>0.01732341918252273</v>
+        <v>0.01732341921162656</v>
       </c>
     </row>
     <row r="400">
@@ -8030,10 +8030,10 @@
         <v>0.03352289733612691</v>
       </c>
       <c r="D400" t="n">
-        <v>0.0003755041107069701</v>
+        <v>0.0003755041398108006</v>
       </c>
       <c r="E400" t="n">
-        <v>0.01694920072341694</v>
+        <v>0.01694920073796885</v>
       </c>
     </row>
     <row r="401">
@@ -8049,10 +8049,10 @@
         <v>0.03352289733612691</v>
       </c>
       <c r="D401" t="n">
-        <v>0.0004138329240959138</v>
+        <v>0.0004138329531997442</v>
       </c>
       <c r="E401" t="n">
-        <v>0.01696836513011141</v>
+        <v>0.01696836514466333</v>
       </c>
     </row>
     <row r="402">
@@ -8068,10 +8068,10 @@
         <v>0.03352289733612691</v>
       </c>
       <c r="D402" t="n">
-        <v>0.004221249371767044</v>
+        <v>0.004221249837428331</v>
       </c>
       <c r="E402" t="n">
-        <v>0.01887207335394698</v>
+        <v>0.01887207358677762</v>
       </c>
     </row>
     <row r="403">
@@ -8087,10 +8087,10 @@
         <v>0.03352289733612691</v>
       </c>
       <c r="D403" t="n">
-        <v>0.0009611205314286053</v>
+        <v>0.0009611206478439271</v>
       </c>
       <c r="E403" t="n">
-        <v>0.01724200893377776</v>
+        <v>0.01724200899198542</v>
       </c>
     </row>
     <row r="404">
@@ -8106,10 +8106,10 @@
         <v>0.03322358575276863</v>
       </c>
       <c r="D404" t="n">
-        <v>0.002144521800801158</v>
+        <v>0.002144522033631802</v>
       </c>
       <c r="E404" t="n">
-        <v>0.0176840537767849</v>
+        <v>0.01768405389320022</v>
       </c>
     </row>
     <row r="405">
@@ -8125,10 +8125,10 @@
         <v>0.03322358575276863</v>
       </c>
       <c r="D405" t="n">
-        <v>0.001447818242013454</v>
+        <v>0.001447818358428776</v>
       </c>
       <c r="E405" t="n">
-        <v>0.01733570199739104</v>
+        <v>0.0173357020555987</v>
       </c>
     </row>
     <row r="406">
@@ -8144,10 +8144,10 @@
         <v>0.03322358575276863</v>
       </c>
       <c r="D406" t="n">
-        <v>0.000406961451517418</v>
+        <v>0.0004069614806212485</v>
       </c>
       <c r="E406" t="n">
-        <v>0.01681527360214303</v>
+        <v>0.01681527361669494</v>
       </c>
     </row>
     <row r="407">
@@ -8182,10 +8182,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D408" t="n">
-        <v>0.0004558379587251693</v>
+        <v>0.0004558379878289998</v>
       </c>
       <c r="E408" t="n">
-        <v>0.01654040027238863</v>
+        <v>0.01654040028694054</v>
       </c>
     </row>
     <row r="409">
@@ -8201,10 +8201,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0008080496918410063</v>
+        <v>0.0008080497500486672</v>
       </c>
       <c r="E409" t="n">
-        <v>0.01671650613894654</v>
+        <v>0.01671650616805037</v>
       </c>
     </row>
     <row r="410">
@@ -8220,10 +8220,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D410" t="n">
-        <v>0.002188590820878744</v>
+        <v>0.002188591053709388</v>
       </c>
       <c r="E410" t="n">
-        <v>0.01740677670346541</v>
+        <v>0.01740677681988074</v>
       </c>
     </row>
     <row r="411">
@@ -8239,10 +8239,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D411" t="n">
-        <v>0.01469855103641748</v>
+        <v>0.01469855196774006</v>
       </c>
       <c r="E411" t="n">
-        <v>0.02366175681123478</v>
+        <v>0.02366175727689607</v>
       </c>
     </row>
     <row r="412">
@@ -8258,10 +8258,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D412" t="n">
-        <v>0.0005221792962402105</v>
+        <v>0.0005221793544478714</v>
       </c>
       <c r="E412" t="n">
-        <v>0.01657357094114615</v>
+        <v>0.01657357097024998</v>
       </c>
     </row>
     <row r="413">
@@ -8277,10 +8277,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D413" t="n">
-        <v>0.001737539889290929</v>
+        <v>0.001737540005706251</v>
       </c>
       <c r="E413" t="n">
-        <v>0.01718125123767151</v>
+        <v>0.01718125129587917</v>
       </c>
     </row>
     <row r="414">
@@ -8296,10 +8296,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D414" t="n">
-        <v>0.001312729436904192</v>
+        <v>0.001312729553319514</v>
       </c>
       <c r="E414" t="n">
-        <v>0.01696884601147814</v>
+        <v>0.0169688460696858</v>
       </c>
     </row>
     <row r="415">
@@ -8315,10 +8315,10 @@
         <v>0.03262496258605208</v>
       </c>
       <c r="D415" t="n">
-        <v>0.0002077818789985031</v>
+        <v>0.0002077818935504183</v>
       </c>
       <c r="E415" t="n">
-        <v>0.01641637223252529</v>
+        <v>0.01641637223980125</v>
       </c>
     </row>
     <row r="416">
@@ -8334,10 +8334,10 @@
         <v>0.03232565100269381</v>
       </c>
       <c r="D416" t="n">
-        <v>0.00134372292086482</v>
+        <v>0.001343723037280142</v>
       </c>
       <c r="E416" t="n">
-        <v>0.01683468696177931</v>
+        <v>0.01683468701998697</v>
       </c>
     </row>
     <row r="417">
@@ -8353,10 +8353,10 @@
         <v>0.03232565100269381</v>
       </c>
       <c r="D417" t="n">
-        <v>0.0008456864161416888</v>
+        <v>0.0008456864743493497</v>
       </c>
       <c r="E417" t="n">
-        <v>0.01658566870941775</v>
+        <v>0.01658566873852158</v>
       </c>
     </row>
     <row r="418">
@@ -8372,10 +8372,10 @@
         <v>0.03232565100269381</v>
       </c>
       <c r="D418" t="n">
-        <v>0.0004528204153757542</v>
+        <v>0.0004528204444795847</v>
       </c>
       <c r="E418" t="n">
-        <v>0.01638923570903478</v>
+        <v>0.0163892357235867</v>
       </c>
     </row>
     <row r="419">
@@ -8391,10 +8391,10 @@
         <v>0.03232565100269381</v>
       </c>
       <c r="D419" t="n">
-        <v>8.797422924544662e-05</v>
+        <v>8.797423652140424e-05</v>
       </c>
       <c r="E419" t="n">
-        <v>0.01620681261596963</v>
+        <v>0.01620681261960761</v>
       </c>
     </row>
     <row r="420">
@@ -8410,10 +8410,10 @@
         <v>0.03202633941933553</v>
       </c>
       <c r="D420" t="n">
-        <v>0.0004156743234489113</v>
+        <v>0.0004156743525527418</v>
       </c>
       <c r="E420" t="n">
-        <v>0.01622100687139222</v>
+        <v>0.01622100688594413</v>
       </c>
     </row>
     <row r="421">
@@ -8429,10 +8429,10 @@
         <v>0.03202633941933553</v>
       </c>
       <c r="D421" t="n">
-        <v>0.0006961491308175027</v>
+        <v>0.0006961491890251637</v>
       </c>
       <c r="E421" t="n">
-        <v>0.01636124427507651</v>
+        <v>0.01636124430418034</v>
       </c>
     </row>
     <row r="422">
@@ -8448,10 +8448,10 @@
         <v>0.03172702783597725</v>
       </c>
       <c r="D422" t="n">
-        <v>0.0004724095051642507</v>
+        <v>0.0004724095342680812</v>
       </c>
       <c r="E422" t="n">
-        <v>0.01609971867057075</v>
+        <v>0.01609971868512267</v>
       </c>
     </row>
     <row r="423">
@@ -8467,10 +8467,10 @@
         <v>0.03172702783597725</v>
       </c>
       <c r="D423" t="n">
-        <v>0.0001924336538650095</v>
+        <v>0.0001924336684169248</v>
       </c>
       <c r="E423" t="n">
-        <v>0.01595973074492113</v>
+        <v>0.01595973075219709</v>
       </c>
     </row>
     <row r="424">
@@ -8486,10 +8486,10 @@
         <v>0.03172702783597725</v>
       </c>
       <c r="D424" t="n">
-        <v>0.0005385125405155122</v>
+        <v>0.0005385125987231731</v>
       </c>
       <c r="E424" t="n">
-        <v>0.01613277018824638</v>
+        <v>0.01613277021735021</v>
       </c>
     </row>
     <row r="425">
@@ -8505,10 +8505,10 @@
         <v>0.03142771625261898</v>
       </c>
       <c r="D425" t="n">
-        <v>0.00153339421376586</v>
+        <v>0.001533394330181181</v>
       </c>
       <c r="E425" t="n">
-        <v>0.01648055523319242</v>
+        <v>0.01648055529140008</v>
       </c>
     </row>
     <row r="426">
@@ -8524,10 +8524,10 @@
         <v>0.03142771625261898</v>
       </c>
       <c r="D426" t="n">
-        <v>0.001546540996059775</v>
+        <v>0.001546541112475097</v>
       </c>
       <c r="E426" t="n">
-        <v>0.01648712862433938</v>
+        <v>0.01648712868254704</v>
       </c>
     </row>
     <row r="427">
@@ -8543,10 +8543,10 @@
         <v>0.03142771625261898</v>
       </c>
       <c r="D427" t="n">
-        <v>0.0003589369589462876</v>
+        <v>0.0003589369880501181</v>
       </c>
       <c r="E427" t="n">
-        <v>0.01589332660578263</v>
+        <v>0.01589332662033455</v>
       </c>
     </row>
     <row r="428">
@@ -8562,10 +8562,10 @@
         <v>0.03142771625261898</v>
       </c>
       <c r="D428" t="n">
-        <v>0.000824302842374891</v>
+        <v>0.000824302900582552</v>
       </c>
       <c r="E428" t="n">
-        <v>0.01612600954749693</v>
+        <v>0.01612600957660076</v>
       </c>
     </row>
     <row r="429">
@@ -8581,10 +8581,10 @@
         <v>0.03142771625261898</v>
       </c>
       <c r="D429" t="n">
-        <v>0.004507007077336311</v>
+        <v>0.004507007542997599</v>
       </c>
       <c r="E429" t="n">
-        <v>0.01796736166497764</v>
+        <v>0.01796736189780829</v>
       </c>
     </row>
     <row r="430">
@@ -8600,10 +8600,10 @@
         <v>0.0311284046692607</v>
       </c>
       <c r="D430" t="n">
-        <v>0.000107162217318546</v>
+        <v>0.0001071622245945036</v>
       </c>
       <c r="E430" t="n">
-        <v>0.01561778344328962</v>
+        <v>0.0156177834469276</v>
       </c>
     </row>
     <row r="431">
@@ -8619,10 +8619,10 @@
         <v>0.0311284046692607</v>
       </c>
       <c r="D431" t="n">
-        <v>0.0003628854756243527</v>
+        <v>0.0003628855047281832</v>
       </c>
       <c r="E431" t="n">
-        <v>0.01574564507244253</v>
+        <v>0.01574564508699444</v>
       </c>
     </row>
     <row r="432">
@@ -8638,10 +8638,10 @@
         <v>0.0311284046692607</v>
       </c>
       <c r="D432" t="n">
-        <v>0.001397903077304363</v>
+        <v>0.001397903193719685</v>
       </c>
       <c r="E432" t="n">
-        <v>0.01626315387328253</v>
+        <v>0.01626315393149019</v>
       </c>
     </row>
     <row r="433">
@@ -8657,10 +8657,10 @@
         <v>0.0311284046692607</v>
       </c>
       <c r="D433" t="n">
-        <v>0.0001994995400309563</v>
+        <v>0.0001994995545828715</v>
       </c>
       <c r="E433" t="n">
-        <v>0.01566395210464583</v>
+        <v>0.01566395211192179</v>
       </c>
     </row>
     <row r="434">
@@ -8714,10 +8714,10 @@
         <v>0.03052978150254415</v>
       </c>
       <c r="D436" t="n">
-        <v>0.0004148344160057604</v>
+        <v>0.0004148344451095909</v>
       </c>
       <c r="E436" t="n">
-        <v>0.01547230795927495</v>
+        <v>0.01547230797382687</v>
       </c>
     </row>
     <row r="437">
@@ -8733,10 +8733,10 @@
         <v>0.03052978150254415</v>
       </c>
       <c r="D437" t="n">
-        <v>0.001102443435229361</v>
+        <v>0.001102443551644683</v>
       </c>
       <c r="E437" t="n">
-        <v>0.01581611246888676</v>
+        <v>0.01581611252709442</v>
       </c>
     </row>
     <row r="438">
@@ -8752,10 +8752,10 @@
         <v>0.03023046991918587</v>
       </c>
       <c r="D438" t="n">
-        <v>0.0001132407996919937</v>
+        <v>0.0001132408069679514</v>
       </c>
       <c r="E438" t="n">
-        <v>0.01517185535943893</v>
+        <v>0.01517185536307691</v>
       </c>
     </row>
     <row r="439">
@@ -8771,10 +8771,10 @@
         <v>0.03023046991918587</v>
       </c>
       <c r="D439" t="n">
-        <v>0.002618916798382998</v>
+        <v>0.002618917031213641</v>
       </c>
       <c r="E439" t="n">
-        <v>0.01642469335878444</v>
+        <v>0.01642469347519976</v>
       </c>
     </row>
     <row r="440">
@@ -8790,10 +8790,10 @@
         <v>0.03023046991918587</v>
       </c>
       <c r="D440" t="n">
-        <v>0.002150075510144234</v>
+        <v>0.002150075742974877</v>
       </c>
       <c r="E440" t="n">
-        <v>0.01619027271466505</v>
+        <v>0.01619027283108038</v>
       </c>
     </row>
     <row r="441">
@@ -8809,10 +8809,10 @@
         <v>0.03023046991918587</v>
       </c>
       <c r="D441" t="n">
-        <v>0.0004199922841507941</v>
+        <v>0.0004199923132546246</v>
       </c>
       <c r="E441" t="n">
-        <v>0.01532523110166833</v>
+        <v>0.01532523111622025</v>
       </c>
     </row>
     <row r="442">
@@ -8828,10 +8828,10 @@
         <v>0.03023046991918587</v>
       </c>
       <c r="D442" t="n">
-        <v>0.0001831784029491246</v>
+        <v>0.0001831784175010398</v>
       </c>
       <c r="E442" t="n">
-        <v>0.0152068241610675</v>
+        <v>0.01520682416834346</v>
       </c>
     </row>
     <row r="443">
@@ -8847,10 +8847,10 @@
         <v>0.0299311583358276</v>
       </c>
       <c r="D443" t="n">
-        <v>0.0009833339136093855</v>
+        <v>0.0009833340300247073</v>
       </c>
       <c r="E443" t="n">
-        <v>0.01545724612471849</v>
+        <v>0.01545724618292615</v>
       </c>
     </row>
     <row r="444">
@@ -8866,10 +8866,10 @@
         <v>0.0299311583358276</v>
       </c>
       <c r="D444" t="n">
-        <v>0.0004572234465740621</v>
+        <v>0.0004572234756778926</v>
       </c>
       <c r="E444" t="n">
-        <v>0.01519419089120083</v>
+        <v>0.01519419090575275</v>
       </c>
     </row>
     <row r="445">
@@ -8885,10 +8885,10 @@
         <v>0.0299311583358276</v>
       </c>
       <c r="D445" t="n">
-        <v>0.0001794595300452784</v>
+        <v>0.0001794595445971936</v>
       </c>
       <c r="E445" t="n">
-        <v>0.01505530893293644</v>
+        <v>0.0150553089402124</v>
       </c>
     </row>
     <row r="446">
@@ -8923,10 +8923,10 @@
         <v>0.0299311583358276</v>
       </c>
       <c r="D447" t="n">
-        <v>0.000529558805283159</v>
+        <v>0.0005295588634908199</v>
       </c>
       <c r="E447" t="n">
-        <v>0.01523035857055538</v>
+        <v>0.01523035859965921</v>
       </c>
     </row>
     <row r="448">
@@ -8942,10 +8942,10 @@
         <v>0.02963184675246932</v>
       </c>
       <c r="D448" t="n">
-        <v>0.0003344381402712315</v>
+        <v>0.000334438169375062</v>
       </c>
       <c r="E448" t="n">
-        <v>0.01498314244637028</v>
+        <v>0.01498314246092219</v>
       </c>
     </row>
     <row r="449">
@@ -8961,10 +8961,10 @@
         <v>0.02963184675246932</v>
       </c>
       <c r="D449" t="n">
-        <v>0.0002190061204601079</v>
+        <v>0.0002190061350120232</v>
       </c>
       <c r="E449" t="n">
-        <v>0.01492542643646471</v>
+        <v>0.01492542644374067</v>
       </c>
     </row>
     <row r="450">
@@ -8980,10 +8980,10 @@
         <v>0.02963184675246932</v>
       </c>
       <c r="D450" t="n">
-        <v>0.0009586822125129402</v>
+        <v>0.0009586822707206011</v>
       </c>
       <c r="E450" t="n">
-        <v>0.01529526448249113</v>
+        <v>0.01529526451159496</v>
       </c>
     </row>
     <row r="451">
@@ -8999,10 +8999,10 @@
         <v>0.02903322358575277</v>
       </c>
       <c r="D451" t="n">
-        <v>0.001098764827474952</v>
+        <v>0.001098764943890274</v>
       </c>
       <c r="E451" t="n">
-        <v>0.01506599420661386</v>
+        <v>0.01506599426482152</v>
       </c>
     </row>
     <row r="452">
@@ -9018,10 +9018,10 @@
         <v>0.02903322358575277</v>
       </c>
       <c r="D452" t="n">
-        <v>0.0002507788594812155</v>
+        <v>0.0002507788885850459</v>
       </c>
       <c r="E452" t="n">
-        <v>0.01464200122261699</v>
+        <v>0.01464200123716891</v>
       </c>
     </row>
     <row r="453">
@@ -9037,10 +9037,10 @@
         <v>0.02903322358575277</v>
       </c>
       <c r="D453" t="n">
-        <v>0.0005580143770202994</v>
+        <v>0.0005580144352279603</v>
       </c>
       <c r="E453" t="n">
-        <v>0.01479561898138653</v>
+        <v>0.01479561901049036</v>
       </c>
     </row>
     <row r="454">
@@ -9056,10 +9056,10 @@
         <v>0.02903322358575277</v>
       </c>
       <c r="D454" t="n">
-        <v>0.0002308739494765177</v>
+        <v>0.0002308739785803482</v>
       </c>
       <c r="E454" t="n">
-        <v>0.01463204876761464</v>
+        <v>0.01463204878216656</v>
       </c>
     </row>
     <row r="455">
@@ -9075,10 +9075,10 @@
         <v>0.02903322358575277</v>
       </c>
       <c r="D455" t="n">
-        <v>0.0003318646049592644</v>
+        <v>0.0003318646340630949</v>
       </c>
       <c r="E455" t="n">
-        <v>0.01468254409535602</v>
+        <v>0.01468254410990793</v>
       </c>
     </row>
     <row r="456">
@@ -9113,10 +9113,10 @@
         <v>0.02903322358575277</v>
       </c>
       <c r="D457" t="n">
-        <v>0.0001726774498820305</v>
+        <v>0.0001726774644339457</v>
       </c>
       <c r="E457" t="n">
-        <v>0.0146029505178174</v>
+        <v>0.01460295052509336</v>
       </c>
     </row>
     <row r="458">
@@ -9132,10 +9132,10 @@
         <v>0.02873391200239449</v>
       </c>
       <c r="D458" t="n">
-        <v>0.0009079617448151112</v>
+        <v>0.0009079618030227721</v>
       </c>
       <c r="E458" t="n">
-        <v>0.0148209368736048</v>
+        <v>0.01482093690270863</v>
       </c>
     </row>
     <row r="459">
@@ -9151,10 +9151,10 @@
         <v>0.02873391200239449</v>
       </c>
       <c r="D459" t="n">
-        <v>0.0005230181850492954</v>
+        <v>0.0005230182432569563</v>
       </c>
       <c r="E459" t="n">
-        <v>0.01462846509372189</v>
+        <v>0.01462846512282572</v>
       </c>
     </row>
     <row r="460">
@@ -9170,10 +9170,10 @@
         <v>0.02873391200239449</v>
       </c>
       <c r="D460" t="n">
-        <v>0.000571211043279618</v>
+        <v>0.0005712111014872789</v>
       </c>
       <c r="E460" t="n">
-        <v>0.01465256152283705</v>
+        <v>0.01465256155194089</v>
       </c>
     </row>
     <row r="461">
@@ -9208,10 +9208,10 @@
         <v>0.02843460041903622</v>
       </c>
       <c r="D462" t="n">
-        <v>0.001674227532930672</v>
+        <v>0.001674227649345994</v>
       </c>
       <c r="E462" t="n">
-        <v>0.01505441397598344</v>
+        <v>0.01505441403419111</v>
       </c>
     </row>
     <row r="463">
@@ -9227,10 +9227,10 @@
         <v>0.02843460041903622</v>
       </c>
       <c r="D463" t="n">
-        <v>0.002045493805781007</v>
+        <v>0.00204549403861165</v>
       </c>
       <c r="E463" t="n">
-        <v>0.01524004711240861</v>
+        <v>0.01524004722882393</v>
       </c>
     </row>
     <row r="464">
@@ -9246,10 +9246,10 @@
         <v>0.02813528883567794</v>
       </c>
       <c r="D464" t="n">
-        <v>0.0002929184411186725</v>
+        <v>0.0002929184702225029</v>
       </c>
       <c r="E464" t="n">
-        <v>0.01421410363839831</v>
+        <v>0.01421410365295022</v>
       </c>
     </row>
     <row r="465">
@@ -9265,10 +9265,10 @@
         <v>0.02813528883567794</v>
       </c>
       <c r="D465" t="n">
-        <v>0.0003449215437285602</v>
+        <v>0.0003449215728323907</v>
       </c>
       <c r="E465" t="n">
-        <v>0.01424010518970325</v>
+        <v>0.01424010520425517</v>
       </c>
     </row>
     <row r="466">
@@ -9284,10 +9284,10 @@
         <v>0.02813528883567794</v>
       </c>
       <c r="D466" t="n">
-        <v>7.171682955231518e-05</v>
+        <v>7.171683682827279e-05</v>
       </c>
       <c r="E466" t="n">
-        <v>0.01410350283261513</v>
+        <v>0.01410350283625311</v>
       </c>
     </row>
     <row r="467">
@@ -9303,10 +9303,10 @@
         <v>0.02813528883567794</v>
       </c>
       <c r="D467" t="n">
-        <v>0.0004264035960659385</v>
+        <v>0.0004264036542735994</v>
       </c>
       <c r="E467" t="n">
-        <v>0.01428084621587194</v>
+        <v>0.01428084624497577</v>
       </c>
     </row>
     <row r="468">
@@ -9322,10 +9322,10 @@
         <v>0.02783597725231967</v>
       </c>
       <c r="D468" t="n">
-        <v>0.000156215945025906</v>
+        <v>0.0001562159595778212</v>
       </c>
       <c r="E468" t="n">
-        <v>0.01399609659867279</v>
+        <v>0.01399609660594874</v>
       </c>
     </row>
     <row r="469">
@@ -9341,10 +9341,10 @@
         <v>0.02753666566896139</v>
       </c>
       <c r="D469" t="n">
-        <v>0.001624517375603318</v>
+        <v>0.00162451749201864</v>
       </c>
       <c r="E469" t="n">
-        <v>0.01458059152228235</v>
+        <v>0.01458059158049001</v>
       </c>
     </row>
     <row r="470">
@@ -9360,10 +9360,10 @@
         <v>0.02753666566896139</v>
       </c>
       <c r="D470" t="n">
-        <v>0.0001059950664057396</v>
+        <v>0.0001059950809576549</v>
       </c>
       <c r="E470" t="n">
-        <v>0.01382133036768356</v>
+        <v>0.01382133037495952</v>
       </c>
     </row>
     <row r="471">
@@ -9379,10 +9379,10 @@
         <v>0.02723735408560311</v>
       </c>
       <c r="D471" t="n">
-        <v>0.0008819718495942652</v>
+        <v>0.0008819719078019261</v>
       </c>
       <c r="E471" t="n">
-        <v>0.01405966296759869</v>
+        <v>0.01405966299670252</v>
       </c>
     </row>
     <row r="472">
@@ -9398,10 +9398,10 @@
         <v>0.02723735408560311</v>
       </c>
       <c r="D472" t="n">
-        <v>0.002604695968329906</v>
+        <v>0.00260469620116055</v>
       </c>
       <c r="E472" t="n">
-        <v>0.01492102502696651</v>
+        <v>0.01492102514338183</v>
       </c>
     </row>
     <row r="473">
@@ -9436,10 +9436,10 @@
         <v>0.02723735408560311</v>
       </c>
       <c r="D474" t="n">
-        <v>0.001834216411225498</v>
+        <v>0.00183421652764082</v>
       </c>
       <c r="E474" t="n">
-        <v>0.01453578524841431</v>
+        <v>0.01453578530662197</v>
       </c>
     </row>
     <row r="475">
@@ -9455,10 +9455,10 @@
         <v>0.02723735408560311</v>
       </c>
       <c r="D475" t="n">
-        <v>0.0004046950780320913</v>
+        <v>0.0004046951071359217</v>
       </c>
       <c r="E475" t="n">
-        <v>0.0138210245818176</v>
+        <v>0.01382102459636952</v>
       </c>
     </row>
     <row r="476">
@@ -9474,10 +9474,10 @@
         <v>0.02693804250224484</v>
       </c>
       <c r="D476" t="n">
-        <v>8.246050856541842e-05</v>
+        <v>8.246051584137604e-05</v>
       </c>
       <c r="E476" t="n">
-        <v>0.01351025150540513</v>
+        <v>0.01351025150904311</v>
       </c>
     </row>
     <row r="477">
@@ -9493,10 +9493,10 @@
         <v>0.02693804250224484</v>
       </c>
       <c r="D477" t="n">
-        <v>0.0002566429611761123</v>
+        <v>0.0002566429902799428</v>
       </c>
       <c r="E477" t="n">
-        <v>0.01359734273171048</v>
+        <v>0.01359734274626239</v>
       </c>
     </row>
     <row r="478">
@@ -9512,10 +9512,10 @@
         <v>0.02693804250224484</v>
       </c>
       <c r="D478" t="n">
-        <v>0.0002090486814267933</v>
+        <v>0.0002090486959787086</v>
       </c>
       <c r="E478" t="n">
-        <v>0.01357354559183582</v>
+        <v>0.01357354559911177</v>
       </c>
     </row>
     <row r="479">
@@ -9550,10 +9550,10 @@
         <v>0.02633941933552829</v>
       </c>
       <c r="D480" t="n">
-        <v>0.0006650051800534129</v>
+        <v>0.0006650052382610738</v>
       </c>
       <c r="E480" t="n">
-        <v>0.01350221225779085</v>
+        <v>0.01350221228689468</v>
       </c>
     </row>
     <row r="481">
@@ -9569,10 +9569,10 @@
         <v>0.02633941933552829</v>
       </c>
       <c r="D481" t="n">
-        <v>0.0001825467625167221</v>
+        <v>0.0001825467770686373</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0132609830490225</v>
+        <v>0.01326098305629846</v>
       </c>
     </row>
     <row r="482">
@@ -9588,10 +9588,10 @@
         <v>0.02633941933552829</v>
       </c>
       <c r="D482" t="n">
-        <v>0.0001893553417176008</v>
+        <v>0.0001893553562695161</v>
       </c>
       <c r="E482" t="n">
-        <v>0.01326438733862294</v>
+        <v>0.0132643873458989</v>
       </c>
     </row>
     <row r="483">
@@ -9607,10 +9607,10 @@
         <v>0.02633941933552829</v>
       </c>
       <c r="D483" t="n">
-        <v>0.0004712137160822749</v>
+        <v>0.0004712137451861054</v>
       </c>
       <c r="E483" t="n">
-        <v>0.01340531652580528</v>
+        <v>0.0134053165403572</v>
       </c>
     </row>
     <row r="484">
@@ -9626,10 +9626,10 @@
         <v>0.02604010775217001</v>
       </c>
       <c r="D484" t="n">
-        <v>0.0001808977540349588</v>
+        <v>0.000180897768586874</v>
       </c>
       <c r="E484" t="n">
-        <v>0.01311050275310248</v>
+        <v>0.01311050276037844</v>
       </c>
     </row>
     <row r="485">
@@ -9645,10 +9645,10 @@
         <v>0.02574079616881173</v>
       </c>
       <c r="D485" t="n">
-        <v>0.0001936906628543511</v>
+        <v>0.0001936906774062663</v>
       </c>
       <c r="E485" t="n">
-        <v>0.01296724341583304</v>
+        <v>0.012967243423109</v>
       </c>
     </row>
     <row r="486">
@@ -9664,10 +9664,10 @@
         <v>0.02574079616881173</v>
       </c>
       <c r="D486" t="n">
-        <v>0.0002255629078717902</v>
+        <v>0.0002255629224237055</v>
       </c>
       <c r="E486" t="n">
-        <v>0.01298317953834176</v>
+        <v>0.01298317954561772</v>
       </c>
     </row>
     <row r="487">
@@ -9683,10 +9683,10 @@
         <v>0.02574079616881173</v>
       </c>
       <c r="D487" t="n">
-        <v>0.0001370692189084366</v>
+        <v>0.0001370692334603518</v>
       </c>
       <c r="E487" t="n">
-        <v>0.01293893269386008</v>
+        <v>0.01293893270113604</v>
       </c>
     </row>
     <row r="488">
@@ -9702,10 +9702,10 @@
         <v>0.02574079616881173</v>
       </c>
       <c r="D488" t="n">
-        <v>4.133082620683126e-05</v>
+        <v>4.133082984481007e-05</v>
       </c>
       <c r="E488" t="n">
-        <v>0.01289106349750928</v>
+        <v>0.01289106349932827</v>
       </c>
     </row>
     <row r="489">
@@ -9721,10 +9721,10 @@
         <v>0.02574079616881173</v>
       </c>
       <c r="D489" t="n">
-        <v>0.003275885246694088</v>
+        <v>0.003275885479524732</v>
       </c>
       <c r="E489" t="n">
-        <v>0.01450834070775291</v>
+        <v>0.01450834082416823</v>
       </c>
     </row>
     <row r="490">
@@ -9740,10 +9740,10 @@
         <v>0.02544148458545346</v>
       </c>
       <c r="D490" t="n">
-        <v>0.0003114758583251387</v>
+        <v>0.0003114758874289691</v>
       </c>
       <c r="E490" t="n">
-        <v>0.0128764802218893</v>
+        <v>0.01287648023644121</v>
       </c>
     </row>
     <row r="491">
@@ -9797,10 +9797,10 @@
         <v>0.02544148458545346</v>
       </c>
       <c r="D493" t="n">
-        <v>0.0008511761552654207</v>
+        <v>0.0008511762134730816</v>
       </c>
       <c r="E493" t="n">
-        <v>0.01314633037035944</v>
+        <v>0.01314633039946327</v>
       </c>
     </row>
     <row r="494">
@@ -9816,10 +9816,10 @@
         <v>0.02514217300209518</v>
       </c>
       <c r="D494" t="n">
-        <v>0.0002758998016361147</v>
+        <v>0.0002758998307399452</v>
       </c>
       <c r="E494" t="n">
-        <v>0.01270903640186565</v>
+        <v>0.01270903641641756</v>
       </c>
     </row>
     <row r="495">
@@ -9835,10 +9835,10 @@
         <v>0.02514217300209518</v>
       </c>
       <c r="D495" t="n">
-        <v>9.337413212051615e-05</v>
+        <v>9.337413939647377e-05</v>
       </c>
       <c r="E495" t="n">
-        <v>0.01261777356710785</v>
+        <v>0.01261777357074583</v>
       </c>
     </row>
     <row r="496">
@@ -9854,10 +9854,10 @@
         <v>0.02514217300209518</v>
       </c>
       <c r="D496" t="n">
-        <v>8.461665129289031e-05</v>
+        <v>8.461665856884792e-05</v>
       </c>
       <c r="E496" t="n">
-        <v>0.01261339482669404</v>
+        <v>0.01261339483033201</v>
       </c>
     </row>
     <row r="497">
@@ -9873,10 +9873,10 @@
         <v>0.02514217300209518</v>
       </c>
       <c r="D497" t="n">
-        <v>0.002115160226821899</v>
+        <v>0.002115160459652543</v>
       </c>
       <c r="E497" t="n">
-        <v>0.01362866661445854</v>
+        <v>0.01362866673087386</v>
       </c>
     </row>
     <row r="498">
@@ -9892,10 +9892,10 @@
         <v>0.02514217300209518</v>
       </c>
       <c r="D498" t="n">
-        <v>0.0005717816529795527</v>
+        <v>0.0005717817111872137</v>
       </c>
       <c r="E498" t="n">
-        <v>0.01285697732753737</v>
+        <v>0.0128569773566412</v>
       </c>
     </row>
     <row r="499">
@@ -9911,10 +9911,10 @@
         <v>0.02514217300209518</v>
       </c>
       <c r="D499" t="n">
-        <v>0.0003255147312302142</v>
+        <v>0.0003255147603340447</v>
       </c>
       <c r="E499" t="n">
-        <v>0.0127338438666627</v>
+        <v>0.01273384388121461</v>
       </c>
     </row>
     <row r="500">
@@ -9949,10 +9949,10 @@
         <v>0.0248428614187369</v>
       </c>
       <c r="D501" t="n">
-        <v>0.000127225837786682</v>
+        <v>0.0001272258523385972</v>
       </c>
       <c r="E501" t="n">
-        <v>0.01248504362826179</v>
+        <v>0.01248504363553775</v>
       </c>
     </row>
     <row r="502">
@@ -9968,10 +9968,10 @@
         <v>0.0248428614187369</v>
       </c>
       <c r="D502" t="n">
-        <v>0.0001417546445736662</v>
+        <v>0.0001417546591255814</v>
       </c>
       <c r="E502" t="n">
-        <v>0.01249230803165528</v>
+        <v>0.01249230803893124</v>
       </c>
     </row>
     <row r="503">
@@ -9987,10 +9987,10 @@
         <v>0.02454354983537863</v>
       </c>
       <c r="D503" t="n">
-        <v>0.0004364442720543593</v>
+        <v>0.0004364443011581898</v>
       </c>
       <c r="E503" t="n">
-        <v>0.01248999705371649</v>
+        <v>0.01248999706826841</v>
       </c>
     </row>
     <row r="504">
@@ -10025,10 +10025,10 @@
         <v>0.02454354983537863</v>
       </c>
       <c r="D505" t="n">
-        <v>0.005317360628396273</v>
+        <v>0.00531736109405756</v>
       </c>
       <c r="E505" t="n">
-        <v>0.01493045523188745</v>
+        <v>0.01493045546471809</v>
       </c>
     </row>
     <row r="506">
@@ -10044,10 +10044,10 @@
         <v>0.02454354983537863</v>
       </c>
       <c r="D506" t="n">
-        <v>0.0001240033307112753</v>
+        <v>0.0001240033452631906</v>
       </c>
       <c r="E506" t="n">
-        <v>0.01233377658304495</v>
+        <v>0.01233377659032091</v>
       </c>
     </row>
     <row r="507">
@@ -10082,10 +10082,10 @@
         <v>0.02454354983537863</v>
       </c>
       <c r="D508" t="n">
-        <v>0.000305266585201025</v>
+        <v>0.0003052666143048555</v>
       </c>
       <c r="E508" t="n">
-        <v>0.01242440821028983</v>
+        <v>0.01242440822484174</v>
       </c>
     </row>
     <row r="509">
@@ -10101,10 +10101,10 @@
         <v>0.02454354983537863</v>
       </c>
       <c r="D509" t="n">
-        <v>8.974632510216907e-05</v>
+        <v>8.974633237812668e-05</v>
       </c>
       <c r="E509" t="n">
-        <v>0.0123166480802404</v>
+        <v>0.01231664808387838</v>
       </c>
     </row>
     <row r="510">
@@ -10120,10 +10120,10 @@
         <v>0.02424423825202035</v>
       </c>
       <c r="D510" t="n">
-        <v>9.976961882784963e-05</v>
+        <v>9.976962610380724e-05</v>
       </c>
       <c r="E510" t="n">
-        <v>0.0121720039354241</v>
+        <v>0.01217200393906208</v>
       </c>
     </row>
     <row r="511">
@@ -10158,10 +10158,10 @@
         <v>0.02424423825202035</v>
       </c>
       <c r="D512" t="n">
-        <v>0.0004271598008926958</v>
+        <v>0.0004271598299965262</v>
       </c>
       <c r="E512" t="n">
-        <v>0.01233569902645652</v>
+        <v>0.01233569904100844</v>
       </c>
     </row>
     <row r="513">
@@ -10177,10 +10177,10 @@
         <v>0.02424423825202035</v>
       </c>
       <c r="D513" t="n">
-        <v>0.0005304525839164853</v>
+        <v>0.0005304526421241462</v>
       </c>
       <c r="E513" t="n">
-        <v>0.01238734541796842</v>
+        <v>0.01238734544707225</v>
       </c>
     </row>
     <row r="514">
@@ -10196,10 +10196,10 @@
         <v>0.02394492666866208</v>
       </c>
       <c r="D514" t="n">
-        <v>0.001163942040875554</v>
+        <v>0.001163942157290876</v>
       </c>
       <c r="E514" t="n">
-        <v>0.01255443435476882</v>
+        <v>0.01255443441297648</v>
       </c>
     </row>
     <row r="515">
@@ -10215,10 +10215,10 @@
         <v>0.02394492666866208</v>
       </c>
       <c r="D515" t="n">
-        <v>0.0001454257871955633</v>
+        <v>0.0001454258017474785</v>
       </c>
       <c r="E515" t="n">
-        <v>0.01204517622792882</v>
+        <v>0.01204517623520478</v>
       </c>
     </row>
     <row r="516">
@@ -10234,10 +10234,10 @@
         <v>0.02394492666866208</v>
       </c>
       <c r="D516" t="n">
-        <v>0.0001939819339895621</v>
+        <v>0.0001939819485414773</v>
       </c>
       <c r="E516" t="n">
-        <v>0.01206945430132582</v>
+        <v>0.01206945430860178</v>
       </c>
     </row>
     <row r="517">
@@ -10253,10 +10253,10 @@
         <v>0.02394492666866208</v>
       </c>
       <c r="D517" t="n">
-        <v>0.0004355954006314278</v>
+        <v>0.0004355954297352582</v>
       </c>
       <c r="E517" t="n">
-        <v>0.01219026103464675</v>
+        <v>0.01219026104919867</v>
       </c>
     </row>
     <row r="518">
@@ -10272,10 +10272,10 @@
         <v>0.02394492666866208</v>
       </c>
       <c r="D518" t="n">
-        <v>0.0002768670092336833</v>
+        <v>0.0002768670383375138</v>
       </c>
       <c r="E518" t="n">
-        <v>0.01211089683894788</v>
+        <v>0.0121108968534998</v>
       </c>
     </row>
     <row r="519">
@@ -10291,10 +10291,10 @@
         <v>0.02394492666866208</v>
       </c>
       <c r="D519" t="n">
-        <v>0.0003475144621916115</v>
+        <v>0.000347514491295442</v>
       </c>
       <c r="E519" t="n">
-        <v>0.01214622056542685</v>
+        <v>0.01214622057997876</v>
       </c>
     </row>
     <row r="520">
@@ -10310,10 +10310,10 @@
         <v>0.02394492666866208</v>
       </c>
       <c r="D520" t="n">
-        <v>0.003768373979255557</v>
+        <v>0.003768374212086201</v>
       </c>
       <c r="E520" t="n">
-        <v>0.01385665032395882</v>
+        <v>0.01385665044037414</v>
       </c>
     </row>
     <row r="521">
@@ -10329,10 +10329,10 @@
         <v>0.0236456150853038</v>
       </c>
       <c r="D521" t="n">
-        <v>0.00159556744620204</v>
+        <v>0.001595567562617362</v>
       </c>
       <c r="E521" t="n">
-        <v>0.01262059126575292</v>
+        <v>0.01262059132396058</v>
       </c>
     </row>
     <row r="522">
@@ -10367,10 +10367,10 @@
         <v>0.0236456150853038</v>
       </c>
       <c r="D523" t="n">
-        <v>0.000398532283725217</v>
+        <v>0.0003985323128290474</v>
       </c>
       <c r="E523" t="n">
-        <v>0.01202207368451451</v>
+        <v>0.01202207369906642</v>
       </c>
     </row>
     <row r="524">
@@ -10405,10 +10405,10 @@
         <v>0.02334630350194553</v>
       </c>
       <c r="D525" t="n">
-        <v>8.943687134888023e-05</v>
+        <v>8.943687862483785e-05</v>
       </c>
       <c r="E525" t="n">
-        <v>0.0117178701866472</v>
+        <v>0.01171787019028518</v>
       </c>
     </row>
     <row r="526">
@@ -10424,10 +10424,10 @@
         <v>0.02334630350194553</v>
       </c>
       <c r="D526" t="n">
-        <v>0.0003571179404389113</v>
+        <v>0.0003571179695427418</v>
       </c>
       <c r="E526" t="n">
-        <v>0.01185171072119222</v>
+        <v>0.01185171073574413</v>
       </c>
     </row>
     <row r="527">
@@ -10443,10 +10443,10 @@
         <v>0.02334630350194553</v>
       </c>
       <c r="D527" t="n">
-        <v>0.0004586655995808542</v>
+        <v>0.0004586656286846846</v>
       </c>
       <c r="E527" t="n">
-        <v>0.01190248455076319</v>
+        <v>0.01190248456531511</v>
       </c>
     </row>
     <row r="528">
@@ -10462,10 +10462,10 @@
         <v>0.02334630350194553</v>
       </c>
       <c r="D528" t="n">
-        <v>0.0001043861120706424</v>
+        <v>0.0001043861193466</v>
       </c>
       <c r="E528" t="n">
-        <v>0.01172534480700808</v>
+        <v>0.01172534481064606</v>
       </c>
     </row>
     <row r="529">
@@ -10481,10 +10481,10 @@
         <v>0.02334630350194553</v>
       </c>
       <c r="D529" t="n">
-        <v>0.0002142927260138094</v>
+        <v>0.0002142927405657247</v>
       </c>
       <c r="E529" t="n">
-        <v>0.01178029811397967</v>
+        <v>0.01178029812125563</v>
       </c>
     </row>
     <row r="530">
@@ -10500,10 +10500,10 @@
         <v>0.02334630350194553</v>
       </c>
       <c r="D530" t="n">
-        <v>0.0002226480428362265</v>
+        <v>0.0002226480573881418</v>
       </c>
       <c r="E530" t="n">
-        <v>0.01178447577239088</v>
+        <v>0.01178447577966683</v>
       </c>
     </row>
     <row r="531">
@@ -10538,10 +10538,10 @@
         <v>0.02304699191858725</v>
       </c>
       <c r="D532" t="n">
-        <v>0.00524308905005455</v>
+        <v>0.005243089515715837</v>
       </c>
       <c r="E532" t="n">
-        <v>0.0141450404843209</v>
+        <v>0.01414504071715154</v>
       </c>
     </row>
     <row r="533">
@@ -10557,10 +10557,10 @@
         <v>0.02304699191858725</v>
       </c>
       <c r="D533" t="n">
-        <v>0.001894704531878233</v>
+        <v>0.001894704648293555</v>
       </c>
       <c r="E533" t="n">
-        <v>0.01247084822523274</v>
+        <v>0.0124708482834404</v>
       </c>
     </row>
     <row r="534">
@@ -10576,10 +10576,10 @@
         <v>0.02304699191858725</v>
       </c>
       <c r="D534" t="n">
-        <v>0.0007254559895955026</v>
+        <v>0.0007254560478031635</v>
       </c>
       <c r="E534" t="n">
-        <v>0.01188622395409138</v>
+        <v>0.01188622398319521</v>
       </c>
     </row>
     <row r="535">
@@ -10633,10 +10633,10 @@
         <v>0.02274768033522897</v>
       </c>
       <c r="D537" t="n">
-        <v>0.0001544961269246414</v>
+        <v>0.0001544961414765567</v>
       </c>
       <c r="E537" t="n">
-        <v>0.01145108823107681</v>
+        <v>0.01145108823835276</v>
       </c>
     </row>
     <row r="538">
@@ -10652,10 +10652,10 @@
         <v>0.02274768033522897</v>
       </c>
       <c r="D538" t="n">
-        <v>0.0003672011371236295</v>
+        <v>0.0003672011662274599</v>
       </c>
       <c r="E538" t="n">
-        <v>0.0115574407361763</v>
+        <v>0.01155744075072822</v>
       </c>
     </row>
     <row r="539">
@@ -10671,10 +10671,10 @@
         <v>0.02274768033522897</v>
       </c>
       <c r="D539" t="n">
-        <v>0.0001060043578036129</v>
+        <v>0.0001060043650795706</v>
       </c>
       <c r="E539" t="n">
-        <v>0.01142684234651629</v>
+        <v>0.01142684235015427</v>
       </c>
     </row>
     <row r="540">
@@ -10690,10 +10690,10 @@
         <v>0.0224483687518707</v>
       </c>
       <c r="D540" t="n">
-        <v>0.001727405702695251</v>
+        <v>0.001727405819110572</v>
       </c>
       <c r="E540" t="n">
-        <v>0.01208788722728297</v>
+        <v>0.01208788728549063</v>
       </c>
     </row>
     <row r="541">
@@ -10709,10 +10709,10 @@
         <v>0.0224483687518707</v>
       </c>
       <c r="D541" t="n">
-        <v>0.0004757149727083743</v>
+        <v>0.0004757150018122047</v>
       </c>
       <c r="E541" t="n">
-        <v>0.01146204186228954</v>
+        <v>0.01146204187684145</v>
       </c>
     </row>
     <row r="542">
@@ -10728,10 +10728,10 @@
         <v>0.0224483687518707</v>
       </c>
       <c r="D542" t="n">
-        <v>0.0002012343902606517</v>
+        <v>0.0002012344048125669</v>
       </c>
       <c r="E542" t="n">
-        <v>0.01132480157106567</v>
+        <v>0.01132480157834163</v>
       </c>
     </row>
     <row r="543">
@@ -10766,10 +10766,10 @@
         <v>0.02214905716851242</v>
       </c>
       <c r="D544" t="n">
-        <v>0.000548421056009829</v>
+        <v>0.00054842111421749</v>
       </c>
       <c r="E544" t="n">
-        <v>0.01134873911226113</v>
+        <v>0.01134873914136496</v>
       </c>
     </row>
     <row r="545">
@@ -10785,10 +10785,10 @@
         <v>0.02184974558515414</v>
       </c>
       <c r="D545" t="n">
-        <v>0.0003623905940912664</v>
+        <v>0.0003623906231950969</v>
       </c>
       <c r="E545" t="n">
-        <v>0.01110606808962271</v>
+        <v>0.01110606810417462</v>
       </c>
     </row>
     <row r="546">
@@ -10823,10 +10823,10 @@
         <v>0.02155043400179587</v>
       </c>
       <c r="D547" t="n">
-        <v>0.0002236908912891522</v>
+        <v>0.0002236909058410674</v>
       </c>
       <c r="E547" t="n">
-        <v>0.01088706244654251</v>
+        <v>0.01088706245381847</v>
       </c>
     </row>
     <row r="548">
@@ -10842,10 +10842,10 @@
         <v>0.02155043400179587</v>
       </c>
       <c r="D548" t="n">
-        <v>0.0003727076691575348</v>
+        <v>0.0003727076982613653</v>
       </c>
       <c r="E548" t="n">
-        <v>0.0109615708354767</v>
+        <v>0.01096157085002862</v>
       </c>
     </row>
     <row r="549">
@@ -10861,10 +10861,10 @@
         <v>0.02155043400179587</v>
       </c>
       <c r="D549" t="n">
-        <v>0.0001711449585855007</v>
+        <v>0.0001711449731374159</v>
       </c>
       <c r="E549" t="n">
-        <v>0.01086078948019068</v>
+        <v>0.01086078948746664</v>
       </c>
     </row>
     <row r="550">
@@ -10880,10 +10880,10 @@
         <v>0.02155043400179587</v>
       </c>
       <c r="D550" t="n">
-        <v>0.0001849778345786035</v>
+        <v>0.0001849778491305187</v>
       </c>
       <c r="E550" t="n">
-        <v>0.01086770591818724</v>
+        <v>0.01086770592546319</v>
       </c>
     </row>
     <row r="551">
@@ -10918,10 +10918,10 @@
         <v>0.02125112241843759</v>
       </c>
       <c r="D552" t="n">
-        <v>0.0004195313958916813</v>
+        <v>0.0004195314249955118</v>
       </c>
       <c r="E552" t="n">
-        <v>0.01083532690716464</v>
+        <v>0.01083532692171655</v>
       </c>
     </row>
     <row r="553">
@@ -10937,10 +10937,10 @@
         <v>0.02125112241843759</v>
       </c>
       <c r="D553" t="n">
-        <v>8.174125832738355e-05</v>
+        <v>8.174126560334116e-05</v>
       </c>
       <c r="E553" t="n">
-        <v>0.01066643183838249</v>
+        <v>0.01066643184202047</v>
       </c>
     </row>
     <row r="554">
@@ -10956,10 +10956,10 @@
         <v>0.02125112241843759</v>
       </c>
       <c r="D554" t="n">
-        <v>0.0009306900319643319</v>
+        <v>0.0009306900901719928</v>
       </c>
       <c r="E554" t="n">
-        <v>0.01109090622520096</v>
+        <v>0.01109090625430479</v>
       </c>
     </row>
     <row r="555">
@@ -10994,10 +10994,10 @@
         <v>0.02095181083507932</v>
       </c>
       <c r="D556" t="n">
-        <v>0.0001687204639893025</v>
+        <v>0.0001687204785412177</v>
       </c>
       <c r="E556" t="n">
-        <v>0.01056026564953431</v>
+        <v>0.01056026565681027</v>
       </c>
     </row>
     <row r="557">
@@ -11013,10 +11013,10 @@
         <v>0.02095181083507932</v>
       </c>
       <c r="D557" t="n">
-        <v>0.0001623498246772215</v>
+        <v>0.0001623498392291367</v>
       </c>
       <c r="E557" t="n">
-        <v>0.01055708032987827</v>
+        <v>0.01055708033715423</v>
       </c>
     </row>
     <row r="558">
@@ -11032,10 +11032,10 @@
         <v>0.02095181083507932</v>
       </c>
       <c r="D558" t="n">
-        <v>0.0001572105829836801</v>
+        <v>0.0001572105975355953</v>
       </c>
       <c r="E558" t="n">
-        <v>0.0105545107090315</v>
+        <v>0.01055451071630746</v>
       </c>
     </row>
     <row r="559">
@@ -11051,10 +11051,10 @@
         <v>0.02065249925172104</v>
       </c>
       <c r="D559" t="n">
-        <v>0.002959028817713261</v>
+        <v>0.002959029050543904</v>
       </c>
       <c r="E559" t="n">
-        <v>0.01180576403471715</v>
+        <v>0.01180576415113247</v>
       </c>
     </row>
     <row r="560">
@@ -11070,10 +11070,10 @@
         <v>0.02065249925172104</v>
       </c>
       <c r="D560" t="n">
-        <v>0.0001099975779652596</v>
+        <v>0.0001099975852412172</v>
       </c>
       <c r="E560" t="n">
-        <v>0.01038124841484315</v>
+        <v>0.01038124841848113</v>
       </c>
     </row>
     <row r="561">
@@ -11108,10 +11108,10 @@
         <v>0.02065249925172104</v>
       </c>
       <c r="D562" t="n">
-        <v>0.0001915209431899711</v>
+        <v>0.0001915209577418864</v>
       </c>
       <c r="E562" t="n">
-        <v>0.01042201009745551</v>
+        <v>0.01042201010473146</v>
       </c>
     </row>
     <row r="563">
@@ -11127,10 +11127,10 @@
         <v>0.02035318766836277</v>
       </c>
       <c r="D563" t="n">
-        <v>0.00015577046724502</v>
+        <v>0.0001557704817969352</v>
       </c>
       <c r="E563" t="n">
-        <v>0.01025447906780389</v>
+        <v>0.01025447907507985</v>
       </c>
     </row>
     <row r="564">
@@ -11184,10 +11184,10 @@
         <v>0.02035318766836277</v>
       </c>
       <c r="D566" t="n">
-        <v>0.0002633304393384606</v>
+        <v>0.000263330468442291</v>
       </c>
       <c r="E566" t="n">
-        <v>0.01030825905385061</v>
+        <v>0.01030825906840253</v>
       </c>
     </row>
     <row r="567">
@@ -11203,10 +11203,10 @@
         <v>0.02005387608500449</v>
       </c>
       <c r="D567" t="n">
-        <v>0.0007765222690068185</v>
+        <v>0.0007765223272144794</v>
       </c>
       <c r="E567" t="n">
-        <v>0.01041519917700565</v>
+        <v>0.01041519920610949</v>
       </c>
     </row>
     <row r="568">
@@ -11222,10 +11222,10 @@
         <v>0.02005387608500449</v>
       </c>
       <c r="D568" t="n">
-        <v>0.0002309720730409026</v>
+        <v>0.0002309721021447331</v>
       </c>
       <c r="E568" t="n">
-        <v>0.0101424240790227</v>
+        <v>0.01014242409357461</v>
       </c>
     </row>
     <row r="569">
@@ -11241,10 +11241,10 @@
         <v>0.02005387608500449</v>
       </c>
       <c r="D569" t="n">
-        <v>9.818244143389165e-05</v>
+        <v>9.818244870984927e-05</v>
       </c>
       <c r="E569" t="n">
-        <v>0.01007602926321919</v>
+        <v>0.01007602926685717</v>
       </c>
     </row>
     <row r="570">
@@ -11260,10 +11260,10 @@
         <v>0.02005387608500449</v>
       </c>
       <c r="D570" t="n">
-        <v>0.000554906262550503</v>
+        <v>0.0005549063207581639</v>
       </c>
       <c r="E570" t="n">
-        <v>0.0103043911737775</v>
+        <v>0.01030439120288133</v>
       </c>
     </row>
     <row r="571">
@@ -11279,10 +11279,10 @@
         <v>0.01975456450164621</v>
       </c>
       <c r="D571" t="n">
-        <v>0.003101480891928077</v>
+        <v>0.00310148112475872</v>
       </c>
       <c r="E571" t="n">
-        <v>0.01142802269678714</v>
+        <v>0.01142802281320247</v>
       </c>
     </row>
     <row r="572">
@@ -11298,10 +11298,10 @@
         <v>0.01975456450164621</v>
       </c>
       <c r="D572" t="n">
-        <v>0.0001915667817229405</v>
+        <v>0.0001915667962748557</v>
       </c>
       <c r="E572" t="n">
-        <v>0.009973065641684577</v>
+        <v>0.009973065648960534</v>
       </c>
     </row>
     <row r="573">
@@ -11317,10 +11317,10 @@
         <v>0.01975456450164621</v>
       </c>
       <c r="D573" t="n">
-        <v>0.0003095371939707547</v>
+        <v>0.0003095372230745852</v>
       </c>
       <c r="E573" t="n">
-        <v>0.01003205084780848</v>
+        <v>0.0100320508623604</v>
       </c>
     </row>
     <row r="574">
@@ -11336,10 +11336,10 @@
         <v>0.01945525291828794</v>
       </c>
       <c r="D574" t="n">
-        <v>0.000151399290189147</v>
+        <v>0.0001513993047410622</v>
       </c>
       <c r="E574" t="n">
-        <v>0.009803326104238543</v>
+        <v>0.0098033261115145</v>
       </c>
     </row>
     <row r="575">
@@ -11355,10 +11355,10 @@
         <v>0.01945525291828794</v>
       </c>
       <c r="D575" t="n">
-        <v>0.0003059166192542762</v>
+        <v>0.0003059166483581066</v>
       </c>
       <c r="E575" t="n">
-        <v>0.009880584768771107</v>
+        <v>0.009880584783323022</v>
       </c>
     </row>
     <row r="576">
@@ -11412,10 +11412,10 @@
         <v>0.01915594133492966</v>
       </c>
       <c r="D578" t="n">
-        <v>0.0002976739779114723</v>
+        <v>0.0002976740070153028</v>
       </c>
       <c r="E578" t="n">
-        <v>0.009726807656420568</v>
+        <v>0.009726807670972483</v>
       </c>
     </row>
     <row r="579">
@@ -11450,10 +11450,10 @@
         <v>0.01915594133492966</v>
       </c>
       <c r="D580" t="n">
-        <v>0.0008349272538907826</v>
+        <v>0.0008349273120984435</v>
       </c>
       <c r="E580" t="n">
-        <v>0.009995434294410223</v>
+        <v>0.009995434323514053</v>
       </c>
     </row>
     <row r="581">
@@ -11488,10 +11488,10 @@
         <v>0.01855731816821311</v>
       </c>
       <c r="D582" t="n">
-        <v>0.0003211666771676391</v>
+        <v>0.0003211667062714696</v>
       </c>
       <c r="E582" t="n">
-        <v>0.009439242422690374</v>
+        <v>0.00943924243724229</v>
       </c>
     </row>
     <row r="583">
@@ -11507,10 +11507,10 @@
         <v>0.01765938341813828</v>
       </c>
       <c r="D583" t="n">
-        <v>6.812452920712531e-05</v>
+        <v>6.812453648308292e-05</v>
       </c>
       <c r="E583" t="n">
-        <v>0.008863753973672703</v>
+        <v>0.008863753977310682</v>
       </c>
     </row>
     <row r="584">
@@ -11545,10 +11545,10 @@
         <v>0.01736007183478001</v>
       </c>
       <c r="D585" t="n">
-        <v>0.0002528355980757624</v>
+        <v>0.0002528356271795928</v>
       </c>
       <c r="E585" t="n">
-        <v>0.008806453716427885</v>
+        <v>0.0088064537309798</v>
       </c>
     </row>
     <row r="586">
@@ -11564,10 +11564,10 @@
         <v>0.01736007183478001</v>
       </c>
       <c r="D586" t="n">
-        <v>0.0001762862375471741</v>
+        <v>0.0001762862520990893</v>
       </c>
       <c r="E586" t="n">
-        <v>0.00876817903616359</v>
+        <v>0.008768179043439548</v>
       </c>
     </row>
     <row r="587">
@@ -11583,10 +11583,10 @@
         <v>0.01736007183478001</v>
       </c>
       <c r="D587" t="n">
-        <v>0.005195655394345522</v>
+        <v>0.005195655860006809</v>
       </c>
       <c r="E587" t="n">
-        <v>0.01127786361456276</v>
+        <v>0.01127786384739341</v>
       </c>
     </row>
     <row r="588">
@@ -11602,10 +11602,10 @@
         <v>0.01736007183478001</v>
       </c>
       <c r="D588" t="n">
-        <v>0.0007118293433450162</v>
+        <v>0.0007118294015526772</v>
       </c>
       <c r="E588" t="n">
-        <v>0.009035950589062512</v>
+        <v>0.009035950618166342</v>
       </c>
     </row>
     <row r="589">
@@ -11621,10 +11621,10 @@
         <v>0.01736007183478001</v>
       </c>
       <c r="D589" t="n">
-        <v>0.000807957723736763</v>
+        <v>0.0008079577819444239</v>
       </c>
       <c r="E589" t="n">
-        <v>0.009084014779258385</v>
+        <v>0.009084014808362215</v>
       </c>
     </row>
     <row r="590">
@@ -11640,10 +11640,10 @@
         <v>0.01736007183478001</v>
       </c>
       <c r="D590" t="n">
-        <v>0.0008890700992196798</v>
+        <v>0.0008890701574273407</v>
       </c>
       <c r="E590" t="n">
-        <v>0.009124570966999843</v>
+        <v>0.009124570996103674</v>
       </c>
     </row>
     <row r="591">
@@ -11678,10 +11678,10 @@
         <v>0.01676144866806345</v>
       </c>
       <c r="D592" t="n">
-        <v>0.0009493340039625764</v>
+        <v>0.0009493341203778982</v>
       </c>
       <c r="E592" t="n">
-        <v>0.008855391336013015</v>
+        <v>0.008855391394220676</v>
       </c>
     </row>
     <row r="593">
@@ -11697,10 +11697,10 @@
         <v>0.01676144866806345</v>
       </c>
       <c r="D593" t="n">
-        <v>0.001279765856452286</v>
+        <v>0.001279765972867608</v>
       </c>
       <c r="E593" t="n">
-        <v>0.00902060726225787</v>
+        <v>0.009020607320465531</v>
       </c>
     </row>
     <row r="594">
@@ -11716,10 +11716,10 @@
         <v>0.01676144866806345</v>
       </c>
       <c r="D594" t="n">
-        <v>0.0002084836742142215</v>
+        <v>0.0002084836887661368</v>
       </c>
       <c r="E594" t="n">
-        <v>0.008484966171138838</v>
+        <v>0.008484966178414795</v>
       </c>
     </row>
     <row r="595">
@@ -11735,10 +11735,10 @@
         <v>0.01676144866806345</v>
       </c>
       <c r="D595" t="n">
-        <v>0.0001122047615353949</v>
+        <v>0.0001122047688113526</v>
       </c>
       <c r="E595" t="n">
-        <v>0.008436826714799424</v>
+        <v>0.008436826718437403</v>
       </c>
     </row>
     <row r="596">
@@ -11754,10 +11754,10 @@
         <v>0.01676144866806345</v>
       </c>
       <c r="D596" t="n">
-        <v>0.0005678118322975934</v>
+        <v>0.0005678118905052543</v>
       </c>
       <c r="E596" t="n">
-        <v>0.008664630250180523</v>
+        <v>0.008664630279284354</v>
       </c>
     </row>
     <row r="597">
@@ -11773,10 +11773,10 @@
         <v>0.01676144866806345</v>
       </c>
       <c r="D597" t="n">
-        <v>0.001139946863986552</v>
+        <v>0.001139946980401874</v>
       </c>
       <c r="E597" t="n">
-        <v>0.008950697766025003</v>
+        <v>0.008950697824232664</v>
       </c>
     </row>
     <row r="598">
@@ -11792,10 +11792,10 @@
         <v>0.01646213708470518</v>
       </c>
       <c r="D598" t="n">
-        <v>0.0002206733333878219</v>
+        <v>0.0002206733624916524</v>
       </c>
       <c r="E598" t="n">
-        <v>0.0083414052090465</v>
+        <v>0.008341405223598415</v>
       </c>
     </row>
     <row r="599">
@@ -11811,10 +11811,10 @@
         <v>0.01646213708470518</v>
       </c>
       <c r="D599" t="n">
-        <v>0.0001486555120209232</v>
+        <v>0.0001486555265728384</v>
       </c>
       <c r="E599" t="n">
-        <v>0.008305396298363051</v>
+        <v>0.008305396305639009</v>
       </c>
     </row>
     <row r="600">
@@ -11830,10 +11830,10 @@
         <v>0.01646213708470518</v>
       </c>
       <c r="D600" t="n">
-        <v>0.0004350618983153254</v>
+        <v>0.0004350619274191558</v>
       </c>
       <c r="E600" t="n">
-        <v>0.008448599491510252</v>
+        <v>0.008448599506062167</v>
       </c>
     </row>
     <row r="601">
@@ -11849,10 +11849,10 @@
         <v>0.0161628255013469</v>
       </c>
       <c r="D601" t="n">
-        <v>9.967332880478352e-05</v>
+        <v>9.967333608074114e-05</v>
       </c>
       <c r="E601" t="n">
-        <v>0.008131249415075844</v>
+        <v>0.008131249418713822</v>
       </c>
     </row>
     <row r="602">
@@ -11868,10 +11868,10 @@
         <v>0.0161628255013469</v>
       </c>
       <c r="D602" t="n">
-        <v>0.0008024473208934069</v>
+        <v>0.0008024473791010678</v>
       </c>
       <c r="E602" t="n">
-        <v>0.008482636411120155</v>
+        <v>0.008482636440223986</v>
       </c>
     </row>
     <row r="603">
@@ -11887,10 +11887,10 @@
         <v>0.0161628255013469</v>
       </c>
       <c r="D603" t="n">
-        <v>0.000136376591399312</v>
+        <v>0.0001363766059512272</v>
       </c>
       <c r="E603" t="n">
-        <v>0.008149601046373108</v>
+        <v>0.008149601053649065</v>
       </c>
     </row>
     <row r="604">
@@ -11906,10 +11906,10 @@
         <v>0.01586351391798863</v>
       </c>
       <c r="D604" t="n">
-        <v>0.00054514454677701</v>
+        <v>0.0005451446049846709</v>
       </c>
       <c r="E604" t="n">
-        <v>0.008204329232382818</v>
+        <v>0.008204329261486648</v>
       </c>
     </row>
     <row r="605">
@@ -11925,10 +11925,10 @@
         <v>0.01586351391798863</v>
       </c>
       <c r="D605" t="n">
-        <v>0.0003392878861632198</v>
+        <v>0.0003392879152670503</v>
       </c>
       <c r="E605" t="n">
-        <v>0.008101400902075923</v>
+        <v>0.008101400916627838</v>
       </c>
     </row>
     <row r="606">
@@ -11944,10 +11944,10 @@
         <v>0.01586351391798863</v>
       </c>
       <c r="D606" t="n">
-        <v>0.0004505153046920896</v>
+        <v>0.00045051533379592</v>
       </c>
       <c r="E606" t="n">
-        <v>0.008157014611340357</v>
+        <v>0.008157014625892273</v>
       </c>
     </row>
     <row r="607">
@@ -11963,10 +11963,10 @@
         <v>0.01586351391798863</v>
       </c>
       <c r="D607" t="n">
-        <v>0.0003203964442946017</v>
+        <v>0.0003203964733984321</v>
       </c>
       <c r="E607" t="n">
-        <v>0.008091955181141613</v>
+        <v>0.008091955195693529</v>
       </c>
     </row>
     <row r="608">
@@ -11982,10 +11982,10 @@
         <v>0.01586351391798863</v>
       </c>
       <c r="D608" t="n">
-        <v>0.001720411237329245</v>
+        <v>0.001720411353744566</v>
       </c>
       <c r="E608" t="n">
-        <v>0.008791962577658935</v>
+        <v>0.008791962635866596</v>
       </c>
     </row>
     <row r="609">
@@ -12001,10 +12001,10 @@
         <v>0.01586351391798863</v>
       </c>
       <c r="D609" t="n">
-        <v>0.0002894513891078532</v>
+        <v>0.0002894514182116836</v>
       </c>
       <c r="E609" t="n">
-        <v>0.008076482653548239</v>
+        <v>0.008076482668100154</v>
       </c>
     </row>
     <row r="610">
@@ -12020,10 +12020,10 @@
         <v>0.01586351391798863</v>
       </c>
       <c r="D610" t="n">
-        <v>0.001003098441287875</v>
+        <v>0.001003098557703197</v>
       </c>
       <c r="E610" t="n">
-        <v>0.00843330617963825</v>
+        <v>0.008433306237845911</v>
       </c>
     </row>
     <row r="611">
@@ -12039,10 +12039,10 @@
         <v>0.01556420233463035</v>
       </c>
       <c r="D611" t="n">
-        <v>0.0002406617131782696</v>
+        <v>0.0002406617277301848</v>
       </c>
       <c r="E611" t="n">
-        <v>0.00790243202390431</v>
+        <v>0.007902432031180268</v>
       </c>
     </row>
     <row r="612">
@@ -12058,10 +12058,10 @@
         <v>0.01556420233463035</v>
       </c>
       <c r="D612" t="n">
-        <v>0.0009241751977242529</v>
+        <v>0.0009241752559319139</v>
       </c>
       <c r="E612" t="n">
-        <v>0.008244188766177302</v>
+        <v>0.008244188795281132</v>
       </c>
     </row>
     <row r="613">
@@ -12096,10 +12096,10 @@
         <v>0.01556420233463035</v>
       </c>
       <c r="D614" t="n">
-        <v>0.00360452919267118</v>
+        <v>0.003604529425501823</v>
       </c>
       <c r="E614" t="n">
-        <v>0.009584365763650765</v>
+        <v>0.009584365880066087</v>
       </c>
     </row>
     <row r="615">
@@ -12134,10 +12134,10 @@
         <v>0.0149655791679138</v>
       </c>
       <c r="D616" t="n">
-        <v>0.0005134388338774443</v>
+        <v>0.0005134388920851052</v>
       </c>
       <c r="E616" t="n">
-        <v>0.007739509000895622</v>
+        <v>0.007739509029999452</v>
       </c>
     </row>
     <row r="617">
@@ -12172,10 +12172,10 @@
         <v>0.0149655791679138</v>
       </c>
       <c r="D618" t="n">
-        <v>0.001560591161251068</v>
+        <v>0.00156059127766639</v>
       </c>
       <c r="E618" t="n">
-        <v>0.008263085164582434</v>
+        <v>0.008263085222790095</v>
       </c>
     </row>
     <row r="619">
@@ -12210,10 +12210,10 @@
         <v>0.01466626758455552</v>
       </c>
       <c r="D620" t="n">
-        <v>0.0005303123034536839</v>
+        <v>0.0005303123616613448</v>
       </c>
       <c r="E620" t="n">
-        <v>0.007598289944004603</v>
+        <v>0.007598289973108434</v>
       </c>
     </row>
     <row r="621">
@@ -12248,10 +12248,10 @@
         <v>0.01406764441783897</v>
       </c>
       <c r="D622" t="n">
-        <v>0.0001999071246245876</v>
+        <v>0.0001999071391765028</v>
       </c>
       <c r="E622" t="n">
-        <v>0.007133775771231779</v>
+        <v>0.007133775778507737</v>
       </c>
     </row>
     <row r="623">
@@ -12267,10 +12267,10 @@
         <v>0.01406764441783897</v>
       </c>
       <c r="D623" t="n">
-        <v>0.003305709920823574</v>
+        <v>0.003305710153654218</v>
       </c>
       <c r="E623" t="n">
-        <v>0.008686677169331272</v>
+        <v>0.008686677285746593</v>
       </c>
     </row>
     <row r="624">
@@ -12286,10 +12286,10 @@
         <v>0.01376833283448069</v>
       </c>
       <c r="D624" t="n">
-        <v>0.0009452564991079271</v>
+        <v>0.000945256557315588</v>
       </c>
       <c r="E624" t="n">
-        <v>0.007356794666794311</v>
+        <v>0.007356794695898141</v>
       </c>
     </row>
     <row r="625">
@@ -12305,10 +12305,10 @@
         <v>0.01376833283448069</v>
       </c>
       <c r="D625" t="n">
-        <v>0.0002278811298310757</v>
+        <v>0.0002278811589349061</v>
       </c>
       <c r="E625" t="n">
-        <v>0.006998106982155885</v>
+        <v>0.0069981069967078</v>
       </c>
     </row>
     <row r="626">
@@ -12324,10 +12324,10 @@
         <v>0.01376833283448069</v>
       </c>
       <c r="D626" t="n">
-        <v>0.0004697294789366424</v>
+        <v>0.0004697295080404729</v>
       </c>
       <c r="E626" t="n">
-        <v>0.007119031156708668</v>
+        <v>0.007119031171260583</v>
       </c>
     </row>
     <row r="627">
@@ -12343,10 +12343,10 @@
         <v>0.01346902125112242</v>
       </c>
       <c r="D627" t="n">
-        <v>0.0001582356489961967</v>
+        <v>0.0001582356635481119</v>
       </c>
       <c r="E627" t="n">
-        <v>0.006813628450059308</v>
+        <v>0.006813628457335266</v>
       </c>
     </row>
     <row r="628">
@@ -12362,10 +12362,10 @@
         <v>0.01346902125112242</v>
       </c>
       <c r="D628" t="n">
-        <v>0.0005992858787067235</v>
+        <v>0.0005992859369143844</v>
       </c>
       <c r="E628" t="n">
-        <v>0.007034153564914571</v>
+        <v>0.007034153594018402</v>
       </c>
     </row>
     <row r="629">
@@ -12381,10 +12381,10 @@
         <v>0.01346902125112242</v>
       </c>
       <c r="D629" t="n">
-        <v>0.0004903420922346413</v>
+        <v>0.0004903421504423022</v>
       </c>
       <c r="E629" t="n">
-        <v>0.00697968167167853</v>
+        <v>0.006979681700782361</v>
       </c>
     </row>
     <row r="630">
@@ -12400,10 +12400,10 @@
         <v>0.01316970966776414</v>
       </c>
       <c r="D630" t="n">
-        <v>9.475186379859224e-05</v>
+        <v>9.475187107454985e-05</v>
       </c>
       <c r="E630" t="n">
-        <v>0.006632230765781367</v>
+        <v>0.006632230769419346</v>
       </c>
     </row>
     <row r="631">
@@ -12419,10 +12419,10 @@
         <v>0.01316970966776414</v>
       </c>
       <c r="D631" t="n">
-        <v>0.0003766231529880315</v>
+        <v>0.000376623182091862</v>
       </c>
       <c r="E631" t="n">
-        <v>0.006773166410376087</v>
+        <v>0.006773166424928002</v>
       </c>
     </row>
     <row r="632">
@@ -12438,10 +12438,10 @@
         <v>0.01316970966776414</v>
       </c>
       <c r="D632" t="n">
-        <v>0.0005968809709884226</v>
+        <v>0.0005968810291960835</v>
       </c>
       <c r="E632" t="n">
-        <v>0.006883295319376283</v>
+        <v>0.006883295348480113</v>
       </c>
     </row>
     <row r="633">
@@ -12476,10 +12476,10 @@
         <v>0.01316970966776414</v>
       </c>
       <c r="D634" t="n">
-        <v>0.0005094057414680719</v>
+        <v>0.0005094057996757329</v>
       </c>
       <c r="E634" t="n">
-        <v>0.006839557704616107</v>
+        <v>0.006839557733719938</v>
       </c>
     </row>
     <row r="635">
@@ -12495,10 +12495,10 @@
         <v>0.01316970966776414</v>
       </c>
       <c r="D635" t="n">
-        <v>0.0008752048015594482</v>
+        <v>0.0008752049179747701</v>
       </c>
       <c r="E635" t="n">
-        <v>0.007022457234661795</v>
+        <v>0.007022457292869456</v>
       </c>
     </row>
     <row r="636">
@@ -12514,10 +12514,10 @@
         <v>0.01287039808440587</v>
       </c>
       <c r="D636" t="n">
-        <v>0.00826541893184185</v>
+        <v>0.008265419863164425</v>
       </c>
       <c r="E636" t="n">
-        <v>0.01056790850812386</v>
+        <v>0.01056790897378515</v>
       </c>
     </row>
     <row r="637">
@@ -12533,10 +12533,10 @@
         <v>0.01287039808440587</v>
       </c>
       <c r="D637" t="n">
-        <v>0.0003077068249695003</v>
+        <v>0.0003077068540733308</v>
       </c>
       <c r="E637" t="n">
-        <v>0.006589052454687683</v>
+        <v>0.006589052469239598</v>
       </c>
     </row>
     <row r="638">
@@ -12552,10 +12552,10 @@
         <v>0.01287039808440587</v>
       </c>
       <c r="D638" t="n">
-        <v>0.002625250024721026</v>
+        <v>0.00262525025755167</v>
       </c>
       <c r="E638" t="n">
-        <v>0.007747824054563446</v>
+        <v>0.007747824170978768</v>
       </c>
     </row>
     <row r="639">
@@ -12571,10 +12571,10 @@
         <v>0.01257108650104759</v>
       </c>
       <c r="D639" t="n">
-        <v>0.0005539438570849597</v>
+        <v>0.0005539439152926207</v>
       </c>
       <c r="E639" t="n">
-        <v>0.006562515179066275</v>
+        <v>0.006562515208170106</v>
       </c>
     </row>
     <row r="640">
@@ -12590,10 +12590,10 @@
         <v>0.01257108650104759</v>
       </c>
       <c r="D640" t="n">
-        <v>0.001563968951813877</v>
+        <v>0.001563969068229198</v>
       </c>
       <c r="E640" t="n">
-        <v>0.007067527726430734</v>
+        <v>0.007067527784638395</v>
       </c>
     </row>
     <row r="641">
@@ -12609,10 +12609,10 @@
         <v>0.01227177491768931</v>
       </c>
       <c r="D641" t="n">
-        <v>0.001033423352055252</v>
+        <v>0.001033423468470573</v>
       </c>
       <c r="E641" t="n">
-        <v>0.006652599134872283</v>
+        <v>0.006652599193079944</v>
       </c>
     </row>
     <row r="642">
@@ -12628,10 +12628,10 @@
         <v>0.01227177491768931</v>
       </c>
       <c r="D642" t="n">
-        <v>0.001779848011210561</v>
+        <v>0.001779848244041204</v>
       </c>
       <c r="E642" t="n">
-        <v>0.007025811464449938</v>
+        <v>0.007025811580865259</v>
       </c>
     </row>
     <row r="643">
@@ -12647,10 +12647,10 @@
         <v>0.01227177491768931</v>
       </c>
       <c r="D643" t="n">
-        <v>0.0009574482101015747</v>
+        <v>0.0009574482683092356</v>
       </c>
       <c r="E643" t="n">
-        <v>0.006614611563895445</v>
+        <v>0.006614611592999275</v>
       </c>
     </row>
     <row r="644">
@@ -12666,10 +12666,10 @@
         <v>0.01227177491768931</v>
       </c>
       <c r="D644" t="n">
-        <v>0.001311468426138163</v>
+        <v>0.001311468542553484</v>
       </c>
       <c r="E644" t="n">
-        <v>0.006791621671913738</v>
+        <v>0.006791621730121399</v>
       </c>
     </row>
     <row r="645">
@@ -12685,10 +12685,10 @@
         <v>0.01197246333433104</v>
       </c>
       <c r="D645" t="n">
-        <v>0.0001705780596239492</v>
+        <v>0.0001705780741758645</v>
       </c>
       <c r="E645" t="n">
-        <v>0.006071520696977494</v>
+        <v>0.006071520704253452</v>
       </c>
     </row>
     <row r="646">
@@ -12704,10 +12704,10 @@
         <v>0.01197246333433104</v>
       </c>
       <c r="D646" t="n">
-        <v>0.0005361392977647483</v>
+        <v>0.0005361393559724092</v>
       </c>
       <c r="E646" t="n">
-        <v>0.006254301316047894</v>
+        <v>0.006254301345151724</v>
       </c>
     </row>
     <row r="647">
@@ -12723,10 +12723,10 @@
         <v>0.01197246333433104</v>
       </c>
       <c r="D647" t="n">
-        <v>0.0004483985831029713</v>
+        <v>0.0004483986122068018</v>
       </c>
       <c r="E647" t="n">
-        <v>0.006210430958717005</v>
+        <v>0.006210430973268921</v>
       </c>
     </row>
     <row r="648">
@@ -12742,10 +12742,10 @@
         <v>0.01197246333433104</v>
       </c>
       <c r="D648" t="n">
-        <v>9.482921450398862e-05</v>
+        <v>9.482922177994624e-05</v>
       </c>
       <c r="E648" t="n">
-        <v>0.006033646274417514</v>
+        <v>0.006033646278055493</v>
       </c>
     </row>
     <row r="649">
@@ -12761,10 +12761,10 @@
         <v>0.01167315175097276</v>
       </c>
       <c r="D649" t="n">
-        <v>0.0002053977950708941</v>
+        <v>0.0002053978096228093</v>
       </c>
       <c r="E649" t="n">
-        <v>0.005939274773021828</v>
+        <v>0.005939274780297786</v>
       </c>
     </row>
     <row r="650">
@@ -12780,10 +12780,10 @@
         <v>0.01167315175097276</v>
       </c>
       <c r="D650" t="n">
-        <v>0.0006079089362174273</v>
+        <v>0.0006079089944250882</v>
       </c>
       <c r="E650" t="n">
-        <v>0.006140530343595095</v>
+        <v>0.006140530372698925</v>
       </c>
     </row>
     <row r="651">
@@ -12799,10 +12799,10 @@
         <v>0.01137384016761449</v>
       </c>
       <c r="D651" t="n">
-        <v>0.0002787967387121171</v>
+        <v>0.0002787967678159475</v>
       </c>
       <c r="E651" t="n">
-        <v>0.005826318453163302</v>
+        <v>0.005826318467715217</v>
       </c>
     </row>
     <row r="652">
@@ -12818,10 +12818,10 @@
         <v>0.01107452858425621</v>
       </c>
       <c r="D652" t="n">
-        <v>0.0005087017780169845</v>
+        <v>0.0005087018362246454</v>
       </c>
       <c r="E652" t="n">
-        <v>0.005791615181136598</v>
+        <v>0.005791615210240428</v>
       </c>
     </row>
     <row r="653">
@@ -12837,10 +12837,10 @@
         <v>0.01077521700089793</v>
       </c>
       <c r="D653" t="n">
-        <v>0.005861413665115833</v>
+        <v>0.005861414130777121</v>
       </c>
       <c r="E653" t="n">
-        <v>0.008318315333006884</v>
+        <v>0.008318315565837528</v>
       </c>
     </row>
     <row r="654">
@@ -12856,10 +12856,10 @@
         <v>0.01077521700089793</v>
       </c>
       <c r="D654" t="n">
-        <v>0.001585391699336469</v>
+        <v>0.001585391815751791</v>
       </c>
       <c r="E654" t="n">
-        <v>0.006180304350117202</v>
+        <v>0.006180304408324863</v>
       </c>
     </row>
     <row r="655">
@@ -12875,10 +12875,10 @@
         <v>0.01047590541753966</v>
       </c>
       <c r="D655" t="n">
-        <v>0.001473259413614869</v>
+        <v>0.001473259530030191</v>
       </c>
       <c r="E655" t="n">
-        <v>0.005974582415577264</v>
+        <v>0.005974582473784924</v>
       </c>
     </row>
     <row r="656">
@@ -12894,10 +12894,10 @@
         <v>0.01047590541753966</v>
       </c>
       <c r="D656" t="n">
-        <v>0.0005390594596974552</v>
+        <v>0.0005390595179051161</v>
       </c>
       <c r="E656" t="n">
-        <v>0.005507482438618557</v>
+        <v>0.005507482467722387</v>
       </c>
     </row>
     <row r="657">
@@ -12913,10 +12913,10 @@
         <v>0.01017659383418138</v>
       </c>
       <c r="D657" t="n">
-        <v>0.01061162166297436</v>
+        <v>0.01061162259429693</v>
       </c>
       <c r="E657" t="n">
-        <v>0.01039410774857787</v>
+        <v>0.01039410821423916</v>
       </c>
     </row>
     <row r="658">
@@ -12951,10 +12951,10 @@
         <v>0.009577970667464832</v>
       </c>
       <c r="D659" t="n">
-        <v>0.0003979749162681401</v>
+        <v>0.0003979749453719705</v>
       </c>
       <c r="E659" t="n">
-        <v>0.004987972791866486</v>
+        <v>0.004987972806418401</v>
       </c>
     </row>
     <row r="660">
@@ -12970,10 +12970,10 @@
         <v>0.009577970667464832</v>
       </c>
       <c r="D660" t="n">
-        <v>0.0008988784393295646</v>
+        <v>0.0008988784975372255</v>
       </c>
       <c r="E660" t="n">
-        <v>0.005238424553397198</v>
+        <v>0.005238424582501029</v>
       </c>
     </row>
     <row r="661">
@@ -13008,10 +13008,10 @@
         <v>0.009577970667464832</v>
       </c>
       <c r="D662" t="n">
-        <v>0.0001892179425340146</v>
+        <v>0.0001892179570859298</v>
       </c>
       <c r="E662" t="n">
-        <v>0.004883594304999423</v>
+        <v>0.004883594312275381</v>
       </c>
     </row>
     <row r="663">
@@ -13027,10 +13027,10 @@
         <v>0.009577970667464832</v>
       </c>
       <c r="D663" t="n">
-        <v>0.0005235671414993703</v>
+        <v>0.0005235671997070312</v>
       </c>
       <c r="E663" t="n">
-        <v>0.005050768904482101</v>
+        <v>0.005050768933585931</v>
       </c>
     </row>
     <row r="664">
@@ -13046,10 +13046,10 @@
         <v>0.009577970667464832</v>
       </c>
       <c r="D664" t="n">
-        <v>0.001183204236440361</v>
+        <v>0.001183204352855682</v>
       </c>
       <c r="E664" t="n">
-        <v>0.005380587451952596</v>
+        <v>0.005380587510160257</v>
       </c>
     </row>
     <row r="665">
@@ -13065,10 +13065,10 @@
         <v>0.009278659084106555</v>
       </c>
       <c r="D665" t="n">
-        <v>0.0002285356895299628</v>
+        <v>0.0002285357040818781</v>
       </c>
       <c r="E665" t="n">
-        <v>0.004753597386818259</v>
+        <v>0.004753597394094216</v>
       </c>
     </row>
     <row r="666">
@@ -13084,10 +13084,10 @@
         <v>0.008979347500748278</v>
       </c>
       <c r="D666" t="n">
-        <v>0.0007519899518229067</v>
+        <v>0.0007519900100305676</v>
       </c>
       <c r="E666" t="n">
-        <v>0.004865668726285593</v>
+        <v>0.004865668755389423</v>
       </c>
     </row>
     <row r="667">
@@ -13103,10 +13103,10 @@
         <v>0.008979347500748278</v>
       </c>
       <c r="D667" t="n">
-        <v>0.001125661539845169</v>
+        <v>0.00112566165626049</v>
       </c>
       <c r="E667" t="n">
-        <v>0.005052504520296723</v>
+        <v>0.005052504578504384</v>
       </c>
     </row>
     <row r="668">
@@ -13122,10 +13122,10 @@
         <v>0.008979347500748278</v>
       </c>
       <c r="D668" t="n">
-        <v>0.0002683875791262835</v>
+        <v>0.000268387608230114</v>
       </c>
       <c r="E668" t="n">
-        <v>0.004623867539937281</v>
+        <v>0.004623867554489196</v>
       </c>
     </row>
     <row r="669">
@@ -13141,10 +13141,10 @@
         <v>0.008979347500748278</v>
       </c>
       <c r="D669" t="n">
-        <v>0.0005266623920761049</v>
+        <v>0.0005266624502837658</v>
       </c>
       <c r="E669" t="n">
-        <v>0.004753004946412192</v>
+        <v>0.004753004975516022</v>
       </c>
     </row>
     <row r="670">
@@ -13160,10 +13160,10 @@
         <v>0.008979347500748278</v>
       </c>
       <c r="D670" t="n">
-        <v>0.003281548852100968</v>
+        <v>0.003281549084931612</v>
       </c>
       <c r="E670" t="n">
-        <v>0.006130448176424623</v>
+        <v>0.006130448292839945</v>
       </c>
     </row>
     <row r="671">
@@ -13179,10 +13179,10 @@
         <v>0.008680035917390003</v>
       </c>
       <c r="D671" t="n">
-        <v>0.001329912920482457</v>
+        <v>0.001329913036897779</v>
       </c>
       <c r="E671" t="n">
-        <v>0.00500497441893623</v>
+        <v>0.005004974477143891</v>
       </c>
     </row>
     <row r="672">
@@ -13198,10 +13198,10 @@
         <v>0.008680035917390003</v>
       </c>
       <c r="D672" t="n">
-        <v>0.01110043842345476</v>
+        <v>0.01110043935477734</v>
       </c>
       <c r="E672" t="n">
-        <v>0.009890237170422382</v>
+        <v>0.00989023763608367</v>
       </c>
     </row>
     <row r="673">
@@ -13217,10 +13217,10 @@
         <v>0.008680035917390003</v>
       </c>
       <c r="D673" t="n">
-        <v>0.002935158554464579</v>
+        <v>0.002935158787295222</v>
       </c>
       <c r="E673" t="n">
-        <v>0.005807597235927291</v>
+        <v>0.005807597352342613</v>
       </c>
     </row>
     <row r="674">
@@ -13236,10 +13236,10 @@
         <v>0.008380724334031727</v>
       </c>
       <c r="D674" t="n">
-        <v>0.002313533099368215</v>
+        <v>0.002313533332198858</v>
       </c>
       <c r="E674" t="n">
-        <v>0.005347128716699971</v>
+        <v>0.005347128833115293</v>
       </c>
     </row>
     <row r="675">
@@ -13255,10 +13255,10 @@
         <v>0.008380724334031727</v>
       </c>
       <c r="D675" t="n">
-        <v>0.0004027124959975481</v>
+        <v>0.0004027125251013786</v>
       </c>
       <c r="E675" t="n">
-        <v>0.004391718415014637</v>
+        <v>0.004391718429566553</v>
       </c>
     </row>
     <row r="676">
@@ -13274,10 +13274,10 @@
         <v>0.008380724334031727</v>
       </c>
       <c r="D676" t="n">
-        <v>0.0008276680018752813</v>
+        <v>0.0008276680600829422</v>
       </c>
       <c r="E676" t="n">
-        <v>0.004604196167953504</v>
+        <v>0.004604196197057334</v>
       </c>
     </row>
     <row r="677">
@@ -13293,10 +13293,10 @@
         <v>0.008081412750673452</v>
       </c>
       <c r="D677" t="n">
-        <v>0.000453715241746977</v>
+        <v>0.0004537152708508074</v>
       </c>
       <c r="E677" t="n">
-        <v>0.004267563996210214</v>
+        <v>0.00426756401076213</v>
       </c>
     </row>
     <row r="678">
@@ -13312,10 +13312,10 @@
         <v>0.008081412750673452</v>
       </c>
       <c r="D678" t="n">
-        <v>0.00247473455965519</v>
+        <v>0.002474734792485833</v>
       </c>
       <c r="E678" t="n">
-        <v>0.005278073655164321</v>
+        <v>0.005278073771579643</v>
       </c>
     </row>
     <row r="679">
@@ -13369,10 +13369,10 @@
         <v>0.007782101167315175</v>
       </c>
       <c r="D681" t="n">
-        <v>0.0006589271361008286</v>
+        <v>0.0006589271943084896</v>
       </c>
       <c r="E681" t="n">
-        <v>0.004220514151708002</v>
+        <v>0.004220514180811832</v>
       </c>
     </row>
     <row r="682">
@@ -13388,10 +13388,10 @@
         <v>0.007782101167315175</v>
       </c>
       <c r="D682" t="n">
-        <v>0.003002577926963568</v>
+        <v>0.003002578159794211</v>
       </c>
       <c r="E682" t="n">
-        <v>0.005392339547139371</v>
+        <v>0.005392339663554693</v>
       </c>
     </row>
     <row r="683">
@@ -13407,10 +13407,10 @@
         <v>0.007782101167315175</v>
       </c>
       <c r="D683" t="n">
-        <v>0.0003728930896613747</v>
+        <v>0.0003728931187652051</v>
       </c>
       <c r="E683" t="n">
-        <v>0.004077497128488275</v>
+        <v>0.00407749714304019</v>
       </c>
     </row>
     <row r="684">
@@ -13426,10 +13426,10 @@
         <v>0.007782101167315175</v>
       </c>
       <c r="D684" t="n">
-        <v>0.001266409759409726</v>
+        <v>0.001266409875825047</v>
       </c>
       <c r="E684" t="n">
-        <v>0.00452425546336245</v>
+        <v>0.004524255521570111</v>
       </c>
     </row>
     <row r="685">
@@ -13445,10 +13445,10 @@
         <v>0.007482789583956899</v>
       </c>
       <c r="D685" t="n">
-        <v>0.0007042452343739569</v>
+        <v>0.0007042452925816178</v>
       </c>
       <c r="E685" t="n">
-        <v>0.004093517409165429</v>
+        <v>0.004093517438269259</v>
       </c>
     </row>
     <row r="686">
@@ -13464,10 +13464,10 @@
         <v>0.007482789583956899</v>
       </c>
       <c r="D686" t="n">
-        <v>0.0001972787722479552</v>
+        <v>0.0001972787867998704</v>
       </c>
       <c r="E686" t="n">
-        <v>0.003840034178102427</v>
+        <v>0.003840034185378385</v>
       </c>
     </row>
     <row r="687">
@@ -13483,10 +13483,10 @@
         <v>0.007482789583956899</v>
       </c>
       <c r="D687" t="n">
-        <v>0.0004118909128010273</v>
+        <v>0.0004118909419048578</v>
       </c>
       <c r="E687" t="n">
-        <v>0.003947340248378964</v>
+        <v>0.003947340262930879</v>
       </c>
     </row>
     <row r="688">
@@ -13502,10 +13502,10 @@
         <v>0.007482789583956899</v>
       </c>
       <c r="D688" t="n">
-        <v>0.0003009350621141493</v>
+        <v>0.0003009350912179798</v>
       </c>
       <c r="E688" t="n">
-        <v>0.003891862323035524</v>
+        <v>0.00389186233758744</v>
       </c>
     </row>
     <row r="689">
@@ -13521,10 +13521,10 @@
         <v>0.007482789583956899</v>
       </c>
       <c r="D689" t="n">
-        <v>0.0006862628506496549</v>
+        <v>0.0006862629088573158</v>
       </c>
       <c r="E689" t="n">
-        <v>0.004084526217303278</v>
+        <v>0.004084526246407108</v>
       </c>
     </row>
     <row r="690">
@@ -13540,10 +13540,10 @@
         <v>0.007482789583956899</v>
       </c>
       <c r="D690" t="n">
-        <v>0.0002745915262494236</v>
+        <v>0.0002745915553532541</v>
       </c>
       <c r="E690" t="n">
-        <v>0.003878690555103162</v>
+        <v>0.003878690569655077</v>
       </c>
     </row>
     <row r="691">
@@ -13559,10 +13559,10 @@
         <v>0.007183478000598623</v>
       </c>
       <c r="D691" t="n">
-        <v>0.0009007162880152464</v>
+        <v>0.0009007163462229073</v>
       </c>
       <c r="E691" t="n">
-        <v>0.004042097144306934</v>
+        <v>0.004042097173410765</v>
       </c>
     </row>
     <row r="692">
@@ -13578,10 +13578,10 @@
         <v>0.006884166417240347</v>
       </c>
       <c r="D692" t="n">
-        <v>0.001401917194016278</v>
+        <v>0.0014019173104316</v>
       </c>
       <c r="E692" t="n">
-        <v>0.004143041805628312</v>
+        <v>0.004143041863835973</v>
       </c>
     </row>
     <row r="693">
@@ -13597,10 +13597,10 @@
         <v>0.006884166417240347</v>
       </c>
       <c r="D693" t="n">
-        <v>0.0004694675444625318</v>
+        <v>0.0004694675735663623</v>
       </c>
       <c r="E693" t="n">
-        <v>0.003676816980851439</v>
+        <v>0.003676816995403355</v>
       </c>
     </row>
     <row r="694">
@@ -13635,10 +13635,10 @@
         <v>0.006884166417240347</v>
       </c>
       <c r="D695" t="n">
-        <v>0.0001917597837746143</v>
+        <v>0.0001917597983265296</v>
       </c>
       <c r="E695" t="n">
-        <v>0.003537963100507481</v>
+        <v>0.003537963107783438</v>
       </c>
     </row>
     <row r="696">
@@ -13654,10 +13654,10 @@
         <v>0.006884166417240347</v>
       </c>
       <c r="D696" t="n">
-        <v>0.0001717855629976839</v>
+        <v>0.0001717855775495991</v>
       </c>
       <c r="E696" t="n">
-        <v>0.003527975990119015</v>
+        <v>0.003527975997394973</v>
       </c>
     </row>
     <row r="697">
@@ -13673,10 +13673,10 @@
         <v>0.006584854833882071</v>
       </c>
       <c r="D697" t="n">
-        <v>0.0006872555240988731</v>
+        <v>0.0006872555823065341</v>
       </c>
       <c r="E697" t="n">
-        <v>0.003636055178990472</v>
+        <v>0.003636055208094303</v>
       </c>
     </row>
     <row r="698">
@@ -13692,10 +13692,10 @@
         <v>0.006584854833882071</v>
       </c>
       <c r="D698" t="n">
-        <v>0.001502458588220179</v>
+        <v>0.001502458704635501</v>
       </c>
       <c r="E698" t="n">
-        <v>0.004043656711051126</v>
+        <v>0.004043656769258787</v>
       </c>
     </row>
     <row r="699">
@@ -13749,10 +13749,10 @@
         <v>0.006285543250523795</v>
       </c>
       <c r="D701" t="n">
-        <v>0.0002715764567255974</v>
+        <v>0.0002715764858294278</v>
       </c>
       <c r="E701" t="n">
-        <v>0.003278559853624696</v>
+        <v>0.003278559868176612</v>
       </c>
     </row>
     <row r="702">
@@ -13787,10 +13787,10 @@
         <v>0.006285543250523795</v>
       </c>
       <c r="D703" t="n">
-        <v>0.0004389626265037805</v>
+        <v>0.0004389626556076109</v>
       </c>
       <c r="E703" t="n">
-        <v>0.003362252938513788</v>
+        <v>0.003362252953065703</v>
       </c>
     </row>
     <row r="704">
@@ -13806,10 +13806,10 @@
         <v>0.006285543250523795</v>
       </c>
       <c r="D704" t="n">
-        <v>0.001081985188648105</v>
+        <v>0.001081985305063426</v>
       </c>
       <c r="E704" t="n">
-        <v>0.00368376421958595</v>
+        <v>0.003683764277793611</v>
       </c>
     </row>
     <row r="705">
@@ -13825,10 +13825,10 @@
         <v>0.006285543250523795</v>
       </c>
       <c r="D705" t="n">
-        <v>0.0006080023013055325</v>
+        <v>0.0006080023595131934</v>
       </c>
       <c r="E705" t="n">
-        <v>0.003446772775914664</v>
+        <v>0.003446772805018494</v>
       </c>
     </row>
     <row r="706">
@@ -13863,10 +13863,10 @@
         <v>0.00598623166716552</v>
       </c>
       <c r="D707" t="n">
-        <v>0.001833235146477818</v>
+        <v>0.00183323526289314</v>
       </c>
       <c r="E707" t="n">
-        <v>0.003909733406821669</v>
+        <v>0.00390973346502933</v>
       </c>
     </row>
     <row r="708">
@@ -13901,10 +13901,10 @@
         <v>0.00598623166716552</v>
       </c>
       <c r="D709" t="n">
-        <v>0.001954318257048726</v>
+        <v>0.00195431848987937</v>
       </c>
       <c r="E709" t="n">
-        <v>0.003970274962107122</v>
+        <v>0.003970275078522444</v>
       </c>
     </row>
     <row r="710">
@@ -13920,10 +13920,10 @@
         <v>0.00598623166716552</v>
       </c>
       <c r="D710" t="n">
-        <v>0.00034340750426054</v>
+        <v>0.0003434075333643705</v>
       </c>
       <c r="E710" t="n">
-        <v>0.00316481958571303</v>
+        <v>0.003164819600264945</v>
       </c>
     </row>
     <row r="711">
@@ -13939,10 +13939,10 @@
         <v>0.005686920083807243</v>
       </c>
       <c r="D711" t="n">
-        <v>0.0009341248078271747</v>
+        <v>0.0009341249242424965</v>
       </c>
       <c r="E711" t="n">
-        <v>0.003310522445817209</v>
+        <v>0.00331052250402487</v>
       </c>
     </row>
     <row r="712">
@@ -13958,10 +13958,10 @@
         <v>0.005686920083807243</v>
       </c>
       <c r="D712" t="n">
-        <v>0.0002447552396915853</v>
+        <v>0.0002447552687954158</v>
       </c>
       <c r="E712" t="n">
-        <v>0.002965837661749414</v>
+        <v>0.002965837676301329</v>
       </c>
     </row>
     <row r="713">
@@ -13977,10 +13977,10 @@
         <v>0.005686920083807243</v>
       </c>
       <c r="D713" t="n">
-        <v>0.0008047845913097262</v>
+        <v>0.0008047846495173872</v>
       </c>
       <c r="E713" t="n">
-        <v>0.003245852337558485</v>
+        <v>0.003245852366662315</v>
       </c>
     </row>
     <row r="714">
@@ -14015,10 +14015,10 @@
         <v>0.005686920083807243</v>
       </c>
       <c r="D715" t="n">
-        <v>0.000265981798293069</v>
+        <v>0.0002659818273968995</v>
       </c>
       <c r="E715" t="n">
-        <v>0.002976450941050156</v>
+        <v>0.002976450955602071</v>
       </c>
     </row>
     <row r="716">
@@ -14053,10 +14053,10 @@
         <v>0.005387608500448967</v>
       </c>
       <c r="D717" t="n">
-        <v>0.0001821601181291044</v>
+        <v>0.0001821601326810196</v>
       </c>
       <c r="E717" t="n">
-        <v>0.002784884309289036</v>
+        <v>0.002784884316564993</v>
       </c>
     </row>
     <row r="718">
@@ -14072,10 +14072,10 @@
         <v>0.005387608500448967</v>
       </c>
       <c r="D718" t="n">
-        <v>0.0004350929229985923</v>
+        <v>0.0004350929521024227</v>
       </c>
       <c r="E718" t="n">
-        <v>0.00291135071172378</v>
+        <v>0.002911350726275695</v>
       </c>
     </row>
     <row r="719">
@@ -14091,10 +14091,10 @@
         <v>0.005387608500448967</v>
       </c>
       <c r="D719" t="n">
-        <v>0.0001655706000747159</v>
+        <v>0.0001655706146266311</v>
       </c>
       <c r="E719" t="n">
-        <v>0.002776589550261842</v>
+        <v>0.002776589557537799</v>
       </c>
     </row>
     <row r="720">
@@ -14110,10 +14110,10 @@
         <v>0.005088296917090692</v>
       </c>
       <c r="D720" t="n">
-        <v>0.0003105173236690462</v>
+        <v>0.0003105173527728766</v>
       </c>
       <c r="E720" t="n">
-        <v>0.002699407120379869</v>
+        <v>0.002699407134931784</v>
       </c>
     </row>
     <row r="721">
@@ -14129,10 +14129,10 @@
         <v>0.005088296917090692</v>
       </c>
       <c r="D721" t="n">
-        <v>0.000451608415460214</v>
+        <v>0.0004516084445640445</v>
       </c>
       <c r="E721" t="n">
-        <v>0.002769952666275453</v>
+        <v>0.002769952680827368</v>
       </c>
     </row>
     <row r="722">
@@ -14148,10 +14148,10 @@
         <v>0.005088296917090692</v>
       </c>
       <c r="D722" t="n">
-        <v>0.0001810346293495968</v>
+        <v>0.000181034643901512</v>
       </c>
       <c r="E722" t="n">
-        <v>0.002634665773220144</v>
+        <v>0.002634665780496102</v>
       </c>
     </row>
     <row r="723">
@@ -14167,10 +14167,10 @@
         <v>0.004788985333732416</v>
       </c>
       <c r="D723" t="n">
-        <v>0.0006674981559626758</v>
+        <v>0.0006674982141703367</v>
       </c>
       <c r="E723" t="n">
-        <v>0.002728241744847546</v>
+        <v>0.002728241773951376</v>
       </c>
     </row>
     <row r="724">
@@ -14243,10 +14243,10 @@
         <v>0.004489673750374139</v>
       </c>
       <c r="D727" t="n">
-        <v>0.0007365489145740867</v>
+        <v>0.0007365489727817476</v>
       </c>
       <c r="E727" t="n">
-        <v>0.002613111332474113</v>
+        <v>0.002613111361577943</v>
       </c>
     </row>
     <row r="728">
@@ -14262,10 +14262,10 @@
         <v>0.004190362167015863</v>
       </c>
       <c r="D728" t="n">
-        <v>0.0003516117576509714</v>
+        <v>0.0003516117867548019</v>
       </c>
       <c r="E728" t="n">
-        <v>0.002270986962333417</v>
+        <v>0.002270986976885333</v>
       </c>
     </row>
     <row r="729">
@@ -14281,10 +14281,10 @@
         <v>0.004190362167015863</v>
       </c>
       <c r="D729" t="n">
-        <v>0.001972546335309744</v>
+        <v>0.001972546568140388</v>
       </c>
       <c r="E729" t="n">
-        <v>0.003081454251162804</v>
+        <v>0.003081454367578125</v>
       </c>
     </row>
     <row r="730">
@@ -14319,10 +14319,10 @@
         <v>0.003891050583657588</v>
       </c>
       <c r="D731" t="n">
-        <v>0.0001378192537231371</v>
+        <v>0.0001378192682750523</v>
       </c>
       <c r="E731" t="n">
-        <v>0.002014434918690362</v>
+        <v>0.00201443492596632</v>
       </c>
     </row>
     <row r="732">
@@ -14357,10 +14357,10 @@
         <v>0.003891050583657588</v>
       </c>
       <c r="D733" t="n">
-        <v>0.0005573538946919143</v>
+        <v>0.0005573539528995752</v>
       </c>
       <c r="E733" t="n">
-        <v>0.002224202239174751</v>
+        <v>0.002224202268278581</v>
       </c>
     </row>
     <row r="734">
@@ -14414,10 +14414,10 @@
         <v>0.003591739000299311</v>
       </c>
       <c r="D736" t="n">
-        <v>0.0001470030401833355</v>
+        <v>0.0001470030547352508</v>
       </c>
       <c r="E736" t="n">
-        <v>0.001869371020241323</v>
+        <v>0.001869371027517281</v>
       </c>
     </row>
     <row r="737">
@@ -14433,10 +14433,10 @@
         <v>0.003591739000299311</v>
       </c>
       <c r="D737" t="n">
-        <v>0.001406953553669155</v>
+        <v>0.001406953670084476</v>
       </c>
       <c r="E737" t="n">
-        <v>0.002499346276984233</v>
+        <v>0.002499346335191894</v>
       </c>
     </row>
     <row r="738">
@@ -14490,10 +14490,10 @@
         <v>0.003591739000299311</v>
       </c>
       <c r="D740" t="n">
-        <v>0.0002228853263659403</v>
+        <v>0.0002228853409178555</v>
       </c>
       <c r="E740" t="n">
-        <v>0.001907312163332626</v>
+        <v>0.001907312170608583</v>
       </c>
     </row>
     <row r="741">
@@ -14509,10 +14509,10 @@
         <v>0.003292427416941036</v>
       </c>
       <c r="D741" t="n">
-        <v>0.001275857561267912</v>
+        <v>0.001275857677683234</v>
       </c>
       <c r="E741" t="n">
-        <v>0.002284142489104474</v>
+        <v>0.002284142547312135</v>
       </c>
     </row>
     <row r="742">
@@ -14566,10 +14566,10 @@
         <v>0.00299311583358276</v>
       </c>
       <c r="D744" t="n">
-        <v>0.004702561534941196</v>
+        <v>0.004702562000602484</v>
       </c>
       <c r="E744" t="n">
-        <v>0.003847838684261978</v>
+        <v>0.003847838917092622</v>
       </c>
     </row>
     <row r="745">
@@ -14661,10 +14661,10 @@
         <v>0.002693804250224484</v>
       </c>
       <c r="D749" t="n">
-        <v>8.183266618289053e-05</v>
+        <v>8.183267345884815e-05</v>
       </c>
       <c r="E749" t="n">
-        <v>0.001387818458203687</v>
+        <v>0.001387818461841666</v>
       </c>
     </row>
     <row r="750">
@@ -14680,10 +14680,10 @@
         <v>0.002693804250224484</v>
       </c>
       <c r="D750" t="n">
-        <v>0.0003801733255386353</v>
+        <v>0.0003801733546424657</v>
       </c>
       <c r="E750" t="n">
-        <v>0.001536988787881559</v>
+        <v>0.001536988802433475</v>
       </c>
     </row>
     <row r="751">
@@ -14699,10 +14699,10 @@
         <v>0.002693804250224484</v>
       </c>
       <c r="D751" t="n">
-        <v>0.000949214561842382</v>
+        <v>0.0009492146782577038</v>
       </c>
       <c r="E751" t="n">
-        <v>0.001821509406033433</v>
+        <v>0.001821509464241094</v>
       </c>
     </row>
     <row r="752">
@@ -14718,10 +14718,10 @@
         <v>0.002394492666866208</v>
       </c>
       <c r="D752" t="n">
-        <v>0.0003725558344740421</v>
+        <v>0.0003725558635778725</v>
       </c>
       <c r="E752" t="n">
-        <v>0.001383524250670125</v>
+        <v>0.00138352426522204</v>
       </c>
     </row>
     <row r="753">
@@ -14794,10 +14794,10 @@
         <v>0.002095181083507932</v>
       </c>
       <c r="D756" t="n">
-        <v>0.001255098264664412</v>
+        <v>0.001255098381079733</v>
       </c>
       <c r="E756" t="n">
-        <v>0.001675139674086172</v>
+        <v>0.001675139732293833</v>
       </c>
     </row>
     <row r="757">
@@ -14813,10 +14813,10 @@
         <v>0.002095181083507932</v>
       </c>
       <c r="D757" t="n">
-        <v>0.000344067404512316</v>
+        <v>0.0003440674336161464</v>
       </c>
       <c r="E757" t="n">
-        <v>0.001219624244010124</v>
+        <v>0.001219624258562039</v>
       </c>
     </row>
     <row r="758">
@@ -14832,10 +14832,10 @@
         <v>0.002095181083507932</v>
       </c>
       <c r="D758" t="n">
-        <v>0.0005299588665366173</v>
+        <v>0.0005299589247442782</v>
       </c>
       <c r="E758" t="n">
-        <v>0.001312569975022274</v>
+        <v>0.001312570004126105</v>
       </c>
     </row>
     <row r="759">
@@ -14851,10 +14851,10 @@
         <v>0.002095181083507932</v>
       </c>
       <c r="D759" t="n">
-        <v>0.001012322842143476</v>
+        <v>0.001012322958558798</v>
       </c>
       <c r="E759" t="n">
-        <v>0.001553751962825704</v>
+        <v>0.001553752021033365</v>
       </c>
     </row>
     <row r="760">
@@ -14889,10 +14889,10 @@
         <v>0.001795869500149656</v>
       </c>
       <c r="D761" t="n">
-        <v>0.0005917930975556374</v>
+        <v>0.0005917931557632983</v>
       </c>
       <c r="E761" t="n">
-        <v>0.001193831298852646</v>
+        <v>0.001193831327956477</v>
       </c>
     </row>
     <row r="762">
@@ -14946,10 +14946,10 @@
         <v>0.00149655791679138</v>
       </c>
       <c r="D764" t="n">
-        <v>0.0002673511626198888</v>
+        <v>0.0002673511917237192</v>
       </c>
       <c r="E764" t="n">
-        <v>0.0008819545397056344</v>
+        <v>0.0008819545542575496</v>
       </c>
     </row>
     <row r="765">
@@ -15003,10 +15003,10 @@
         <v>0.00149655791679138</v>
       </c>
       <c r="D767" t="n">
-        <v>0.0005121543654240668</v>
+        <v>0.0005121544236317277</v>
       </c>
       <c r="E767" t="n">
-        <v>0.001004356141107723</v>
+        <v>0.001004356170211554</v>
       </c>
     </row>
     <row r="768">
@@ -15060,10 +15060,10 @@
         <v>0.001197246333433104</v>
       </c>
       <c r="D770" t="n">
-        <v>9.802426211535931e-05</v>
+        <v>9.802426939131692e-05</v>
       </c>
       <c r="E770" t="n">
-        <v>0.0006476352977742316</v>
+        <v>0.0006476353014122104</v>
       </c>
     </row>
     <row r="771">
@@ -15117,10 +15117,10 @@
         <v>0.0008979347500748278</v>
       </c>
       <c r="D773" t="n">
-        <v>0.001912947511300445</v>
+        <v>0.001912947627715766</v>
       </c>
       <c r="E773" t="n">
-        <v>0.001405441130687636</v>
+        <v>0.001405441188895297</v>
       </c>
     </row>
     <row r="774">
@@ -15136,10 +15136,10 @@
         <v>0.0008979347500748278</v>
       </c>
       <c r="D774" t="n">
-        <v>0.0001833127898862585</v>
+        <v>0.0001833128044381738</v>
       </c>
       <c r="E774" t="n">
-        <v>0.0005406237699805431</v>
+        <v>0.0005406237772565008</v>
       </c>
     </row>
     <row r="775">
@@ -15155,10 +15155,10 @@
         <v>0.0008979347500748278</v>
       </c>
       <c r="D775" t="n">
-        <v>0.0006393792573362589</v>
+        <v>0.0006393793155439198</v>
       </c>
       <c r="E775" t="n">
-        <v>0.0007686570037055433</v>
+        <v>0.0007686570328093738</v>
       </c>
     </row>
     <row r="776">
@@ -15212,10 +15212,10 @@
         <v>0.0008979347500748278</v>
       </c>
       <c r="D778" t="n">
-        <v>0.0002300017222296447</v>
+        <v>0.0002300017367815599</v>
       </c>
       <c r="E778" t="n">
-        <v>0.0005639682361522362</v>
+        <v>0.0005639682434281938</v>
       </c>
     </row>
     <row r="779">
@@ -15250,10 +15250,10 @@
         <v>0.0008979347500748278</v>
       </c>
       <c r="D780" t="n">
-        <v>0.0001509186113253236</v>
+        <v>0.0001509186258772388</v>
       </c>
       <c r="E780" t="n">
-        <v>0.0005244266807000757</v>
+        <v>0.0005244266879760333</v>
       </c>
     </row>
     <row r="781">
@@ -15345,10 +15345,10 @@
         <v>0.000598623166716552</v>
       </c>
       <c r="D785" t="n">
-        <v>0.0001131602184614167</v>
+        <v>0.0001131602257373743</v>
       </c>
       <c r="E785" t="n">
-        <v>0.0003558916925889843</v>
+        <v>0.0003558916962269631</v>
       </c>
     </row>
     <row r="786">
@@ -15440,10 +15440,10 @@
         <v>0.000598623166716552</v>
       </c>
       <c r="D790" t="n">
-        <v>0.0005423621041700244</v>
+        <v>0.0005423621623776853</v>
       </c>
       <c r="E790" t="n">
-        <v>0.0005704926354432882</v>
+        <v>0.0005704926645471186</v>
       </c>
     </row>
     <row r="791">
@@ -15459,10 +15459,10 @@
         <v>0.000598623166716552</v>
       </c>
       <c r="D791" t="n">
-        <v>0.0003066324861720204</v>
+        <v>0.0003066325152758509</v>
       </c>
       <c r="E791" t="n">
-        <v>0.0004526278264442862</v>
+        <v>0.0004526278409962014</v>
       </c>
     </row>
     <row r="792">
@@ -15478,10 +15478,10 @@
         <v>0.000299311583358276</v>
       </c>
       <c r="D792" t="n">
-        <v>0.00021993467817083</v>
+        <v>0.0002199346927227452</v>
       </c>
       <c r="E792" t="n">
-        <v>0.000259623130764553</v>
+        <v>0.0002596231380405106</v>
       </c>
     </row>
     <row r="793">
@@ -15497,10 +15497,10 @@
         <v>0.000299311583358276</v>
       </c>
       <c r="D793" t="n">
-        <v>0.0006039023865014315</v>
+        <v>0.0006039024447090924</v>
       </c>
       <c r="E793" t="n">
-        <v>0.0004516069849298537</v>
+        <v>0.0004516070140336842</v>
       </c>
     </row>
     <row r="794">
@@ -15535,10 +15535,10 @@
         <v>0.000299311583358276</v>
       </c>
       <c r="D795" t="n">
-        <v>0.002965942723676562</v>
+        <v>0.002965942956507206</v>
       </c>
       <c r="E795" t="n">
-        <v>0.001632627153517419</v>
+        <v>0.001632627269932741</v>
       </c>
     </row>
     <row r="796">
